--- a/Exp2021/Exp 2021.xlsx
+++ b/Exp2021/Exp 2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264" tabRatio="804" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9264" tabRatio="804" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Список оборудования" sheetId="12" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Участники!$A$1:$AA$17</definedName>
@@ -1272,13 +1271,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="180" formatCode="[$-419]d\ mm\ yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="[$-419]d\ mm\ yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="180" formatCode="dd\.mmm"/>
     <numFmt numFmtId="181" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
     <numFmt numFmtId="182" formatCode="d/m/yy;@"/>
   </numFmts>
@@ -1423,6 +1422,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1437,14 +1459,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1452,69 +1467,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1530,7 +1482,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1538,6 +1490,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1552,17 +1534,34 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1598,7 +1597,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,7 +1675,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1622,67 +1747,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1694,91 +1771,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1958,13 +1957,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1984,50 +2029,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2046,173 +2054,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2242,17 +2241,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2361,7 +2357,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2384,7 +2380,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2471,7 +2467,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="182" fontId="11" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2483,9 +2478,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2631,27 +2623,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Шаблон"/>
-      <sheetName val="Охрана"/>
-      <sheetName val="Пожертвования"/>
-      <sheetName val="Справочник"/>
-      <sheetName val="Восстановл_Лист1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2938,600 +2909,600 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7962962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.13888888888889" style="121" customWidth="1"/>
-    <col min="2" max="2" width="29" style="121" customWidth="1"/>
-    <col min="3" max="3" width="14.7037037037037" style="121" customWidth="1"/>
-    <col min="4" max="4" width="10.4259259259259" style="121" customWidth="1"/>
-    <col min="5" max="5" width="17.8611111111111" style="121" customWidth="1"/>
-    <col min="6" max="16384" width="7.86111111111111" style="121" customWidth="1"/>
+    <col min="1" max="1" width="4.13888888888889" style="118" customWidth="1"/>
+    <col min="2" max="2" width="29" style="118" customWidth="1"/>
+    <col min="3" max="3" width="14.7037037037037" style="118" customWidth="1"/>
+    <col min="4" max="4" width="10.4259259259259" style="118" customWidth="1"/>
+    <col min="5" max="5" width="17.8611111111111" style="118" customWidth="1"/>
+    <col min="6" max="16384" width="7.86111111111111" style="118" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="122"/>
-      <c r="B1" s="123" t="s">
+      <c r="A1" s="119"/>
+      <c r="B1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="123" t="s">
+      <c r="D1" s="120" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="122"/>
-      <c r="B2" s="124" t="s">
+      <c r="A2" s="119"/>
+      <c r="B2" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="126" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="123" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123" t="s">
+      <c r="C3" s="122"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="121">
+      <c r="F3" s="118">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123" t="s">
+      <c r="C4" s="122"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="121">
+      <c r="F4" s="118">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="125"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123" t="s">
+      <c r="C5" s="122"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="121">
+      <c r="F5" s="118">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="E6" s="123" t="s">
+      <c r="C6" s="122"/>
+      <c r="E6" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="121">
+      <c r="F6" s="118">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123" t="s">
+      <c r="C7" s="122"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="121">
+      <c r="F7" s="118">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="125"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="121" t="s">
+      <c r="C8" s="122"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="121">
+      <c r="F8" s="118">
         <v>3</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" spans="2:6">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="121" t="s">
+      <c r="C9" s="122"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="121">
+      <c r="F9" s="118">
         <v>4</v>
       </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" spans="2:6">
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="E10" s="121" t="s">
+      <c r="C10" s="122"/>
+      <c r="E10" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="121">
+      <c r="F10" s="118">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="123"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="120"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="E12" s="128" t="s">
+      <c r="C12" s="122"/>
+      <c r="E12" s="125" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="E13" s="121" t="s">
+      <c r="C13" s="122"/>
+      <c r="E13" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="121">
+      <c r="F13" s="118">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="125"/>
+      <c r="C14" s="122"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="124" t="s">
+      <c r="B15" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="E15" s="123" t="s">
+      <c r="C15" s="122"/>
+      <c r="E15" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="121" t="s">
+      <c r="F15" s="118" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="124" t="s">
+      <c r="B16" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="125"/>
+      <c r="C16" s="122"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="125"/>
+      <c r="C17" s="122"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="125"/>
+      <c r="C18" s="122"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="125"/>
+      <c r="C19" s="122"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="129"/>
-      <c r="B20" s="124" t="s">
+      <c r="A20" s="126"/>
+      <c r="B20" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="125"/>
+      <c r="C20" s="122"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="129"/>
-      <c r="B21" s="124" t="s">
+      <c r="A21" s="126"/>
+      <c r="B21" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="125"/>
+      <c r="C21" s="122"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="129"/>
-      <c r="B22" s="124" t="s">
+      <c r="A22" s="126"/>
+      <c r="B22" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="125"/>
+      <c r="C22" s="122"/>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="124" t="s">
+      <c r="B23" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="125"/>
+      <c r="C23" s="122"/>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="124" t="s">
+      <c r="B24" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="125"/>
+      <c r="C24" s="122"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="124" t="s">
+      <c r="B25" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="125"/>
+      <c r="C25" s="122"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="124" t="s">
+      <c r="B26" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="125"/>
+      <c r="C26" s="122"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="124" t="s">
+      <c r="B27" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="125"/>
+      <c r="C27" s="122"/>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="124" t="s">
+      <c r="B28" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="125"/>
+      <c r="C28" s="122"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="124" t="s">
+      <c r="B29" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="125"/>
+      <c r="C29" s="122"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="125" t="s">
+      <c r="B30" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="125"/>
+      <c r="C30" s="122"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="124" t="s">
+      <c r="B31" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="125"/>
+      <c r="C31" s="122"/>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="124" t="s">
+      <c r="B32" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="125"/>
+      <c r="C32" s="122"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="124" t="s">
+      <c r="B33" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="125"/>
+      <c r="C33" s="122"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="124" t="s">
+      <c r="B34" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="125"/>
+      <c r="C34" s="122"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="124" t="s">
+      <c r="B35" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="125"/>
+      <c r="C35" s="122"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="127" t="s">
+      <c r="B36" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="125"/>
+      <c r="C36" s="122"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="124" t="s">
+      <c r="B37" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="125"/>
+      <c r="C37" s="122"/>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="124" t="s">
+      <c r="B38" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="125"/>
+      <c r="C38" s="122"/>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="124" t="s">
+      <c r="B39" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="125"/>
+      <c r="C39" s="122"/>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="124" t="s">
+      <c r="B40" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="125"/>
+      <c r="C40" s="122"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="124" t="s">
+      <c r="B41" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="125"/>
+      <c r="C41" s="122"/>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="124" t="s">
+      <c r="B42" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="125"/>
+      <c r="C42" s="122"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="124" t="s">
+      <c r="B43" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="125"/>
+      <c r="C43" s="122"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="124" t="s">
+      <c r="B44" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="125"/>
+      <c r="C44" s="122"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="124" t="s">
+      <c r="B45" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="125"/>
+      <c r="C45" s="122"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="124" t="s">
+      <c r="B46" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="125"/>
+      <c r="C46" s="122"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="124" t="s">
+      <c r="B47" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="125"/>
+      <c r="C47" s="122"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="124" t="s">
+      <c r="B48" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="125"/>
+      <c r="C48" s="122"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="127" t="s">
+      <c r="B49" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="125"/>
+      <c r="C49" s="122"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="124" t="s">
+      <c r="B50" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="125"/>
+      <c r="C50" s="122"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="124" t="s">
+      <c r="B51" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="125"/>
+      <c r="C51" s="122"/>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="124" t="s">
+      <c r="B52" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="125"/>
+      <c r="C52" s="122"/>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="130" t="s">
+      <c r="B53" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="125"/>
+      <c r="C53" s="122"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="124" t="s">
+      <c r="B54" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="125"/>
+      <c r="C54" s="122"/>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="124" t="s">
+      <c r="B55" s="121" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="125"/>
+      <c r="C55" s="122"/>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="124" t="s">
+      <c r="B56" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="125"/>
+      <c r="C56" s="122"/>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="124" t="s">
+      <c r="B57" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="125"/>
+      <c r="C57" s="122"/>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="124" t="s">
+      <c r="B58" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="125"/>
+      <c r="C58" s="122"/>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="125" t="s">
+      <c r="B59" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="125"/>
+      <c r="C59" s="122"/>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="124" t="s">
+      <c r="B60" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="125"/>
+      <c r="C60" s="122"/>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="124" t="s">
+      <c r="B61" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="125"/>
+      <c r="C61" s="122"/>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="124" t="s">
+      <c r="B62" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="125"/>
+      <c r="C62" s="122"/>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="124" t="s">
+      <c r="B63" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="C63" s="125"/>
+      <c r="C63" s="122"/>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="124" t="s">
+      <c r="B64" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="125"/>
+      <c r="C64" s="122"/>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="124" t="s">
+      <c r="B65" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="125"/>
+      <c r="C65" s="122"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="124" t="s">
+      <c r="B66" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="125"/>
+      <c r="C66" s="122"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="125" t="s">
+      <c r="B67" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="125"/>
+      <c r="C67" s="122"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="124" t="s">
+      <c r="B68" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="125"/>
+      <c r="C68" s="122"/>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="124" t="s">
+      <c r="B69" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="125"/>
+      <c r="C69" s="122"/>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="124" t="s">
+      <c r="B70" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="125"/>
+      <c r="C70" s="122"/>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="124" t="s">
+      <c r="B71" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="125"/>
+      <c r="C71" s="122"/>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="124" t="s">
+      <c r="B72" s="121" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="125"/>
+      <c r="C72" s="122"/>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="124" t="s">
+      <c r="B73" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="125"/>
+      <c r="C73" s="122"/>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="124" t="s">
+      <c r="B74" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="125"/>
+      <c r="C74" s="122"/>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="124" t="s">
+      <c r="B75" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="C75" s="125"/>
+      <c r="C75" s="122"/>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="124" t="s">
+      <c r="B76" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="C76" s="125"/>
+      <c r="C76" s="122"/>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="127" t="s">
+      <c r="B77" s="124" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="125"/>
+      <c r="C77" s="122"/>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="125" t="s">
+      <c r="B78" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="125"/>
+      <c r="C78" s="122"/>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="126" t="s">
+      <c r="B80" s="123" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="121" t="s">
+      <c r="B81" s="118" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="121" t="s">
+      <c r="B82" s="118" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="121" t="s">
+      <c r="B83" s="118" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="121" t="s">
+      <c r="B84" s="118" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="121" t="s">
+      <c r="B85" s="118" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="121" t="s">
+      <c r="B86" s="118" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="121" t="s">
+      <c r="B87" s="118" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3547,870 +3518,870 @@
   <sheetPr/>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.37037037037037" style="30" customWidth="1"/>
-    <col min="2" max="2" width="18.0555555555556" style="30" customWidth="1"/>
-    <col min="3" max="3" width="10.8888888888889" style="30"/>
-    <col min="4" max="4" width="11.1759259259259" style="30" customWidth="1"/>
-    <col min="5" max="5" width="5.58333333333333" style="30" customWidth="1"/>
-    <col min="6" max="6" width="17.0092592592593" style="30" customWidth="1"/>
-    <col min="7" max="7" width="8.4537037037037" style="30" customWidth="1"/>
-    <col min="8" max="8" width="11.037037037037" style="30" customWidth="1"/>
-    <col min="9" max="9" width="3.75925925925926" style="30" customWidth="1"/>
-    <col min="10" max="10" width="7.91666666666667" style="30"/>
-    <col min="11" max="11" width="17.9166666666667" style="30" customWidth="1"/>
-    <col min="12" max="12" width="6.11111111111111" style="30" customWidth="1"/>
-    <col min="13" max="13" width="12.6018518518519" style="30" customWidth="1"/>
-    <col min="14" max="256" width="8.30555555555556" style="30"/>
-    <col min="257" max="16384" width="8" style="30"/>
+    <col min="1" max="1" width="3.37037037037037" style="29" customWidth="1"/>
+    <col min="2" max="2" width="18.0555555555556" style="29" customWidth="1"/>
+    <col min="3" max="3" width="10.8888888888889" style="29"/>
+    <col min="4" max="4" width="11.1759259259259" style="29" customWidth="1"/>
+    <col min="5" max="5" width="5.58333333333333" style="29" customWidth="1"/>
+    <col min="6" max="6" width="17.0092592592593" style="29" customWidth="1"/>
+    <col min="7" max="7" width="8.4537037037037" style="29" customWidth="1"/>
+    <col min="8" max="8" width="11.037037037037" style="29" customWidth="1"/>
+    <col min="9" max="9" width="3.75925925925926" style="29" customWidth="1"/>
+    <col min="10" max="10" width="7.91666666666667" style="29"/>
+    <col min="11" max="11" width="17.9166666666667" style="29" customWidth="1"/>
+    <col min="12" max="12" width="6.11111111111111" style="29" customWidth="1"/>
+    <col min="13" max="13" width="12.6018518518519" style="29" customWidth="1"/>
+    <col min="14" max="256" width="8.30555555555556" style="29"/>
+    <col min="257" max="16384" width="8" style="29"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:13">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-    </row>
-    <row r="2" s="30" customFormat="1" ht="43" customHeight="1" spans="1:13">
-      <c r="A2" s="80" t="s">
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+    </row>
+    <row r="2" s="29" customFormat="1" ht="43" customHeight="1" spans="1:13">
+      <c r="A2" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="H2" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="106" t="s">
+      <c r="K2" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="107" t="s">
+      <c r="M2" s="106" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" s="69" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A3" s="83">
+    <row r="3" s="68" customFormat="1" ht="28" customHeight="1" spans="1:14">
+      <c r="A3" s="82">
         <v>1</v>
       </c>
-      <c r="B3" s="84" t="str">
+      <c r="B3" s="83" t="str">
         <f>CONCATENATE('Информация для бумаг'!B5," ",'Информация для бумаг'!C5)</f>
         <v>Атаманов Андрей</v>
       </c>
-      <c r="C3" s="85" t="str">
+      <c r="C3" s="84" t="str">
         <f>'Информация для бумаг'!N5</f>
         <v>02.03.0005</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="42">
         <f>'Информация для бумаг'!H5</f>
         <v>630</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="31">
         <f>'Информация для бумаг'!I5</f>
         <v>10</v>
       </c>
-      <c r="F3" s="67" t="str">
+      <c r="F3" s="66" t="str">
         <f>'Информация для бумаг'!K5</f>
         <v>Шуваловский пр. д. 90 к. кв.180</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="87" t="s">
+      <c r="H3" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="108">
+      <c r="I3" s="87">
         <v>1</v>
       </c>
-      <c r="J3" s="109" t="s">
+      <c r="J3" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="110" t="s">
+      <c r="K3" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="L3" s="111">
+      <c r="L3" s="109">
         <v>1400</v>
       </c>
-      <c r="M3" s="111" t="s">
+      <c r="M3" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="N3" s="112"/>
-    </row>
-    <row r="4" s="69" customFormat="1" ht="24" spans="1:14">
-      <c r="A4" s="88">
+      <c r="N3" s="110"/>
+    </row>
+    <row r="4" s="68" customFormat="1" ht="24" spans="1:14">
+      <c r="A4" s="87">
         <v>2</v>
       </c>
-      <c r="B4" s="84" t="str">
+      <c r="B4" s="83" t="str">
         <f>CONCATENATE('Информация для бумаг'!B6," ",'Информация для бумаг'!C6)</f>
         <v>Башилов Константин</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="84">
         <f>'Информация для бумаг'!N6</f>
         <v>39367</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="42">
         <f>'Информация для бумаг'!H6</f>
         <v>197</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="31">
         <f>'Информация для бумаг'!I6</f>
         <v>7</v>
       </c>
-      <c r="F4" s="67" t="str">
+      <c r="F4" s="66" t="str">
         <f>'Информация для бумаг'!K6</f>
         <v>СПб, Пестеля д. 13-15 кв. 108</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="89"/>
-      <c r="I4" s="113">
+      <c r="H4" s="88"/>
+      <c r="I4" s="82">
         <v>2</v>
       </c>
-      <c r="J4" s="109" t="s">
+      <c r="J4" s="107" t="s">
         <v>117</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111" t="s">
+      <c r="L4" s="109"/>
+      <c r="M4" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="N4" s="112"/>
-    </row>
-    <row r="5" s="69" customFormat="1" ht="23" customHeight="1" spans="1:14">
-      <c r="A5" s="83">
+      <c r="N4" s="110"/>
+    </row>
+    <row r="5" s="68" customFormat="1" ht="23" customHeight="1" spans="1:14">
+      <c r="A5" s="82">
         <v>3</v>
       </c>
-      <c r="B5" s="84" t="str">
+      <c r="B5" s="83" t="str">
         <f>CONCATENATE('Информация для бумаг'!B7," ",'Информация для бумаг'!C7)</f>
         <v>Белокуров Михаил</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="84">
         <f>'Информация для бумаг'!N7</f>
         <v>38553</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="42">
         <f>'Информация для бумаг'!H7</f>
         <v>225</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <f>'Информация для бумаг'!I7</f>
         <v>10</v>
       </c>
-      <c r="F5" s="67" t="str">
+      <c r="F5" s="66" t="str">
         <f>'Информация для бумаг'!K7</f>
         <v>ул. Ставропольская д. 12/15 кв. 46</v>
       </c>
-      <c r="G5" s="86" t="s">
+      <c r="G5" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="89"/>
-      <c r="I5" s="108">
+      <c r="H5" s="88"/>
+      <c r="I5" s="87">
         <v>3</v>
       </c>
-      <c r="J5" s="114" t="s">
+      <c r="J5" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="K5" s="110" t="s">
+      <c r="K5" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="L5" s="111">
+      <c r="L5" s="109">
         <v>1400</v>
       </c>
-      <c r="M5" s="111" t="s">
+      <c r="M5" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="N5" s="112"/>
-    </row>
-    <row r="6" s="69" customFormat="1" ht="24" spans="1:14">
-      <c r="A6" s="88">
+      <c r="N5" s="110"/>
+    </row>
+    <row r="6" s="68" customFormat="1" ht="24" spans="1:14">
+      <c r="A6" s="87">
         <v>4</v>
       </c>
-      <c r="B6" s="84" t="str">
+      <c r="B6" s="83" t="str">
         <f>CONCATENATE('Информация для бумаг'!B8," ",'Информация для бумаг'!C8)</f>
         <v>Демидова Алина</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="84">
         <f>'Информация для бумаг'!N8</f>
         <v>39554</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="42">
         <f>'Информация для бумаг'!H8</f>
         <v>320</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="31">
         <f>'Информация для бумаг'!I8</f>
         <v>7</v>
       </c>
-      <c r="F6" s="67" t="str">
+      <c r="F6" s="66" t="str">
         <f>'Информация для бумаг'!K8</f>
         <v>Туристская ул. дом 28 корп.3 кв.203</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="89"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="112"/>
-    </row>
-    <row r="7" s="69" customFormat="1" ht="24" spans="1:14">
-      <c r="A7" s="83">
+      <c r="H6" s="88"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="110"/>
+    </row>
+    <row r="7" s="68" customFormat="1" ht="24" spans="1:14">
+      <c r="A7" s="82">
         <v>5</v>
       </c>
-      <c r="B7" s="84" t="str">
+      <c r="B7" s="83" t="str">
         <f>CONCATENATE('Информация для бумаг'!B9," ",'Информация для бумаг'!C9)</f>
         <v>Евдокимова Алёна</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="84">
         <f>'Информация для бумаг'!N9</f>
         <v>38137</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="42">
         <f>'Информация для бумаг'!H9</f>
         <v>225</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="31">
         <f>'Информация для бумаг'!I9</f>
         <v>11</v>
       </c>
-      <c r="F7" s="67" t="str">
+      <c r="F7" s="66" t="str">
         <f>'Информация для бумаг'!K9</f>
         <v>ул. Витебская, д.10, кв.14</v>
       </c>
-      <c r="G7" s="86" t="s">
+      <c r="G7" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="89"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="112"/>
-    </row>
-    <row r="8" s="69" customFormat="1" ht="24" spans="1:14">
-      <c r="A8" s="88">
+      <c r="H7" s="88"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="110"/>
+    </row>
+    <row r="8" s="68" customFormat="1" ht="24" spans="1:14">
+      <c r="A8" s="87">
         <v>6</v>
       </c>
-      <c r="B8" s="84" t="str">
+      <c r="B8" s="83" t="str">
         <f>CONCATENATE('Информация для бумаг'!B10," ",'Информация для бумаг'!C10)</f>
         <v>Ершова Татьяна</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="84">
         <f>'Информация для бумаг'!N10</f>
         <v>39166</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="42">
         <f>'Информация для бумаг'!H10</f>
         <v>441</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="31">
         <f>'Информация для бумаг'!I10</f>
         <v>8</v>
       </c>
-      <c r="F8" s="67" t="str">
+      <c r="F8" s="66" t="str">
         <f>'Информация для бумаг'!K10</f>
         <v>ул. Малая Карпатская д.17 кв 275</v>
       </c>
-      <c r="G8" s="86" t="s">
+      <c r="G8" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="89"/>
-      <c r="N8" s="116"/>
-    </row>
-    <row r="9" s="69" customFormat="1" ht="48" spans="1:13">
-      <c r="A9" s="83">
+      <c r="H8" s="88"/>
+      <c r="N8" s="113"/>
+    </row>
+    <row r="9" s="68" customFormat="1" ht="48" spans="1:13">
+      <c r="A9" s="82">
         <v>7</v>
       </c>
-      <c r="B9" s="84" t="str">
+      <c r="B9" s="83" t="str">
         <f>CONCATENATE('Информация для бумаг'!B11," ",'Информация для бумаг'!C11)</f>
         <v>Зиглина Софья</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="84">
         <f>'Информация для бумаг'!N11</f>
         <v>38518</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="42">
         <f>'Информация для бумаг'!H11</f>
         <v>628</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="31">
         <f>'Информация для бумаг'!I11</f>
         <v>10</v>
       </c>
-      <c r="F9" s="67" t="str">
+      <c r="F9" s="66" t="str">
         <f>'Информация для бумаг'!K11</f>
         <v>Санкт-Петербург, Красногвардейский район, улица Коммуны, дом 42, к.1, КВ.33</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="H9" s="89"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-    </row>
-    <row r="10" s="69" customFormat="1" ht="36" spans="1:13">
-      <c r="A10" s="88">
+      <c r="H9" s="88"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+    </row>
+    <row r="10" s="68" customFormat="1" ht="36" spans="1:13">
+      <c r="A10" s="87">
         <v>8</v>
       </c>
-      <c r="B10" s="84" t="str">
+      <c r="B10" s="83" t="str">
         <f>CONCATENATE('Информация для бумаг'!B12," ",'Информация для бумаг'!C12)</f>
         <v>Каретная Вероника</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="84">
         <f>'Информация для бумаг'!N12</f>
         <v>39485</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="42">
         <f>'Информация для бумаг'!H12</f>
         <v>12</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="31">
         <f>'Информация для бумаг'!I12</f>
         <v>7</v>
       </c>
-      <c r="F10" s="67" t="str">
+      <c r="F10" s="66" t="str">
         <f>'Информация для бумаг'!K12</f>
         <v>С-Пб., ул. Кораблестроителей д.19/1, кв. 168</v>
       </c>
-      <c r="G10" s="86" t="s">
+      <c r="G10" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="H10" s="89"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-    </row>
-    <row r="11" s="69" customFormat="1" ht="36" spans="1:13">
-      <c r="A11" s="83">
+      <c r="H10" s="88"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+    </row>
+    <row r="11" s="68" customFormat="1" ht="36" spans="1:13">
+      <c r="A11" s="82">
         <v>9</v>
       </c>
-      <c r="B11" s="84" t="str">
+      <c r="B11" s="83" t="str">
         <f>CONCATENATE('Информация для бумаг'!B13," ",'Информация для бумаг'!C13)</f>
         <v>Кудряшов Тимофей</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="84">
         <f>'Информация для бумаг'!N13</f>
         <v>38434</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="42">
         <f>'Информация для бумаг'!H13</f>
         <v>504</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="31">
         <f>'Информация для бумаг'!I13</f>
         <v>11</v>
       </c>
-      <c r="F11" s="67" t="str">
+      <c r="F11" s="66" t="str">
         <f>'Информация для бумаг'!K13</f>
         <v>Санкт-Петербург, пр. Маршала Жукова, д.45, кв 222</v>
       </c>
-      <c r="G11" s="86" t="s">
+      <c r="G11" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="89"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-    </row>
-    <row r="12" s="69" customFormat="1" ht="24" spans="1:13">
-      <c r="A12" s="88">
+      <c r="H11" s="88"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+    </row>
+    <row r="12" s="68" customFormat="1" ht="24" spans="1:13">
+      <c r="A12" s="87">
         <v>10</v>
       </c>
-      <c r="B12" s="84" t="str">
+      <c r="B12" s="83" t="str">
         <f>CONCATENATE('Информация для бумаг'!B14," ",'Информация для бумаг'!C14)</f>
         <v>Нематова Рената</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="84">
         <f>'Информация для бумаг'!N14</f>
         <v>38051</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="42">
         <f>'Информация для бумаг'!H14</f>
         <v>225</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="31">
         <f>'Информация для бумаг'!I14</f>
         <v>11</v>
       </c>
-      <c r="F12" s="67" t="str">
+      <c r="F12" s="66" t="str">
         <f>'Информация для бумаг'!K14</f>
         <v>СПб,пос.Александровская,4 линия, д. 43А</v>
       </c>
-      <c r="G12" s="86" t="s">
+      <c r="G12" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="89"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-    </row>
-    <row r="13" s="69" customFormat="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A13" s="83">
+      <c r="H12" s="88"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+    </row>
+    <row r="13" s="68" customFormat="1" ht="24" customHeight="1" spans="1:13">
+      <c r="A13" s="82">
         <v>11</v>
       </c>
-      <c r="B13" s="84" t="str">
+      <c r="B13" s="83" t="str">
         <f>CONCATENATE('Информация для бумаг'!B15," ",'Информация для бумаг'!C15)</f>
         <v>Попов Василий</v>
       </c>
-      <c r="C13" s="85">
+      <c r="C13" s="84">
         <f>'Информация для бумаг'!N15</f>
         <v>39331</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="42">
         <f>'Информация для бумаг'!H15</f>
         <v>183</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="31">
         <f>'Информация для бумаг'!I15</f>
         <v>8</v>
       </c>
-      <c r="F13" s="67" t="str">
+      <c r="F13" s="66" t="str">
         <f>'Информация для бумаг'!K15</f>
         <v>Ул.Бутлерова, 11 к.4 , кв 385</v>
       </c>
-      <c r="G13" s="86" t="s">
+      <c r="G13" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="89"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-    </row>
-    <row r="14" s="69" customFormat="1" ht="17" customHeight="1" spans="1:13">
-      <c r="A14" s="88">
+      <c r="H13" s="88"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+    </row>
+    <row r="14" s="68" customFormat="1" ht="17" customHeight="1" spans="1:13">
+      <c r="A14" s="87">
         <v>12</v>
       </c>
-      <c r="B14" s="84" t="str">
+      <c r="B14" s="83" t="str">
         <f>CONCATENATE('Информация для бумаг'!B16," ",'Информация для бумаг'!C16)</f>
         <v>Сайчик Мария</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="84">
         <f>'Информация для бумаг'!N16</f>
         <v>38982</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="42">
         <f>'Информация для бумаг'!H16</f>
         <v>586</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="31">
         <f>'Информация для бумаг'!I16</f>
         <v>9</v>
       </c>
-      <c r="F14" s="67" t="str">
+      <c r="F14" s="66" t="str">
         <f>'Информация для бумаг'!K16</f>
         <v>Кораблестроителей, 39-831</v>
       </c>
-      <c r="G14" s="86" t="s">
+      <c r="G14" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="89"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-    </row>
-    <row r="15" s="69" customFormat="1" spans="1:13">
-      <c r="A15" s="83">
+      <c r="H14" s="88"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+    </row>
+    <row r="15" s="68" customFormat="1" spans="1:13">
+      <c r="A15" s="82">
         <v>13</v>
       </c>
-      <c r="B15" s="84" t="str">
+      <c r="B15" s="83" t="str">
         <f>CONCATENATE('Информация для бумаг'!B17," ",'Информация для бумаг'!C17)</f>
         <v>Семенова Елизавета</v>
       </c>
-      <c r="C15" s="85">
+      <c r="C15" s="84">
         <f>'Информация для бумаг'!N17</f>
         <v>39875</v>
       </c>
-      <c r="D15" s="43" t="str">
+      <c r="D15" s="42" t="str">
         <f>'Информация для бумаг'!H17</f>
         <v>Гимн 2</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="31">
         <f>'Информация для бумаг'!I17</f>
         <v>7</v>
       </c>
-      <c r="F15" s="67" t="str">
+      <c r="F15" s="66" t="str">
         <f>'Информация для бумаг'!K17</f>
         <v>Лабутина 20-22 кв. 40</v>
       </c>
-      <c r="G15" s="86" t="s">
+      <c r="G15" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="89"/>
-      <c r="I15" s="117" t="s">
+      <c r="H15" s="88"/>
+      <c r="I15" s="114" t="s">
         <v>122</v>
       </c>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="119"/>
-    </row>
-    <row r="16" s="69" customFormat="1" ht="23" customHeight="1" spans="1:13">
-      <c r="A16" s="88">
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="116"/>
+    </row>
+    <row r="16" s="68" customFormat="1" ht="23" customHeight="1" spans="1:13">
+      <c r="A16" s="87">
         <v>14</v>
       </c>
-      <c r="B16" s="84" t="str">
+      <c r="B16" s="83" t="str">
         <f>CONCATENATE('Информация для бумаг'!B18," ",'Информация для бумаг'!C18)</f>
         <v>Шилонцев Андрей</v>
       </c>
-      <c r="C16" s="85">
+      <c r="C16" s="84">
         <f>'Информация для бумаг'!N18</f>
         <v>38989</v>
       </c>
-      <c r="D16" s="43" t="str">
+      <c r="D16" s="42" t="str">
         <f>'Информация для бумаг'!H18</f>
         <v>Лицей № 387</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="31">
         <f>'Информация для бумаг'!I18</f>
         <v>9</v>
       </c>
-      <c r="F16" s="67" t="str">
+      <c r="F16" s="66" t="str">
         <f>'Информация для бумаг'!K18</f>
         <v>Санкт-Петербург, Ленинский проспект, дом 117, корпус 1, квартира 603</v>
       </c>
-      <c r="G16" s="86" t="s">
+      <c r="G16" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="H16" s="89"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-    </row>
-    <row r="17" s="69" customFormat="1" ht="36" spans="1:13">
-      <c r="A17" s="83">
+      <c r="H16" s="88"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+    </row>
+    <row r="17" s="68" customFormat="1" ht="36" spans="1:13">
+      <c r="A17" s="82">
         <v>15</v>
       </c>
-      <c r="B17" s="84" t="str">
+      <c r="B17" s="83" t="str">
         <f>CONCATENATE('Информация для бумаг'!B19," ",'Информация для бумаг'!C19)</f>
         <v>Шишкина Алина</v>
       </c>
-      <c r="C17" s="85">
+      <c r="C17" s="84">
         <f>'Информация для бумаг'!N19</f>
         <v>38070</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="42">
         <f>'Информация для бумаг'!H19</f>
         <v>246</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="31">
         <f>'Информация для бумаг'!I19</f>
         <v>11</v>
       </c>
-      <c r="F17" s="67" t="str">
+      <c r="F17" s="66" t="str">
         <f>'Информация для бумаг'!K19</f>
         <v>Проспект Авиаконструкторов, дом 47, квартира 4</v>
       </c>
-      <c r="G17" s="86" t="s">
+      <c r="G17" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="H17" s="89"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-    </row>
-    <row r="18" s="69" customFormat="1" spans="1:13">
-      <c r="A18" s="88">
+      <c r="H17" s="88"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+    </row>
+    <row r="18" s="68" customFormat="1" spans="1:13">
+      <c r="A18" s="87">
         <v>16</v>
       </c>
-      <c r="B18" s="84" t="str">
+      <c r="B18" s="83" t="str">
         <f>CONCATENATE('Информация для бумаг'!B20," ",'Информация для бумаг'!C20)</f>
         <v>Нужин Илья</v>
       </c>
-      <c r="C18" s="85">
+      <c r="C18" s="84">
         <f>'Информация для бумаг'!N20</f>
         <v>38933</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="42">
         <f>'Информация для бумаг'!H20</f>
         <v>30</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="31">
         <f>'Информация для бумаг'!I20</f>
         <v>9</v>
       </c>
-      <c r="F18" s="67" t="str">
+      <c r="F18" s="66" t="str">
         <f>'Информация для бумаг'!K20</f>
         <v>Наличная 37-1-4</v>
       </c>
-      <c r="G18" s="86" t="s">
+      <c r="G18" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="89"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-    </row>
-    <row r="19" s="69" customFormat="1" spans="1:13">
-      <c r="A19" s="88"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-    </row>
-    <row r="20" s="69" customFormat="1" spans="1:13">
-      <c r="A20" s="88"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-    </row>
-    <row r="21" s="69" customFormat="1" spans="1:13">
-      <c r="A21" s="88"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-    </row>
-    <row r="22" s="69" customFormat="1" spans="1:13">
-      <c r="A22" s="88"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-    </row>
-    <row r="23" s="69" customFormat="1" spans="1:13">
-      <c r="A23" s="88"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-    </row>
-    <row r="24" s="69" customFormat="1" spans="1:13">
-      <c r="A24" s="83"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-    </row>
-    <row r="25" s="69" customFormat="1" ht="12" spans="1:13">
-      <c r="A25" s="90"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-    </row>
-    <row r="26" s="69" customFormat="1" spans="1:13">
-      <c r="A26" s="83"/>
-      <c r="B26" s="92" t="str">
+      <c r="H18" s="88"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+    </row>
+    <row r="19" s="68" customFormat="1" spans="1:13">
+      <c r="A19" s="87"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+    </row>
+    <row r="20" s="68" customFormat="1" spans="1:13">
+      <c r="A20" s="87"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+    </row>
+    <row r="21" s="68" customFormat="1" spans="1:13">
+      <c r="A21" s="87"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+    </row>
+    <row r="22" s="68" customFormat="1" spans="1:13">
+      <c r="A22" s="87"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+    </row>
+    <row r="23" s="68" customFormat="1" spans="1:13">
+      <c r="A23" s="87"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+    </row>
+    <row r="24" s="68" customFormat="1" spans="1:13">
+      <c r="A24" s="82"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+    </row>
+    <row r="25" s="68" customFormat="1" ht="12" spans="1:13">
+      <c r="A25" s="89"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+    </row>
+    <row r="26" s="68" customFormat="1" spans="1:13">
+      <c r="A26" s="82"/>
+      <c r="B26" s="91" t="str">
         <f>'Информация для бумаг'!C23</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="C26" s="85"/>
-      <c r="D26" s="93" t="s">
+      <c r="C26" s="84"/>
+      <c r="D26" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="94"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="88"/>
-      <c r="B27" s="32" t="str">
+      <c r="A27" s="87"/>
+      <c r="B27" s="31" t="str">
         <f>'Информация для бумаг'!C24</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="96" t="s">
+      <c r="C27" s="84"/>
+      <c r="D27" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="97"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
     </row>
     <row r="28" ht="15.6" spans="1:13">
-      <c r="A28" s="98" t="s">
+      <c r="A28" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="99"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="102"/>
-      <c r="C29" s="30" t="str">
+      <c r="B29" s="101"/>
+      <c r="C29" s="29" t="str">
         <f>'Информация для бумаг'!C28</f>
         <v>SYS1945298572,  001-059-070384/21</v>
       </c>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
     </row>
     <row r="30" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="H30" s="105" t="s">
+      <c r="H30" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="120"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="117"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="8:8">
-      <c r="H31" s="30" t="s">
+      <c r="H31" s="29" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="32" s="30" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="33" s="30" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="34" s="30" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="35" s="30" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="36" s="30" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="37" s="30" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="38" s="30" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="39" s="30" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="40" s="30" customFormat="1" ht="23.25" customHeight="1"/>
+    <row r="32" s="29" customFormat="1" ht="23.25" customHeight="1"/>
+    <row r="33" s="29" customFormat="1" ht="23.25" customHeight="1"/>
+    <row r="34" s="29" customFormat="1" ht="23.25" customHeight="1"/>
+    <row r="35" s="29" customFormat="1" ht="23.25" customHeight="1"/>
+    <row r="36" s="29" customFormat="1" ht="23.25" customHeight="1"/>
+    <row r="37" s="29" customFormat="1" ht="23.25" customHeight="1"/>
+    <row r="38" s="29" customFormat="1" ht="23.25" customHeight="1"/>
+    <row r="39" s="29" customFormat="1" ht="23.25" customHeight="1"/>
+    <row r="40" s="29" customFormat="1" ht="23.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:H1"/>
@@ -4432,387 +4403,387 @@
   <sheetPr/>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="30" customWidth="1"/>
-    <col min="2" max="6" width="8" style="30"/>
-    <col min="7" max="7" width="23.6388888888889" style="30" customWidth="1"/>
-    <col min="8" max="8" width="10.7777777777778" style="30" customWidth="1"/>
-    <col min="9" max="9" width="3.89814814814815" style="30" customWidth="1"/>
-    <col min="10" max="10" width="9.48148148148148" style="30" customWidth="1"/>
-    <col min="11" max="11" width="8" style="30"/>
-    <col min="12" max="12" width="13.1851851851852" style="30"/>
-    <col min="13" max="13" width="9.90740740740741" style="30"/>
-    <col min="14" max="14" width="8" style="30"/>
-    <col min="15" max="15" width="1.63888888888889" style="30" customWidth="1"/>
-    <col min="16" max="16384" width="8" style="30"/>
+    <col min="1" max="1" width="10" style="29" customWidth="1"/>
+    <col min="2" max="6" width="8" style="29"/>
+    <col min="7" max="7" width="23.6388888888889" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.7777777777778" style="29" customWidth="1"/>
+    <col min="9" max="9" width="3.89814814814815" style="29" customWidth="1"/>
+    <col min="10" max="10" width="9.48148148148148" style="29" customWidth="1"/>
+    <col min="11" max="11" width="8" style="29"/>
+    <col min="12" max="12" width="13.1851851851852" style="29"/>
+    <col min="13" max="13" width="9.90740740740741" style="29"/>
+    <col min="14" max="14" width="8" style="29"/>
+    <col min="15" max="15" width="1.63888888888889" style="29" customWidth="1"/>
+    <col min="16" max="16384" width="8" style="29"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" spans="1:14">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="48" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
     </row>
     <row r="3" ht="12.75" customHeight="1" spans="1:7">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
     </row>
     <row r="4" ht="12.75" customHeight="1" spans="1:14">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
     </row>
     <row r="6" ht="23" customHeight="1" spans="1:14">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="H6" s="48" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="H6" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="53"/>
-      <c r="I7" s="71" t="s">
+      <c r="B7" s="52"/>
+      <c r="I7" s="70" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:8">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-      <c r="H8" s="58" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="H8" s="57" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" ht="15.6" spans="1:10">
-      <c r="A9" s="54"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
-      <c r="H9" s="48" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
+      <c r="H9" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="29">
         <f>COUNT('Cписок для приказа'!D5:D20)</f>
         <v>16</v>
       </c>
-      <c r="J9" s="68" t="s">
+      <c r="J9" s="67" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="10" ht="45" customHeight="1" spans="1:14">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="H10" s="51" t="s">
+      <c r="A10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="H10" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="J10" s="72" t="str">
+      <c r="J10" s="71" t="str">
         <f>'Информация для бумаг'!C3</f>
         <v>Санкт-Петербург - Кандалакшский заповедник (о.Ряжков) - Санкт-Петербург</v>
       </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="H11" s="41" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="H11" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="I11" s="74">
+      <c r="I11" s="73">
         <f>DAYS360('Информация для бумаг'!C2,'Информация для бумаг'!D2)-1</f>
         <v>22</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="29" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="1:12">
-      <c r="A12" s="64"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="H12" s="66" t="s">
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="H12" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="I12" s="66"/>
-      <c r="J12" s="75">
+      <c r="I12" s="65"/>
+      <c r="J12" s="74">
         <f>'Информация для бумаг'!C2</f>
         <v>44409</v>
       </c>
-      <c r="K12" s="76" t="s">
+      <c r="K12" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="L12" s="77">
+      <c r="L12" s="76">
         <f>'Информация для бумаг'!D2</f>
         <v>44432</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1" spans="1:6">
-      <c r="A13" s="62"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
     </row>
     <row r="14" ht="15.6" spans="1:14">
-      <c r="A14" s="62"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="H14" s="68" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="H14" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="K14" s="76" t="str">
+      <c r="K14" s="75" t="str">
         <f>'Информация для бумаг'!C23</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="62"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="K15" s="41" t="s">
+      <c r="A15" s="61"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="K15" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="29">
         <f>'Информация для бумаг'!F23</f>
         <v>89217427984</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="H16" s="69" t="s">
+      <c r="A16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="H16" s="68" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="H17" s="70" t="s">
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="H17" s="69" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
     </row>
     <row r="19" ht="15.6" spans="1:14">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="H19" s="68" t="s">
+      <c r="A19" s="61"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="H19" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="K19" s="76" t="str">
+      <c r="K19" s="75" t="str">
         <f>'Информация для бумаг'!C24</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
     </row>
     <row r="20" spans="11:12">
-      <c r="K20" s="41" t="s">
+      <c r="K20" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="L20" s="30">
+      <c r="L20" s="29">
         <f>'Информация для бумаг'!F24</f>
         <v>89679796720</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="8:14">
-      <c r="H22" s="48" t="s">
+      <c r="H22" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
     </row>
     <row r="23" ht="12.75" customHeight="1" spans="8:14">
-      <c r="H23" s="48" t="s">
+      <c r="H23" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
     </row>
     <row r="25" ht="15.6" spans="8:13">
-      <c r="H25" s="68" t="s">
+      <c r="H25" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="M25" s="78">
+      <c r="M25" s="77">
         <f>'Информация для бумаг'!C26</f>
         <v>44337</v>
       </c>
     </row>
     <row r="26" ht="15.6" spans="1:9">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68" t="s">
+      <c r="H26" s="67"/>
+      <c r="I26" s="67" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="28" ht="15.6" spans="8:8">
-      <c r="H28" s="68" t="s">
+      <c r="H28" s="67" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="29" ht="15.6" spans="8:12">
-      <c r="H29" s="68" t="s">
+      <c r="H29" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="K29" s="30">
+      <c r="K29" s="29">
         <f>'Информация для бумаг'!C27</f>
         <v>2021</v>
       </c>
-      <c r="L29" s="30" t="s">
+      <c r="L29" s="29" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="30" ht="15.6" spans="1:8">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="H30" s="68"/>
+      <c r="H30" s="67"/>
     </row>
     <row r="31" ht="15.6" spans="8:8">
-      <c r="H31" s="68" t="s">
+      <c r="H31" s="67" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="32" ht="15.6" spans="8:12">
-      <c r="H32" s="68" t="s">
+      <c r="H32" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="29">
         <f>'Информация для бумаг'!C27</f>
         <v>2021</v>
       </c>
-      <c r="L32" s="30" t="s">
+      <c r="L32" s="29" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="33" ht="15.6" spans="8:8">
-      <c r="H33" s="70" t="s">
+      <c r="H33" s="69" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4856,662 +4827,662 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.66666666666667" style="30"/>
-    <col min="2" max="2" width="35.7222222222222" style="30" customWidth="1"/>
-    <col min="3" max="3" width="9.33333333333333" style="30" customWidth="1"/>
-    <col min="4" max="4" width="8" style="30"/>
-    <col min="5" max="5" width="12.8888888888889" style="30"/>
-    <col min="6" max="6" width="33.8888888888889" style="30" customWidth="1"/>
-    <col min="7" max="7" width="17.2222222222222" style="41" customWidth="1"/>
-    <col min="8" max="8" width="26.4444444444444" style="30" customWidth="1"/>
-    <col min="9" max="9" width="12.8888888888889" style="30" customWidth="1"/>
-    <col min="10" max="16384" width="8" style="30"/>
+    <col min="1" max="1" width="3.66666666666667" style="29"/>
+    <col min="2" max="2" width="35.7222222222222" style="29" customWidth="1"/>
+    <col min="3" max="3" width="9.33333333333333" style="29" customWidth="1"/>
+    <col min="4" max="4" width="8" style="29"/>
+    <col min="5" max="5" width="12.8888888888889" style="29"/>
+    <col min="6" max="6" width="33.8888888888889" style="29" customWidth="1"/>
+    <col min="7" max="7" width="17.2222222222222" style="40" customWidth="1"/>
+    <col min="8" max="8" width="26.4444444444444" style="29" customWidth="1"/>
+    <col min="9" max="9" width="12.8888888888889" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="8" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="31" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="5" s="40" customFormat="1" ht="26.4" spans="1:9">
-      <c r="A5" s="44">
+    <row r="5" s="39" customFormat="1" ht="26.4" spans="1:9">
+      <c r="A5" s="43">
         <v>1</v>
       </c>
-      <c r="B5" s="44" t="str">
+      <c r="B5" s="43" t="str">
         <f>CONCATENATE('Информация для бумаг'!B5," ",'Информация для бумаг'!C5," ",'Информация для бумаг'!D5)</f>
         <v>Атаманов Андрей Иванович</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="44">
         <f>'Информация для бумаг'!H5</f>
         <v>630</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="44">
         <f>'Информация для бумаг'!I5</f>
         <v>10</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="43">
         <f>'Информация для бумаг'!J5</f>
         <v>89118124048</v>
       </c>
-      <c r="F5" s="46" t="str">
+      <c r="F5" s="45" t="str">
         <f>'Информация для бумаг'!K5</f>
         <v>Шуваловский пр. д. 90 к. кв.180</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="44">
         <f>'Информация для бумаг'!O5</f>
         <v>4018281460</v>
       </c>
-      <c r="H5" s="44" t="str">
+      <c r="H5" s="43" t="str">
         <f>'Информация для бумаг'!L5</f>
         <v>Атаманов Иван Валерьевич</v>
       </c>
-      <c r="I5" s="44" t="str">
+      <c r="I5" s="43" t="str">
         <f>'Информация для бумаг'!M5</f>
         <v>89217476129, 8 921 9942973</v>
       </c>
     </row>
-    <row r="6" s="40" customFormat="1" spans="1:9">
-      <c r="A6" s="44">
+    <row r="6" s="39" customFormat="1" spans="1:9">
+      <c r="A6" s="43">
         <v>2</v>
       </c>
-      <c r="B6" s="44" t="str">
+      <c r="B6" s="43" t="str">
         <f>CONCATENATE('Информация для бумаг'!B6," ",'Информация для бумаг'!C6," ",'Информация для бумаг'!D6)</f>
         <v>Башилов Константин Вячеславович</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="44">
         <f>'Информация для бумаг'!H6</f>
         <v>197</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="44">
         <f>'Информация для бумаг'!I6</f>
         <v>7</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <f>'Информация для бумаг'!J6</f>
         <v>89650953153</v>
       </c>
-      <c r="F6" s="46" t="str">
+      <c r="F6" s="45" t="str">
         <f>'Информация для бумаг'!K6</f>
         <v>СПб, Пестеля д. 13-15 кв. 108</v>
       </c>
-      <c r="G6" s="45" t="str">
+      <c r="G6" s="44" t="str">
         <f>'Информация для бумаг'!O6</f>
         <v>II-АК 622034</v>
       </c>
-      <c r="H6" s="44" t="str">
+      <c r="H6" s="43" t="str">
         <f>'Информация для бумаг'!L6</f>
         <v>Батаковская Мария Павловна</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="43">
         <f>'Информация для бумаг'!M6</f>
         <v>89052006465</v>
       </c>
     </row>
-    <row r="7" s="40" customFormat="1" spans="1:9">
-      <c r="A7" s="44">
+    <row r="7" s="39" customFormat="1" spans="1:9">
+      <c r="A7" s="43">
         <v>3</v>
       </c>
-      <c r="B7" s="44" t="str">
+      <c r="B7" s="43" t="str">
         <f>CONCATENATE('Информация для бумаг'!B7," ",'Информация для бумаг'!C7," ",'Информация для бумаг'!D7)</f>
         <v>Белокуров Михаил Сергеевич</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="44">
         <f>'Информация для бумаг'!H7</f>
         <v>225</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="44">
         <f>'Информация для бумаг'!I7</f>
         <v>10</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="43">
         <f>'Информация для бумаг'!J7</f>
         <v>89215575265</v>
       </c>
-      <c r="F7" s="46" t="str">
+      <c r="F7" s="45" t="str">
         <f>'Информация для бумаг'!K7</f>
         <v>ул. Ставропольская д. 12/15 кв. 46</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="44">
         <f>'Информация для бумаг'!O7</f>
         <v>4019397258</v>
       </c>
-      <c r="H7" s="44" t="str">
+      <c r="H7" s="43" t="str">
         <f>'Информация для бумаг'!L7</f>
         <v>Белокурова Елена Валентиновна</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="43">
         <f>'Информация для бумаг'!M7</f>
         <v>89213205528</v>
       </c>
     </row>
-    <row r="8" s="40" customFormat="1" spans="1:9">
-      <c r="A8" s="44">
+    <row r="8" s="39" customFormat="1" spans="1:9">
+      <c r="A8" s="43">
         <v>4</v>
       </c>
-      <c r="B8" s="44" t="str">
+      <c r="B8" s="43" t="str">
         <f>CONCATENATE('Информация для бумаг'!B8," ",'Информация для бумаг'!C8," ",'Информация для бумаг'!D8)</f>
         <v>Демидова Алина Витальевна</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="44">
         <f>'Информация для бумаг'!H8</f>
         <v>320</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="44">
         <f>'Информация для бумаг'!I8</f>
         <v>7</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="43">
         <f>'Информация для бумаг'!J8</f>
         <v>89817406171</v>
       </c>
-      <c r="F8" s="46" t="str">
+      <c r="F8" s="45" t="str">
         <f>'Информация для бумаг'!K8</f>
         <v>Туристская ул. дом 28 корп.3 кв.203</v>
       </c>
-      <c r="G8" s="45" t="str">
+      <c r="G8" s="44" t="str">
         <f>'Информация для бумаг'!O8</f>
         <v>II-АК 649071</v>
       </c>
-      <c r="H8" s="44" t="str">
+      <c r="H8" s="43" t="str">
         <f>'Информация для бумаг'!L8</f>
         <v>Демидов Виталий Николаевич</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="43">
         <f>'Информация для бумаг'!M8</f>
         <v>89052274602</v>
       </c>
     </row>
-    <row r="9" s="40" customFormat="1" spans="1:9">
-      <c r="A9" s="44">
+    <row r="9" s="39" customFormat="1" spans="1:9">
+      <c r="A9" s="43">
         <v>5</v>
       </c>
-      <c r="B9" s="44" t="str">
+      <c r="B9" s="43" t="str">
         <f>CONCATENATE('Информация для бумаг'!B9," ",'Информация для бумаг'!C9," ",'Информация для бумаг'!D9)</f>
         <v>Евдокимова Алёна Игоревна</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="44">
         <f>'Информация для бумаг'!H9</f>
         <v>225</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="44">
         <f>'Информация для бумаг'!I9</f>
         <v>11</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="43">
         <f>'Информация для бумаг'!J9</f>
         <v>89818346175</v>
       </c>
-      <c r="F9" s="46" t="str">
+      <c r="F9" s="45" t="str">
         <f>'Информация для бумаг'!K9</f>
         <v>ул. Витебская, д.10, кв.14</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="44">
         <f>'Информация для бумаг'!O9</f>
         <v>4018085917</v>
       </c>
-      <c r="H9" s="44" t="str">
+      <c r="H9" s="43" t="str">
         <f>'Информация для бумаг'!L9</f>
         <v>Пасько Ольга Владимировна</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="43">
         <f>'Информация для бумаг'!M9</f>
         <v>89117966505</v>
       </c>
     </row>
-    <row r="10" s="40" customFormat="1" spans="1:9">
-      <c r="A10" s="44">
+    <row r="10" s="39" customFormat="1" spans="1:9">
+      <c r="A10" s="43">
         <v>6</v>
       </c>
-      <c r="B10" s="44" t="str">
+      <c r="B10" s="43" t="str">
         <f>CONCATENATE('Информация для бумаг'!B10," ",'Информация для бумаг'!C10," ",'Информация для бумаг'!D10)</f>
         <v>Ершова Татьяна Алексеевна</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="44">
         <f>'Информация для бумаг'!H10</f>
         <v>441</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="44">
         <f>'Информация для бумаг'!I10</f>
         <v>8</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="43">
         <f>'Информация для бумаг'!J10</f>
         <v>89213354865</v>
       </c>
-      <c r="F10" s="46" t="str">
+      <c r="F10" s="45" t="str">
         <f>'Информация для бумаг'!K10</f>
         <v>ул. Малая Карпатская д.17 кв 275</v>
       </c>
-      <c r="G10" s="45" t="str">
+      <c r="G10" s="44" t="str">
         <f>'Информация для бумаг'!O10</f>
         <v>I-ВО 645042</v>
       </c>
-      <c r="H10" s="44" t="str">
+      <c r="H10" s="43" t="str">
         <f>'Информация для бумаг'!L10</f>
         <v>Ершова Ирина Алексеевна</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="43">
         <f>'Информация для бумаг'!M10</f>
         <v>9522270284</v>
       </c>
     </row>
-    <row r="11" s="40" customFormat="1" ht="39.6" spans="1:9">
-      <c r="A11" s="44">
+    <row r="11" s="39" customFormat="1" ht="39.6" spans="1:9">
+      <c r="A11" s="43">
         <v>7</v>
       </c>
-      <c r="B11" s="44" t="str">
+      <c r="B11" s="43" t="str">
         <f>CONCATENATE('Информация для бумаг'!B11," ",'Информация для бумаг'!C11," ",'Информация для бумаг'!D11)</f>
         <v>Зиглина Софья Антоновна</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="44">
         <f>'Информация для бумаг'!H11</f>
         <v>628</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="44">
         <f>'Информация для бумаг'!I11</f>
         <v>10</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="43">
         <f>'Информация для бумаг'!J11</f>
         <v>89215747616</v>
       </c>
-      <c r="F11" s="46" t="str">
+      <c r="F11" s="45" t="str">
         <f>'Информация для бумаг'!K11</f>
         <v>Санкт-Петербург, Красногвардейский район, улица Коммуны, дом 42, к.1, КВ.33</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="44">
         <f>'Информация для бумаг'!O11</f>
         <v>4019418643</v>
       </c>
-      <c r="H11" s="44" t="str">
+      <c r="H11" s="43" t="str">
         <f>'Информация для бумаг'!L11</f>
         <v>Антропова Ася Юрьевна</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="43">
         <f>'Информация для бумаг'!M11</f>
         <v>89219451925</v>
       </c>
     </row>
-    <row r="12" s="40" customFormat="1" ht="26.4" spans="1:9">
-      <c r="A12" s="44">
+    <row r="12" s="39" customFormat="1" ht="26.4" spans="1:9">
+      <c r="A12" s="43">
         <v>8</v>
       </c>
-      <c r="B12" s="44" t="str">
+      <c r="B12" s="43" t="str">
         <f>CONCATENATE('Информация для бумаг'!B12," ",'Информация для бумаг'!C12," ",'Информация для бумаг'!D12)</f>
         <v>Каретная Вероника Михайловна</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="44">
         <f>'Информация для бумаг'!H12</f>
         <v>12</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="44">
         <f>'Информация для бумаг'!I12</f>
         <v>7</v>
       </c>
-      <c r="E12" s="44" t="str">
+      <c r="E12" s="43" t="str">
         <f>'Информация для бумаг'!J12</f>
         <v>89312244315  89319803214</v>
       </c>
-      <c r="F12" s="46" t="str">
+      <c r="F12" s="45" t="str">
         <f>'Информация для бумаг'!K12</f>
         <v>С-Пб., ул. Кораблестроителей д.19/1, кв. 168</v>
       </c>
-      <c r="G12" s="45" t="str">
+      <c r="G12" s="44" t="str">
         <f>'Информация для бумаг'!O12</f>
         <v>II-АК 606923</v>
       </c>
-      <c r="H12" s="44" t="str">
+      <c r="H12" s="43" t="str">
         <f>'Информация для бумаг'!L12</f>
         <v>Халтурин Михаил Дмитриевич</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="43">
         <f>'Информация для бумаг'!M12</f>
         <v>89213132221</v>
       </c>
     </row>
-    <row r="13" s="40" customFormat="1" ht="26.4" spans="1:9">
-      <c r="A13" s="44">
+    <row r="13" s="39" customFormat="1" ht="26.4" spans="1:9">
+      <c r="A13" s="43">
         <v>9</v>
       </c>
-      <c r="B13" s="44" t="str">
+      <c r="B13" s="43" t="str">
         <f>CONCATENATE('Информация для бумаг'!B13," ",'Информация для бумаг'!C13," ",'Информация для бумаг'!D13)</f>
         <v>Кудряшов Тимофей Андреевич</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="44">
         <f>'Информация для бумаг'!H13</f>
         <v>504</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="44">
         <f>'Информация для бумаг'!I13</f>
         <v>11</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="43">
         <f>'Информация для бумаг'!J13</f>
         <v>89111652301</v>
       </c>
-      <c r="F13" s="46" t="str">
+      <c r="F13" s="45" t="str">
         <f>'Информация для бумаг'!K13</f>
         <v>Санкт-Петербург, пр. Маршала Жукова, д.45, кв 222</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="44">
         <f>'Информация для бумаг'!O13</f>
         <v>4018287872</v>
       </c>
-      <c r="H13" s="44" t="str">
+      <c r="H13" s="43" t="str">
         <f>'Информация для бумаг'!L13</f>
         <v>Кудряшов Андрей Николаевич</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="43">
         <f>'Информация для бумаг'!M13</f>
         <v>89817910834</v>
       </c>
     </row>
-    <row r="14" s="40" customFormat="1" ht="26.4" spans="1:9">
-      <c r="A14" s="44">
+    <row r="14" s="39" customFormat="1" ht="26.4" spans="1:9">
+      <c r="A14" s="43">
         <v>10</v>
       </c>
-      <c r="B14" s="44" t="str">
+      <c r="B14" s="43" t="str">
         <f>CONCATENATE('Информация для бумаг'!B14," ",'Информация для бумаг'!C14," ",'Информация для бумаг'!D14)</f>
         <v>Нематова Рената Батировна</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="44">
         <f>'Информация для бумаг'!H14</f>
         <v>225</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="44">
         <f>'Информация для бумаг'!I14</f>
         <v>11</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="43">
         <f>'Информация для бумаг'!J14</f>
         <v>89111959536</v>
       </c>
-      <c r="F14" s="46" t="str">
+      <c r="F14" s="45" t="str">
         <f>'Информация для бумаг'!K14</f>
         <v>СПб,пос.Александровская,4 линия, д. 43А</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="44">
         <f>'Информация для бумаг'!O14</f>
         <v>4018034409</v>
       </c>
-      <c r="H14" s="44" t="str">
+      <c r="H14" s="43" t="str">
         <f>'Информация для бумаг'!L14</f>
         <v>Нематова Анна Евгеньевна</v>
       </c>
-      <c r="I14" s="44">
+      <c r="I14" s="43">
         <f>'Информация для бумаг'!M14</f>
         <v>89112207532</v>
       </c>
     </row>
-    <row r="15" s="40" customFormat="1" spans="1:9">
-      <c r="A15" s="44">
+    <row r="15" s="39" customFormat="1" spans="1:9">
+      <c r="A15" s="43">
         <v>11</v>
       </c>
-      <c r="B15" s="44" t="str">
+      <c r="B15" s="43" t="str">
         <f>CONCATENATE('Информация для бумаг'!B15," ",'Информация для бумаг'!C15," ",'Информация для бумаг'!D15)</f>
         <v>Попов Василий Владиславович</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="44">
         <f>'Информация для бумаг'!H15</f>
         <v>183</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="44">
         <f>'Информация для бумаг'!I15</f>
         <v>8</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="43">
         <f>'Информация для бумаг'!J15</f>
         <v>89610752525</v>
       </c>
-      <c r="F15" s="46" t="str">
+      <c r="F15" s="45" t="str">
         <f>'Информация для бумаг'!K15</f>
         <v>Ул.Бутлерова, 11 к.4 , кв 385</v>
       </c>
-      <c r="G15" s="45" t="str">
+      <c r="G15" s="44" t="str">
         <f>'Информация для бумаг'!O15</f>
         <v>I -РК 818754</v>
       </c>
-      <c r="H15" s="44" t="str">
+      <c r="H15" s="43" t="str">
         <f>'Информация для бумаг'!L15</f>
         <v>Попова Юлия Юрьевна</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="43">
         <f>'Информация для бумаг'!M15</f>
         <v>89610717771</v>
       </c>
     </row>
-    <row r="16" s="40" customFormat="1" spans="1:9">
-      <c r="A16" s="44">
+    <row r="16" s="39" customFormat="1" spans="1:9">
+      <c r="A16" s="43">
         <v>12</v>
       </c>
-      <c r="B16" s="44" t="str">
+      <c r="B16" s="43" t="str">
         <f>CONCATENATE('Информация для бумаг'!B16," ",'Информация для бумаг'!C16," ",'Информация для бумаг'!D16)</f>
         <v>Сайчик Мария Владимировна</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="44">
         <f>'Информация для бумаг'!H16</f>
         <v>586</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="44">
         <f>'Информация для бумаг'!I16</f>
         <v>9</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="43">
         <f>'Информация для бумаг'!J16</f>
         <v>9818723635</v>
       </c>
-      <c r="F16" s="46" t="str">
+      <c r="F16" s="45" t="str">
         <f>'Информация для бумаг'!K16</f>
         <v>Кораблестроителей, 39-831</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="44">
         <f>'Информация для бумаг'!O16</f>
         <v>4020691039</v>
       </c>
-      <c r="H16" s="44" t="str">
+      <c r="H16" s="43" t="str">
         <f>'Информация для бумаг'!L16</f>
         <v>Сайчик Татьяна  Борисовна</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I16" s="43">
         <f>'Информация для бумаг'!M16</f>
         <v>9818417041</v>
       </c>
     </row>
-    <row r="17" s="40" customFormat="1" spans="1:9">
-      <c r="A17" s="44">
+    <row r="17" s="39" customFormat="1" spans="1:9">
+      <c r="A17" s="43">
         <v>13</v>
       </c>
-      <c r="B17" s="44" t="str">
+      <c r="B17" s="43" t="str">
         <f>CONCATENATE('Информация для бумаг'!B17," ",'Информация для бумаг'!C17," ",'Информация для бумаг'!D17)</f>
         <v>Семенова Елизавета Викторовна</v>
       </c>
-      <c r="C17" s="45" t="str">
+      <c r="C17" s="44" t="str">
         <f>'Информация для бумаг'!H17</f>
         <v>Гимн 2</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="44">
         <f>'Информация для бумаг'!I17</f>
         <v>7</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="43">
         <f>'Информация для бумаг'!J17</f>
         <v>89046391880</v>
       </c>
-      <c r="F17" s="46" t="str">
+      <c r="F17" s="45" t="str">
         <f>'Информация для бумаг'!K17</f>
         <v>Лабутина 20-22 кв. 40</v>
       </c>
-      <c r="G17" s="45" t="str">
+      <c r="G17" s="44" t="str">
         <f>'Информация для бумаг'!O17</f>
         <v>II-АК № 689853</v>
       </c>
-      <c r="H17" s="44" t="str">
+      <c r="H17" s="43" t="str">
         <f>'Информация для бумаг'!L17</f>
         <v>Семенова Наталья Николаевна</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="43">
         <f>'Информация для бумаг'!M17</f>
         <v>9046392174</v>
       </c>
     </row>
-    <row r="18" s="40" customFormat="1" ht="26.4" spans="1:9">
-      <c r="A18" s="44">
+    <row r="18" s="39" customFormat="1" ht="26.4" spans="1:9">
+      <c r="A18" s="43">
         <v>14</v>
       </c>
-      <c r="B18" s="44" t="str">
+      <c r="B18" s="43" t="str">
         <f>CONCATENATE('Информация для бумаг'!B18," ",'Информация для бумаг'!C18," ",'Информация для бумаг'!D18)</f>
         <v>Шилонцев Андрей Александрович</v>
       </c>
-      <c r="C18" s="45" t="str">
+      <c r="C18" s="44" t="str">
         <f>'Информация для бумаг'!H18</f>
         <v>Лицей № 387</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="44">
         <f>'Информация для бумаг'!I18</f>
         <v>9</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="43">
         <f>'Информация для бумаг'!J18</f>
         <v>69218627582</v>
       </c>
-      <c r="F18" s="46" t="str">
+      <c r="F18" s="45" t="str">
         <f>'Информация для бумаг'!K18</f>
         <v>Санкт-Петербург, Ленинский проспект, дом 117, корпус 1, квартира 603</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="44">
         <f>'Информация для бумаг'!O18</f>
         <v>4020684651</v>
       </c>
-      <c r="H18" s="44" t="str">
+      <c r="H18" s="43" t="str">
         <f>'Информация для бумаг'!L18</f>
         <v>Шилонцева Татьяна Александровна</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="43">
         <f>'Информация для бумаг'!M18</f>
         <v>8921326506</v>
       </c>
     </row>
-    <row r="19" s="40" customFormat="1" ht="26.4" spans="1:9">
-      <c r="A19" s="44">
+    <row r="19" s="39" customFormat="1" ht="26.4" spans="1:9">
+      <c r="A19" s="43">
         <v>15</v>
       </c>
-      <c r="B19" s="44" t="str">
+      <c r="B19" s="43" t="str">
         <f>CONCATENATE('Информация для бумаг'!B19," ",'Информация для бумаг'!C19," ",'Информация для бумаг'!D19)</f>
         <v>Шишкина Алина Денисовна</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="44">
         <f>'Информация для бумаг'!H19</f>
         <v>246</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="44">
         <f>'Информация для бумаг'!I19</f>
         <v>11</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="43">
         <f>'Информация для бумаг'!J19</f>
         <v>89312711134</v>
       </c>
-      <c r="F19" s="46" t="str">
+      <c r="F19" s="45" t="str">
         <f>'Информация для бумаг'!K19</f>
         <v>Проспект Авиаконструкторов, дом 47, квартира 4</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="44">
         <f>'Информация для бумаг'!O19</f>
         <v>4018029738</v>
       </c>
-      <c r="H19" s="44" t="str">
+      <c r="H19" s="43" t="str">
         <f>'Информация для бумаг'!L19</f>
         <v>Шишкин Денис Витальевич</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="43">
         <f>'Информация для бумаг'!M19</f>
         <v>89218717677</v>
       </c>
     </row>
-    <row r="20" s="40" customFormat="1" spans="1:9">
-      <c r="A20" s="44">
+    <row r="20" s="39" customFormat="1" spans="1:9">
+      <c r="A20" s="43">
         <v>16</v>
       </c>
-      <c r="B20" s="44" t="str">
+      <c r="B20" s="43" t="str">
         <f>CONCATENATE('Информация для бумаг'!B20," ",'Информация для бумаг'!C20," ",'Информация для бумаг'!D20)</f>
         <v>Нужин Илья Мулложонович</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="44">
         <f>'Информация для бумаг'!H20</f>
         <v>30</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="44">
         <f>'Информация для бумаг'!I20</f>
         <v>9</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="43">
         <f>'Информация для бумаг'!J20</f>
         <v>9313625109</v>
       </c>
-      <c r="F20" s="46" t="str">
+      <c r="F20" s="45" t="str">
         <f>'Информация для бумаг'!K20</f>
         <v>Наличная 37-1-4</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="44">
         <f>'Информация для бумаг'!O20</f>
         <v>4020668443</v>
       </c>
-      <c r="H20" s="44" t="str">
+      <c r="H20" s="43" t="str">
         <f>'Информация для бумаг'!L20</f>
         <v>Нужина  Юлия  Андреевна</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="43">
         <f>'Информация для бумаг'!M20</f>
         <v>9213827100</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="30" t="str">
+      <c r="B25" s="29" t="str">
         <f>'Информация для бумаг'!C23</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="29" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="30" t="str">
+      <c r="B27" s="29" t="str">
         <f>'Информация для бумаг'!C24</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="29" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5533,254 +5504,254 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="32.1111111111111" style="30" customWidth="1"/>
-    <col min="2" max="2" width="16.9074074074074" style="30" customWidth="1"/>
-    <col min="3" max="3" width="16.3611111111111" style="30" customWidth="1"/>
-    <col min="4" max="4" width="18.7314814814815" style="30" customWidth="1"/>
-    <col min="5" max="5" width="13.1203703703704" style="30" customWidth="1"/>
-    <col min="6" max="6" width="17.4444444444444" style="30" customWidth="1"/>
-    <col min="7" max="7" width="16.6296296296296" style="30" customWidth="1"/>
-    <col min="8" max="8" width="19.2685185185185" style="30" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="30"/>
+    <col min="1" max="1" width="32.1111111111111" style="29" customWidth="1"/>
+    <col min="2" max="2" width="16.9074074074074" style="29" customWidth="1"/>
+    <col min="3" max="3" width="16.3611111111111" style="29" customWidth="1"/>
+    <col min="4" max="4" width="18.7314814814815" style="29" customWidth="1"/>
+    <col min="5" max="5" width="13.1203703703704" style="29" customWidth="1"/>
+    <col min="6" max="6" width="17.4444444444444" style="29" customWidth="1"/>
+    <col min="7" max="7" width="16.6296296296296" style="29" customWidth="1"/>
+    <col min="8" max="8" width="19.2685185185185" style="29" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="2" ht="82.5" customHeight="1" spans="1:8">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="32" t="str">
+      <c r="A3" s="31" t="str">
         <f>'Cписок для приказа'!B5</f>
         <v>Атаманов Андрей Иванович</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="32" t="str">
+      <c r="A4" s="31" t="str">
         <f>'Cписок для приказа'!B6</f>
         <v>Башилов Константин Вячеславович</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="32" t="str">
+      <c r="A5" s="31" t="str">
         <f>'Cписок для приказа'!B7</f>
         <v>Белокуров Михаил Сергеевич</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" ht="14.4" spans="1:8">
-      <c r="A6" s="32" t="str">
+      <c r="A6" s="31" t="str">
         <f>'Cписок для приказа'!B8</f>
         <v>Демидова Алина Витальевна</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="32"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="32" t="str">
+      <c r="A7" s="31" t="str">
         <f>'Cписок для приказа'!B9</f>
         <v>Евдокимова Алёна Игоревна</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="32" t="str">
+      <c r="A8" s="31" t="str">
         <f>'Cписок для приказа'!B10</f>
         <v>Ершова Татьяна Алексеевна</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="32" t="str">
+      <c r="A9" s="31" t="str">
         <f>'Cписок для приказа'!B11</f>
         <v>Зиглина Софья Антоновна</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" ht="14.4" spans="1:8">
-      <c r="A10" s="32" t="str">
+      <c r="A10" s="31" t="str">
         <f>'Cписок для приказа'!B12</f>
         <v>Каретная Вероника Михайловна</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="32"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" ht="14.4" spans="1:8">
-      <c r="A11" s="32" t="str">
+      <c r="A11" s="31" t="str">
         <f>'Cписок для приказа'!B13</f>
         <v>Кудряшов Тимофей Андреевич</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="32"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" ht="14.4" spans="1:8">
-      <c r="A12" s="32" t="str">
+      <c r="A12" s="31" t="str">
         <f>'Cписок для приказа'!B14</f>
         <v>Нематова Рената Батировна</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="32"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" ht="14.4" spans="1:8">
-      <c r="A13" s="32" t="str">
+      <c r="A13" s="31" t="str">
         <f>'Cписок для приказа'!B15</f>
         <v>Попов Василий Владиславович</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="32"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" ht="14.4" spans="1:8">
-      <c r="A14" s="32" t="str">
+      <c r="A14" s="31" t="str">
         <f>'Cписок для приказа'!B16</f>
         <v>Сайчик Мария Владимировна</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="32"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="32" t="str">
+      <c r="A15" s="31" t="str">
         <f>'Cписок для приказа'!B17</f>
         <v>Семенова Елизавета Викторовна</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="32" t="str">
+      <c r="A16" s="31" t="str">
         <f>'Cписок для приказа'!B18</f>
         <v>Шилонцев Андрей Александрович</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" ht="14.4" spans="1:8">
-      <c r="A17" s="32" t="str">
+      <c r="A17" s="31" t="str">
         <f>'Cписок для приказа'!B19</f>
         <v>Шишкина Алина Денисовна</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="32"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="32" t="str">
+      <c r="A18" s="31" t="str">
         <f>'Cписок для приказа'!B20</f>
         <v>Нужин Илья Мулложонович</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="39"/>
+      <c r="A19" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5800,96 +5771,96 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="17"/>
-    <col min="2" max="2" width="28.8240740740741" style="17" customWidth="1"/>
-    <col min="3" max="3" width="10.8888888888889" style="17"/>
-    <col min="4" max="4" width="15.8888888888889" style="17" customWidth="1"/>
-    <col min="5" max="5" width="21.4259259259259" style="17"/>
-    <col min="6" max="6" width="12.8888888888889" style="17"/>
-    <col min="7" max="7" width="9.22222222222222" style="17"/>
-    <col min="8" max="8" width="8.96296296296296" style="17"/>
-    <col min="9" max="9" width="12.0833333333333" style="18"/>
-    <col min="10" max="10" width="19.4814814814815" style="17"/>
-    <col min="11" max="11" width="28.1851851851852" style="17"/>
-    <col min="12" max="12" width="31.4259259259259" style="17"/>
-    <col min="13" max="13" width="14.1574074074074" style="17"/>
-    <col min="14" max="14" width="18.8240740740741" style="17"/>
-    <col min="15" max="15" width="14.1574074074074" style="17"/>
-    <col min="16" max="16384" width="8" style="17"/>
+    <col min="1" max="1" width="8" style="16"/>
+    <col min="2" max="2" width="28.8240740740741" style="16" customWidth="1"/>
+    <col min="3" max="3" width="10.8888888888889" style="16"/>
+    <col min="4" max="4" width="15.8888888888889" style="16" customWidth="1"/>
+    <col min="5" max="5" width="21.4259259259259" style="16"/>
+    <col min="6" max="6" width="12.8888888888889" style="16"/>
+    <col min="7" max="7" width="9.22222222222222" style="16"/>
+    <col min="8" max="8" width="8.96296296296296" style="16"/>
+    <col min="9" max="9" width="12.0833333333333" style="17"/>
+    <col min="10" max="10" width="19.4814814814815" style="16"/>
+    <col min="11" max="11" width="28.1851851851852" style="16"/>
+    <col min="12" max="12" width="31.4259259259259" style="16"/>
+    <col min="13" max="13" width="14.1574074074074" style="16"/>
+    <col min="14" max="14" width="18.8240740740741" style="16"/>
+    <col min="15" max="15" width="14.1574074074074" style="16"/>
+    <col min="16" max="16384" width="8" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="19">
         <v>44409</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>44432</v>
       </c>
-      <c r="E2" s="21"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="18" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" ht="14.4" spans="1:17">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -5901,9 +5872,9 @@
       <c r="D5" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="7">
         <v>630</v>
       </c>
@@ -5916,7 +5887,7 @@
       <c r="K5" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="L5" s="28" t="s">
         <v>195</v>
       </c>
       <c r="M5" s="6" t="s">
@@ -5932,7 +5903,7 @@
       <c r="Q5" s="6"/>
     </row>
     <row r="6" ht="14.4" spans="1:17">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5944,9 +5915,9 @@
       <c r="D6" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="7">
         <v>197</v>
       </c>
@@ -5959,13 +5930,13 @@
       <c r="K6" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="28" t="s">
         <v>202</v>
       </c>
       <c r="M6" s="7">
         <v>89052006465</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="12">
         <v>39367</v>
       </c>
       <c r="O6" s="6" t="s">
@@ -5975,7 +5946,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" ht="14.4" spans="1:17">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -5987,9 +5958,9 @@
       <c r="D7" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="7">
         <v>225</v>
       </c>
@@ -6002,13 +5973,13 @@
       <c r="K7" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="L7" s="29" t="s">
+      <c r="L7" s="28" t="s">
         <v>208</v>
       </c>
       <c r="M7" s="7">
         <v>89213205528</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="12">
         <v>38553</v>
       </c>
       <c r="O7" s="7">
@@ -6018,7 +5989,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" ht="14.4" spans="1:17">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -6030,7 +6001,7 @@
       <c r="D8" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="7">
@@ -6045,13 +6016,13 @@
       <c r="K8" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="28" t="s">
         <v>213</v>
       </c>
       <c r="M8" s="7">
         <v>89052274602</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="12">
         <v>39554</v>
       </c>
       <c r="O8" s="6" t="s">
@@ -6061,7 +6032,7 @@
       <c r="Q8" s="6"/>
     </row>
     <row r="9" ht="14.4" spans="1:17">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -6073,9 +6044,9 @@
       <c r="D9" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="7">
         <v>225</v>
       </c>
@@ -6088,13 +6059,13 @@
       <c r="K9" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="L9" s="28" t="s">
         <v>219</v>
       </c>
       <c r="M9" s="7">
         <v>89117966505</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="12">
         <v>38137</v>
       </c>
       <c r="O9" s="7">
@@ -6104,7 +6075,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" ht="14.4" spans="1:17">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -6128,13 +6099,13 @@
       <c r="K10" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="28" t="s">
         <v>224</v>
       </c>
       <c r="M10" s="6">
         <v>9522270284</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="12">
         <v>39166</v>
       </c>
       <c r="O10" s="6" t="s">
@@ -6144,7 +6115,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" ht="14.4" spans="1:17">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -6156,9 +6127,9 @@
       <c r="D11" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="7">
         <v>628</v>
       </c>
@@ -6171,13 +6142,13 @@
       <c r="K11" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="28" t="s">
         <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>89219451925</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="12">
         <v>38518</v>
       </c>
       <c r="O11" s="7">
@@ -6187,7 +6158,7 @@
       <c r="Q11" s="6"/>
     </row>
     <row r="12" ht="14.4" spans="1:17">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -6199,9 +6170,9 @@
       <c r="D12" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="7">
         <v>12</v>
       </c>
@@ -6214,13 +6185,13 @@
       <c r="K12" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="L12" s="29" t="s">
+      <c r="L12" s="28" t="s">
         <v>236</v>
       </c>
       <c r="M12" s="7">
         <v>89213132221</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="12">
         <v>39485</v>
       </c>
       <c r="O12" s="6" t="s">
@@ -6230,7 +6201,7 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" ht="14.4" spans="1:17">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -6242,7 +6213,7 @@
       <c r="D13" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="7">
@@ -6257,13 +6228,13 @@
       <c r="K13" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="28" t="s">
         <v>242</v>
       </c>
       <c r="M13" s="7">
         <v>89817910834</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="12">
         <v>38434</v>
       </c>
       <c r="O13" s="7">
@@ -6273,7 +6244,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" ht="14.4" spans="1:17">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -6285,7 +6256,7 @@
       <c r="D14" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E14" s="24"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="7">
@@ -6300,13 +6271,13 @@
       <c r="K14" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="L14" s="29" t="s">
+      <c r="L14" s="28" t="s">
         <v>247</v>
       </c>
       <c r="M14" s="7">
         <v>89112207532</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="12">
         <v>38051</v>
       </c>
       <c r="O14" s="7">
@@ -6316,7 +6287,7 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" ht="14.4" spans="1:17">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -6328,7 +6299,7 @@
       <c r="D15" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="7">
@@ -6343,13 +6314,13 @@
       <c r="K15" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="L15" s="29" t="s">
+      <c r="L15" s="28" t="s">
         <v>252</v>
       </c>
       <c r="M15" s="7">
         <v>89610717771</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="12">
         <v>39331</v>
       </c>
       <c r="O15" s="6" t="s">
@@ -6359,7 +6330,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" ht="14.4" spans="1:17">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -6371,7 +6342,7 @@
       <c r="D16" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="10">
@@ -6380,19 +6351,19 @@
       <c r="I16" s="6">
         <v>9</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <v>9818723635</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="L16" s="29" t="s">
+      <c r="L16" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="13">
         <v>9818417041</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="14">
         <v>38982</v>
       </c>
       <c r="O16" s="6">
@@ -6402,7 +6373,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" ht="14.4" spans="1:17">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -6414,9 +6385,9 @@
       <c r="D17" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="7" t="s">
         <v>262</v>
       </c>
@@ -6429,13 +6400,13 @@
       <c r="K17" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="L17" s="29" t="s">
+      <c r="L17" s="28" t="s">
         <v>264</v>
       </c>
       <c r="M17" s="6">
         <v>9046392174</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="12">
         <v>39875</v>
       </c>
       <c r="O17" s="6" t="s">
@@ -6445,7 +6416,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" ht="14.4" spans="1:17">
-      <c r="A18" s="17">
+      <c r="A18" s="16">
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -6457,9 +6428,9 @@
       <c r="D18" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="7" t="s">
         <v>268</v>
       </c>
@@ -6472,13 +6443,13 @@
       <c r="K18" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="L18" s="29" t="s">
+      <c r="L18" s="28" t="s">
         <v>270</v>
       </c>
       <c r="M18" s="7">
         <v>8921326506</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="12">
         <v>38989</v>
       </c>
       <c r="O18" s="7">
@@ -6488,7 +6459,7 @@
       <c r="Q18" s="6"/>
     </row>
     <row r="19" ht="14.4" spans="1:17">
-      <c r="A19" s="17">
+      <c r="A19" s="16">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -6500,7 +6471,7 @@
       <c r="D19" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E19" s="24"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="7">
@@ -6515,13 +6486,13 @@
       <c r="K19" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="L19" s="29" t="s">
+      <c r="L19" s="28" t="s">
         <v>274</v>
       </c>
       <c r="M19" s="7">
         <v>89218717677</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="12">
         <v>38070</v>
       </c>
       <c r="O19" s="7">
@@ -6531,7 +6502,7 @@
       <c r="Q19" s="6"/>
     </row>
     <row r="20" ht="14.4" spans="1:17">
-      <c r="A20" s="17">
+      <c r="A20" s="16">
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -6549,19 +6520,19 @@
       <c r="I20" s="6">
         <v>9</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="15">
         <v>9313625109</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="L20" s="29" t="s">
+      <c r="L20" s="28" t="s">
         <v>279</v>
       </c>
       <c r="M20" s="10">
         <v>9213827100</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="14">
         <v>38933</v>
       </c>
       <c r="O20" s="6">
@@ -6571,54 +6542,54 @@
       <c r="Q20" s="6"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="25">
         <v>89217427984</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="25">
         <v>89679796720</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="19">
         <v>44337</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="25">
         <v>2021</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="26" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6828,7 +6799,7 @@
       <c r="K3" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="12">
         <v>39367</v>
       </c>
       <c r="M3" s="6" t="s">
@@ -6897,7 +6868,7 @@
       <c r="K4" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="12">
         <v>38553</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -6966,7 +6937,7 @@
       <c r="K5" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="12">
         <v>39554</v>
       </c>
       <c r="M5" s="6" t="s">
@@ -7035,7 +7006,7 @@
       <c r="K6" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="12">
         <v>38137</v>
       </c>
       <c r="M6" s="6" t="s">
@@ -7100,7 +7071,7 @@
       <c r="K7" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="12">
         <v>39166</v>
       </c>
       <c r="M7" s="6" t="s">
@@ -7167,7 +7138,7 @@
       <c r="K8" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="12">
         <v>38518</v>
       </c>
       <c r="M8" s="6" t="s">
@@ -7236,7 +7207,7 @@
       <c r="K9" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="12">
         <v>39485</v>
       </c>
       <c r="M9" s="6" t="s">
@@ -7305,7 +7276,7 @@
       <c r="K10" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="12">
         <v>38434</v>
       </c>
       <c r="M10" s="6" t="s">
@@ -7374,7 +7345,7 @@
       <c r="K11" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="12">
         <v>38051</v>
       </c>
       <c r="M11" s="6" t="s">
@@ -7443,7 +7414,7 @@
       <c r="K12" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="12">
         <v>39331</v>
       </c>
       <c r="M12" s="6" t="s">
@@ -7504,13 +7475,13 @@
       <c r="I13" s="6">
         <v>9</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <v>9818723635</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="14">
         <v>38982</v>
       </c>
       <c r="M13" s="6" t="s">
@@ -7520,7 +7491,7 @@
         <v>4020691039</v>
       </c>
       <c r="O13" s="6"/>
-      <c r="P13" s="14" t="s">
+      <c r="P13" s="13" t="s">
         <v>254</v>
       </c>
       <c r="Q13" s="6" t="s">
@@ -7529,7 +7500,7 @@
       <c r="R13" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="13">
         <v>9818417041</v>
       </c>
       <c r="T13" s="6"/>
@@ -7575,7 +7546,7 @@
       <c r="K14" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="12">
         <v>39875</v>
       </c>
       <c r="M14" s="6" t="s">
@@ -7644,7 +7615,7 @@
       <c r="K15" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="12">
         <v>38989</v>
       </c>
       <c r="M15" s="6" t="s">
@@ -7713,7 +7684,7 @@
       <c r="K16" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="12">
         <v>38070</v>
       </c>
       <c r="M16" s="6" t="s">
@@ -7764,10 +7735,10 @@
       <c r="E17" s="8">
         <v>1</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="8">
         <v>1</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="11" t="s">
         <v>374</v>
       </c>
       <c r="H17" s="7">
@@ -7776,13 +7747,13 @@
       <c r="I17" s="6">
         <v>9</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="15">
         <v>9313625109</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="14">
         <v>38933</v>
       </c>
       <c r="M17" s="6" t="s">
@@ -7856,7 +7827,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="7"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="13"/>
+      <c r="L19" s="12"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>

--- a/Exp2021/Exp 2021.xlsx
+++ b/Exp2021/Exp 2021.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VM_space\Text\Article\Lab-processings\Exp2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264" tabRatio="804" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9270" tabRatio="804" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Список оборудования" sheetId="12" r:id="rId1"/>
@@ -22,15 +27,15 @@
     <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Участники!$A$1:$AA$17</definedName>
-    <definedName name="class">[1]Справочник!$H$2:$H$14</definedName>
-    <definedName name="dist">[2]Справочник!$F$2:$F$19</definedName>
     <definedName name="_ftn1" localSheetId="2">'Маршлист внешняя сторона'!$H$29</definedName>
     <definedName name="_ftnref1" localSheetId="2">'Маршлист внешняя сторона'!$H$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Участники!$A$1:$AA$17</definedName>
     <definedName name="class" localSheetId="3">[3]Справочник!$H$2:$H$14</definedName>
+    <definedName name="class">[1]Справочник!$H$2:$H$14</definedName>
     <definedName name="dist" localSheetId="3">[3]Справочник!$F$2:$F$19</definedName>
+    <definedName name="dist">[2]Справочник!$F$2:$F$19</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1269,19 +1274,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="[$-419]d\ mm\ yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="180" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="181" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
-    <numFmt numFmtId="182" formatCode="d/m/yy;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="5">
+    <numFmt numFmtId="167" formatCode="[$-419]d\ mm\ yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="169" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="170" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
+    <numFmt numFmtId="171" formatCode="d/m/yy;@"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1421,150 +1422,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
       <charset val="204"/>
@@ -1576,7 +1433,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1595,194 +1452,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1956,262 +1627,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="56">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2244,11 +1673,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2257,14 +1686,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="71" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2279,8 +1708,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -2289,7 +1718,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2314,57 +1743,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2373,22 +1760,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="71" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2401,41 +1779,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2443,22 +1797,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2467,24 +1812,44 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2495,93 +1860,116 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="36" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="56">
+  <cellStyles count="8">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
-    <cellStyle name="Обычный_СПИСОК ОБОРУДОВАНИЯ_1" xfId="2"/>
-    <cellStyle name="Денежный [0]" xfId="3" builtinId="7"/>
-    <cellStyle name="40% — Акцент5" xfId="4" builtinId="47"/>
-    <cellStyle name="Хороший" xfId="5" builtinId="26"/>
-    <cellStyle name="Запятая [0]" xfId="6" builtinId="6"/>
-    <cellStyle name="Денежный" xfId="7" builtinId="4"/>
-    <cellStyle name="Запятая" xfId="8" builtinId="3"/>
-    <cellStyle name="Обычный_общий список" xfId="9"/>
-    <cellStyle name="40% — Акцент6" xfId="10" builtinId="51"/>
-    <cellStyle name="Процент" xfId="11" builtinId="5"/>
-    <cellStyle name="20% — Акцент2" xfId="12" builtinId="34"/>
-    <cellStyle name="Итого" xfId="13" builtinId="25"/>
-    <cellStyle name="Вывод" xfId="14" builtinId="21"/>
-    <cellStyle name="Гиперссылка" xfId="15" builtinId="8"/>
-    <cellStyle name="40% — Акцент4" xfId="16" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="17" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="18" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="19" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="20" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="21" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="22" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="23" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="24" builtinId="18"/>
-    <cellStyle name="Обычный_МАРШ.ЛИСТ ПЕРВАЯ ЯЩЕРА" xfId="25"/>
-    <cellStyle name="Заголовок 4" xfId="26" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="27" builtinId="20"/>
-    <cellStyle name="Проверить ячейку" xfId="28" builtinId="23"/>
-    <cellStyle name="Вычисление" xfId="29" builtinId="22"/>
-    <cellStyle name="Связанная ячейка" xfId="30" builtinId="24"/>
-    <cellStyle name="Плохой" xfId="31" builtinId="27"/>
-    <cellStyle name="Акцент5" xfId="32" builtinId="45"/>
-    <cellStyle name="Нейтральный" xfId="33" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="35" builtinId="30"/>
-    <cellStyle name="Обычный_СПИСОК ОБОРУДОВАНИЯ" xfId="36"/>
-    <cellStyle name="40% — Акцент1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% — Акцент5" xfId="38" builtinId="46"/>
-    <cellStyle name="60% — Акцент1" xfId="39" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="40" builtinId="33"/>
-    <cellStyle name="40% — Акцент2" xfId="41" builtinId="35"/>
-    <cellStyle name="20% — Акцент6" xfId="42" builtinId="50"/>
-    <cellStyle name="60% — Акцент2" xfId="43" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="44" builtinId="37"/>
-    <cellStyle name="40% — Акцент3" xfId="45" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="46" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="47" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="48" builtinId="42"/>
-    <cellStyle name="60% — Акцент4" xfId="49" builtinId="44"/>
-    <cellStyle name="60% — Акцент5" xfId="50" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="51" builtinId="49"/>
-    <cellStyle name="60% — Акцент6" xfId="52" builtinId="52"/>
-    <cellStyle name="Обычный_Jashera 2018" xfId="53"/>
-    <cellStyle name="Обычный_Jaschera_07" xfId="54"/>
-    <cellStyle name="Обычный_Внутренняя таблица марш. листа" xfId="55"/>
+    <cellStyle name="Обычный_Jaschera_07" xfId="6"/>
+    <cellStyle name="Обычный_Jashera 2018" xfId="5"/>
+    <cellStyle name="Обычный_Внутренняя таблица марш. листа" xfId="7"/>
+    <cellStyle name="Обычный_МАРШ.ЛИСТ ПЕРВАЯ ЯЩЕРА" xfId="3"/>
+    <cellStyle name="Обычный_общий список" xfId="2"/>
+    <cellStyle name="Обычный_СПИСОК ОБОРУДОВАНИЯ" xfId="4"/>
+    <cellStyle name="Обычный_СПИСОК ОБОРУДОВАНИЯ_1" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -2602,7 +1990,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -2623,7 +2011,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -2895,673 +2283,676 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7962962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.13888888888889" style="118" customWidth="1"/>
-    <col min="2" max="2" width="29" style="118" customWidth="1"/>
-    <col min="3" max="3" width="14.7037037037037" style="118" customWidth="1"/>
-    <col min="4" max="4" width="10.4259259259259" style="118" customWidth="1"/>
-    <col min="5" max="5" width="17.8611111111111" style="118" customWidth="1"/>
-    <col min="6" max="16384" width="7.86111111111111" style="118" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="87" customWidth="1"/>
+    <col min="2" max="2" width="29" style="87" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="87" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="87" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="87" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="87" customWidth="1"/>
+    <col min="7" max="16384" width="7.85546875" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="119"/>
-      <c r="B1" s="120" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="88"/>
+      <c r="B1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="89" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="119"/>
-      <c r="B2" s="121" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="88"/>
+      <c r="B2" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="123" t="s">
+      <c r="C2" s="91"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="92" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="121" t="s">
+    <row r="3" spans="1:6">
+      <c r="B3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="118">
+      <c r="F3" s="87">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="124" t="s">
+    <row r="4" spans="1:6">
+      <c r="B4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="118">
+      <c r="F4" s="87">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="121" t="s">
+    <row r="5" spans="1:6">
+      <c r="B5" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="118">
+      <c r="F5" s="87">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="121" t="s">
+    <row r="6" spans="1:6">
+      <c r="B6" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="122"/>
-      <c r="E6" s="120" t="s">
+      <c r="C6" s="91"/>
+      <c r="E6" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="118">
+      <c r="F6" s="87">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="121" t="s">
+    <row r="7" spans="1:6">
+      <c r="B7" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120" t="s">
+      <c r="C7" s="91"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="118">
+      <c r="F7" s="87">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="121" t="s">
+    <row r="8" spans="1:6">
+      <c r="B8" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="118" t="s">
+      <c r="C8" s="91"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="118">
+      <c r="F8" s="87">
         <v>3</v>
       </c>
     </row>
-    <row r="9" ht="13.9" customHeight="1" spans="2:6">
-      <c r="B9" s="121" t="s">
+    <row r="9" spans="1:6" ht="13.9" customHeight="1">
+      <c r="B9" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="118" t="s">
+      <c r="C9" s="91"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="118">
+      <c r="F9" s="87">
         <v>4</v>
       </c>
     </row>
-    <row r="10" ht="13.9" customHeight="1" spans="2:6">
-      <c r="B10" s="124" t="s">
+    <row r="10" spans="1:6" ht="13.9" customHeight="1">
+      <c r="B10" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="E10" s="118" t="s">
+      <c r="C10" s="91"/>
+      <c r="E10" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="118">
+      <c r="F10" s="87">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="121" t="s">
+    <row r="11" spans="1:6">
+      <c r="B11" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="120"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="121" t="s">
+      <c r="C11" s="91"/>
+      <c r="D11" s="89"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="122"/>
-      <c r="E12" s="125" t="s">
+      <c r="C12" s="91"/>
+      <c r="E12" s="94" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="121" t="s">
+    <row r="13" spans="1:6">
+      <c r="B13" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="122"/>
-      <c r="E13" s="118" t="s">
+      <c r="C13" s="91"/>
+      <c r="E13" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="118">
+      <c r="F13" s="87">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="121" t="s">
+    <row r="14" spans="1:6">
+      <c r="B14" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="122"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="121" t="s">
+      <c r="C14" s="91"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="122"/>
-      <c r="E15" s="120" t="s">
+      <c r="C15" s="91"/>
+      <c r="E15" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="118" t="s">
+      <c r="F15" s="87" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="121" t="s">
+    <row r="16" spans="1:6">
+      <c r="B16" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="122"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="121" t="s">
+      <c r="C16" s="91"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="122"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="121" t="s">
+      <c r="C17" s="91"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="122"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="121" t="s">
+      <c r="C18" s="91"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="122"/>
+      <c r="C19" s="91"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="126"/>
-      <c r="B20" s="121" t="s">
+      <c r="A20" s="95"/>
+      <c r="B20" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="122"/>
+      <c r="C20" s="91"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="126"/>
-      <c r="B21" s="121" t="s">
+      <c r="A21" s="95"/>
+      <c r="B21" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="122"/>
+      <c r="C21" s="91"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="126"/>
-      <c r="B22" s="121" t="s">
+      <c r="A22" s="95"/>
+      <c r="B22" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="122"/>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="121" t="s">
+      <c r="C22" s="91"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="122"/>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="121" t="s">
+      <c r="C23" s="91"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="122"/>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="121" t="s">
+      <c r="C24" s="91"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="122"/>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="121" t="s">
+      <c r="C25" s="91"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="122"/>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="121" t="s">
+      <c r="C26" s="91"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="122"/>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="121" t="s">
+      <c r="C27" s="91"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="122"/>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="121" t="s">
+      <c r="C28" s="91"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="122"/>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="122" t="s">
+      <c r="C29" s="91"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="122"/>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="121" t="s">
+      <c r="C30" s="91"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="122"/>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="121" t="s">
+      <c r="C31" s="91"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="122"/>
+      <c r="C32" s="91"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="121" t="s">
+      <c r="B33" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="122"/>
+      <c r="C33" s="91"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="121" t="s">
+      <c r="B34" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="122"/>
+      <c r="C34" s="91"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="121" t="s">
+      <c r="B35" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="122"/>
+      <c r="C35" s="91"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="124" t="s">
+      <c r="B36" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="122"/>
+      <c r="C36" s="91"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="121" t="s">
+      <c r="B37" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="122"/>
+      <c r="C37" s="91"/>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="121" t="s">
+      <c r="B38" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="122"/>
+      <c r="C38" s="91"/>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="121" t="s">
+      <c r="B39" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="122"/>
+      <c r="C39" s="91"/>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="121" t="s">
+      <c r="B40" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="122"/>
+      <c r="C40" s="91"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="121" t="s">
+      <c r="B41" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="122"/>
+      <c r="C41" s="91"/>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="121" t="s">
+      <c r="B42" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="122"/>
+      <c r="C42" s="91"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="121" t="s">
+      <c r="B43" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="122"/>
+      <c r="C43" s="91"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="121" t="s">
+      <c r="B44" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="122"/>
+      <c r="C44" s="91"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="121" t="s">
+      <c r="B45" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="122"/>
+      <c r="C45" s="91"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="121" t="s">
+      <c r="B46" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="122"/>
+      <c r="C46" s="91"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="121" t="s">
+      <c r="B47" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="122"/>
+      <c r="C47" s="91"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="121" t="s">
+      <c r="B48" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="122"/>
+      <c r="C48" s="91"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="124" t="s">
+      <c r="B49" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="122"/>
+      <c r="C49" s="91"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="121" t="s">
+      <c r="B50" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="122"/>
+      <c r="C50" s="91"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="121" t="s">
+      <c r="B51" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="122"/>
+      <c r="C51" s="91"/>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="121" t="s">
+      <c r="B52" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="122"/>
+      <c r="C52" s="91"/>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="127" t="s">
+      <c r="B53" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="122"/>
+      <c r="C53" s="91"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="121" t="s">
+      <c r="B54" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="122"/>
+      <c r="C54" s="91"/>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="121" t="s">
+      <c r="B55" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="122"/>
+      <c r="C55" s="91"/>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="121" t="s">
+      <c r="B56" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="122"/>
+      <c r="C56" s="91"/>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="121" t="s">
+      <c r="B57" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="122"/>
+      <c r="C57" s="91"/>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="121" t="s">
+      <c r="B58" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="122"/>
+      <c r="C58" s="91"/>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="122" t="s">
+      <c r="B59" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="122"/>
+      <c r="C59" s="91"/>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="121" t="s">
+      <c r="B60" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="122"/>
+      <c r="C60" s="91"/>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="121" t="s">
+      <c r="B61" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="122"/>
+      <c r="C61" s="91"/>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="121" t="s">
+      <c r="B62" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="122"/>
+      <c r="C62" s="91"/>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="121" t="s">
+      <c r="B63" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="C63" s="122"/>
+      <c r="C63" s="91"/>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="122"/>
+      <c r="C64" s="91"/>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="121" t="s">
+      <c r="B65" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="122"/>
+      <c r="C65" s="91"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="121" t="s">
+      <c r="B66" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="122"/>
+      <c r="C66" s="91"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="122" t="s">
+      <c r="B67" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="122"/>
+      <c r="C67" s="91"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="121" t="s">
+      <c r="B68" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="122"/>
+      <c r="C68" s="91"/>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="122"/>
+      <c r="C69" s="91"/>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="121" t="s">
+      <c r="B70" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="122"/>
+      <c r="C70" s="91"/>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="121" t="s">
+      <c r="B71" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="122"/>
+      <c r="C71" s="91"/>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="121" t="s">
+      <c r="B72" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="122"/>
+      <c r="C72" s="91"/>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="121" t="s">
+      <c r="B73" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="122"/>
+      <c r="C73" s="91"/>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="121" t="s">
+      <c r="B74" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="122"/>
+      <c r="C74" s="91"/>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="121" t="s">
+      <c r="B75" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="C75" s="122"/>
+      <c r="C75" s="91"/>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="121" t="s">
+      <c r="B76" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C76" s="122"/>
+      <c r="C76" s="91"/>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="124" t="s">
+      <c r="B77" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="122"/>
+      <c r="C77" s="91"/>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="122" t="s">
+      <c r="B78" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="122"/>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="123" t="s">
+      <c r="C78" s="91"/>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" s="92" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="118" t="s">
+      <c r="B81" s="87" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="118" t="s">
+      <c r="B82" s="87" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="118" t="s">
+      <c r="B83" s="87" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="118" t="s">
+      <c r="B84" s="87" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="118" t="s">
+      <c r="B85" s="87" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="118" t="s">
+      <c r="B86" s="87" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="118" t="s">
+      <c r="B87" s="87" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.37037037037037" style="29" customWidth="1"/>
-    <col min="2" max="2" width="18.0555555555556" style="29" customWidth="1"/>
-    <col min="3" max="3" width="10.8888888888889" style="29"/>
-    <col min="4" max="4" width="11.1759259259259" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.58333333333333" style="29" customWidth="1"/>
-    <col min="6" max="6" width="17.0092592592593" style="29" customWidth="1"/>
-    <col min="7" max="7" width="8.4537037037037" style="29" customWidth="1"/>
-    <col min="8" max="8" width="11.037037037037" style="29" customWidth="1"/>
-    <col min="9" max="9" width="3.75925925925926" style="29" customWidth="1"/>
-    <col min="10" max="10" width="7.91666666666667" style="29"/>
-    <col min="11" max="11" width="17.9166666666667" style="29" customWidth="1"/>
-    <col min="12" max="12" width="6.11111111111111" style="29" customWidth="1"/>
-    <col min="13" max="13" width="12.6018518518519" style="29" customWidth="1"/>
-    <col min="14" max="256" width="8.30555555555556" style="29"/>
+    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="18" style="29" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="29"/>
+    <col min="4" max="4" width="11.140625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="32" style="29" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="11" style="29" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="29" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="29"/>
+    <col min="11" max="11" width="17.85546875" style="29" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" style="29" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="29" customWidth="1"/>
+    <col min="14" max="256" width="8.28515625" style="29"/>
     <col min="257" max="16384" width="8" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:13">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A1" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-    </row>
-    <row r="2" s="29" customFormat="1" ht="43" customHeight="1" spans="1:13">
-      <c r="A2" s="79" t="s">
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+    </row>
+    <row r="2" spans="1:14" ht="42.95" customHeight="1">
+      <c r="A2" s="62" t="s">
         <v>100</v>
       </c>
       <c r="B2" s="32" t="s">
@@ -3573,43 +2964,43 @@
       <c r="D2" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="63" t="s">
         <v>104</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="62" t="s">
         <v>100</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="105" t="s">
+      <c r="K2" s="77" t="s">
         <v>109</v>
       </c>
       <c r="L2" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="106" t="s">
+      <c r="M2" s="78" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" s="68" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A3" s="82">
+    <row r="3" spans="1:14" s="54" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A3" s="65">
         <v>1</v>
       </c>
-      <c r="B3" s="83" t="str">
+      <c r="B3" s="66" t="str">
         <f>CONCATENATE('Информация для бумаг'!B5," ",'Информация для бумаг'!C5)</f>
         <v>Атаманов Андрей</v>
       </c>
-      <c r="C3" s="84" t="str">
+      <c r="C3" s="67" t="str">
         <f>'Информация для бумаг'!N5</f>
         <v>02.03.0005</v>
       </c>
@@ -3621,42 +3012,42 @@
         <f>'Информация для бумаг'!I5</f>
         <v>10</v>
       </c>
-      <c r="F3" s="66" t="str">
+      <c r="F3" s="52" t="str">
         <f>'Информация для бумаг'!K5</f>
         <v>Шуваловский пр. д. 90 к. кв.180</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="86" t="s">
+      <c r="H3" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="87">
+      <c r="I3" s="69">
         <v>1</v>
       </c>
-      <c r="J3" s="107" t="s">
+      <c r="J3" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="108" t="s">
+      <c r="K3" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="L3" s="109">
+      <c r="L3" s="81">
         <v>1400</v>
       </c>
-      <c r="M3" s="109" t="s">
+      <c r="M3" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="N3" s="110"/>
-    </row>
-    <row r="4" s="68" customFormat="1" ht="24" spans="1:14">
-      <c r="A4" s="87">
+      <c r="N3" s="82"/>
+    </row>
+    <row r="4" spans="1:14" s="54" customFormat="1" ht="24">
+      <c r="A4" s="69">
         <v>2</v>
       </c>
-      <c r="B4" s="83" t="str">
+      <c r="B4" s="66" t="str">
         <f>CONCATENATE('Информация для бумаг'!B6," ",'Информация для бумаг'!C6)</f>
         <v>Башилов Константин</v>
       </c>
-      <c r="C4" s="84">
+      <c r="C4" s="67">
         <f>'Информация для бумаг'!N6</f>
         <v>39367</v>
       </c>
@@ -3668,38 +3059,38 @@
         <f>'Информация для бумаг'!I6</f>
         <v>7</v>
       </c>
-      <c r="F4" s="66" t="str">
+      <c r="F4" s="52" t="str">
         <f>'Информация для бумаг'!K6</f>
         <v>СПб, Пестеля д. 13-15 кв. 108</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="82">
+      <c r="H4" s="108"/>
+      <c r="I4" s="65">
         <v>2</v>
       </c>
-      <c r="J4" s="107" t="s">
+      <c r="J4" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="N4" s="110"/>
-    </row>
-    <row r="5" s="68" customFormat="1" ht="23" customHeight="1" spans="1:14">
-      <c r="A5" s="82">
+      <c r="N4" s="82"/>
+    </row>
+    <row r="5" spans="1:14" s="54" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A5" s="65">
         <v>3</v>
       </c>
-      <c r="B5" s="83" t="str">
+      <c r="B5" s="66" t="str">
         <f>CONCATENATE('Информация для бумаг'!B7," ",'Информация для бумаг'!C7)</f>
         <v>Белокуров Михаил</v>
       </c>
-      <c r="C5" s="84">
+      <c r="C5" s="67">
         <f>'Информация для бумаг'!N7</f>
         <v>38553</v>
       </c>
@@ -3711,40 +3102,40 @@
         <f>'Информация для бумаг'!I7</f>
         <v>10</v>
       </c>
-      <c r="F5" s="66" t="str">
+      <c r="F5" s="52" t="str">
         <f>'Информация для бумаг'!K7</f>
         <v>ул. Ставропольская д. 12/15 кв. 46</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="87">
+      <c r="H5" s="108"/>
+      <c r="I5" s="69">
         <v>3</v>
       </c>
-      <c r="J5" s="111" t="s">
+      <c r="J5" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="K5" s="108" t="s">
+      <c r="K5" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="L5" s="109">
+      <c r="L5" s="81">
         <v>1400</v>
       </c>
-      <c r="M5" s="109" t="s">
+      <c r="M5" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="N5" s="110"/>
-    </row>
-    <row r="6" s="68" customFormat="1" ht="24" spans="1:14">
-      <c r="A6" s="87">
+      <c r="N5" s="82"/>
+    </row>
+    <row r="6" spans="1:14" s="54" customFormat="1" ht="24">
+      <c r="A6" s="69">
         <v>4</v>
       </c>
-      <c r="B6" s="83" t="str">
+      <c r="B6" s="66" t="str">
         <f>CONCATENATE('Информация для бумаг'!B8," ",'Информация для бумаг'!C8)</f>
         <v>Демидова Алина</v>
       </c>
-      <c r="C6" s="84">
+      <c r="C6" s="67">
         <f>'Информация для бумаг'!N8</f>
         <v>39554</v>
       </c>
@@ -3756,30 +3147,30 @@
         <f>'Информация для бумаг'!I8</f>
         <v>7</v>
       </c>
-      <c r="F6" s="66" t="str">
+      <c r="F6" s="52" t="str">
         <f>'Информация для бумаг'!K8</f>
         <v>Туристская ул. дом 28 корп.3 кв.203</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="G6" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="88"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="110"/>
-    </row>
-    <row r="7" s="68" customFormat="1" ht="24" spans="1:14">
-      <c r="A7" s="82">
+      <c r="H6" s="108"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
+    </row>
+    <row r="7" spans="1:14" s="54" customFormat="1" ht="24">
+      <c r="A7" s="65">
         <v>5</v>
       </c>
-      <c r="B7" s="83" t="str">
+      <c r="B7" s="66" t="str">
         <f>CONCATENATE('Информация для бумаг'!B9," ",'Информация для бумаг'!C9)</f>
         <v>Евдокимова Алёна</v>
       </c>
-      <c r="C7" s="84">
+      <c r="C7" s="67">
         <f>'Информация для бумаг'!N9</f>
         <v>38137</v>
       </c>
@@ -3791,30 +3182,30 @@
         <f>'Информация для бумаг'!I9</f>
         <v>11</v>
       </c>
-      <c r="F7" s="66" t="str">
+      <c r="F7" s="52" t="str">
         <f>'Информация для бумаг'!K9</f>
         <v>ул. Витебская, д.10, кв.14</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="88"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="110"/>
-    </row>
-    <row r="8" s="68" customFormat="1" ht="24" spans="1:14">
-      <c r="A8" s="87">
+      <c r="H7" s="108"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="82"/>
+    </row>
+    <row r="8" spans="1:14" s="54" customFormat="1" ht="36">
+      <c r="A8" s="69">
         <v>6</v>
       </c>
-      <c r="B8" s="83" t="str">
+      <c r="B8" s="66" t="str">
         <f>CONCATENATE('Информация для бумаг'!B10," ",'Информация для бумаг'!C10)</f>
         <v>Ершова Татьяна</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="67">
         <f>'Информация для бумаг'!N10</f>
         <v>39166</v>
       </c>
@@ -3826,25 +3217,25 @@
         <f>'Информация для бумаг'!I10</f>
         <v>8</v>
       </c>
-      <c r="F8" s="66" t="str">
+      <c r="F8" s="52" t="str">
         <f>'Информация для бумаг'!K10</f>
         <v>ул. Малая Карпатская д.17 кв 275</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="88"/>
-      <c r="N8" s="113"/>
-    </row>
-    <row r="9" s="68" customFormat="1" ht="48" spans="1:13">
-      <c r="A9" s="82">
+      <c r="H8" s="108"/>
+      <c r="N8" s="85"/>
+    </row>
+    <row r="9" spans="1:14" s="54" customFormat="1" ht="60">
+      <c r="A9" s="65">
         <v>7</v>
       </c>
-      <c r="B9" s="83" t="str">
+      <c r="B9" s="66" t="str">
         <f>CONCATENATE('Информация для бумаг'!B11," ",'Информация для бумаг'!C11)</f>
         <v>Зиглина Софья</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="67">
         <f>'Информация для бумаг'!N11</f>
         <v>38518</v>
       </c>
@@ -3856,29 +3247,29 @@
         <f>'Информация для бумаг'!I11</f>
         <v>10</v>
       </c>
-      <c r="F9" s="66" t="str">
+      <c r="F9" s="52" t="str">
         <f>'Информация для бумаг'!K11</f>
         <v>Санкт-Петербург, Красногвардейский район, улица Коммуны, дом 42, к.1, КВ.33</v>
       </c>
-      <c r="G9" s="85" t="s">
+      <c r="G9" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="H9" s="88"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-    </row>
-    <row r="10" s="68" customFormat="1" ht="36" spans="1:13">
-      <c r="A10" s="87">
+      <c r="H9" s="108"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+    </row>
+    <row r="10" spans="1:14" s="54" customFormat="1" ht="36">
+      <c r="A10" s="69">
         <v>8</v>
       </c>
-      <c r="B10" s="83" t="str">
+      <c r="B10" s="66" t="str">
         <f>CONCATENATE('Информация для бумаг'!B12," ",'Информация для бумаг'!C12)</f>
         <v>Каретная Вероника</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="67">
         <f>'Информация для бумаг'!N12</f>
         <v>39485</v>
       </c>
@@ -3890,29 +3281,29 @@
         <f>'Информация для бумаг'!I12</f>
         <v>7</v>
       </c>
-      <c r="F10" s="66" t="str">
+      <c r="F10" s="52" t="str">
         <f>'Информация для бумаг'!K12</f>
         <v>С-Пб., ул. Кораблестроителей д.19/1, кв. 168</v>
       </c>
-      <c r="G10" s="85" t="s">
+      <c r="G10" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="H10" s="88"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-    </row>
-    <row r="11" s="68" customFormat="1" ht="36" spans="1:13">
-      <c r="A11" s="82">
+      <c r="H10" s="108"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+    </row>
+    <row r="11" spans="1:14" s="54" customFormat="1" ht="36">
+      <c r="A11" s="65">
         <v>9</v>
       </c>
-      <c r="B11" s="83" t="str">
+      <c r="B11" s="66" t="str">
         <f>CONCATENATE('Информация для бумаг'!B13," ",'Информация для бумаг'!C13)</f>
         <v>Кудряшов Тимофей</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="67">
         <f>'Информация для бумаг'!N13</f>
         <v>38434</v>
       </c>
@@ -3924,29 +3315,29 @@
         <f>'Информация для бумаг'!I13</f>
         <v>11</v>
       </c>
-      <c r="F11" s="66" t="str">
+      <c r="F11" s="52" t="str">
         <f>'Информация для бумаг'!K13</f>
         <v>Санкт-Петербург, пр. Маршала Жукова, д.45, кв 222</v>
       </c>
-      <c r="G11" s="85" t="s">
+      <c r="G11" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="88"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-    </row>
-    <row r="12" s="68" customFormat="1" ht="24" spans="1:13">
-      <c r="A12" s="87">
+      <c r="H11" s="108"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+    </row>
+    <row r="12" spans="1:14" s="54" customFormat="1" ht="24">
+      <c r="A12" s="69">
         <v>10</v>
       </c>
-      <c r="B12" s="83" t="str">
+      <c r="B12" s="66" t="str">
         <f>CONCATENATE('Информация для бумаг'!B14," ",'Информация для бумаг'!C14)</f>
         <v>Нематова Рената</v>
       </c>
-      <c r="C12" s="84">
+      <c r="C12" s="67">
         <f>'Информация для бумаг'!N14</f>
         <v>38051</v>
       </c>
@@ -3958,29 +3349,29 @@
         <f>'Информация для бумаг'!I14</f>
         <v>11</v>
       </c>
-      <c r="F12" s="66" t="str">
+      <c r="F12" s="52" t="str">
         <f>'Информация для бумаг'!K14</f>
         <v>СПб,пос.Александровская,4 линия, д. 43А</v>
       </c>
-      <c r="G12" s="85" t="s">
+      <c r="G12" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="88"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-    </row>
-    <row r="13" s="68" customFormat="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A13" s="82">
+      <c r="H12" s="108"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+    </row>
+    <row r="13" spans="1:14" s="54" customFormat="1" ht="24" customHeight="1">
+      <c r="A13" s="65">
         <v>11</v>
       </c>
-      <c r="B13" s="83" t="str">
+      <c r="B13" s="66" t="str">
         <f>CONCATENATE('Информация для бумаг'!B15," ",'Информация для бумаг'!C15)</f>
         <v>Попов Василий</v>
       </c>
-      <c r="C13" s="84">
+      <c r="C13" s="67">
         <f>'Информация для бумаг'!N15</f>
         <v>39331</v>
       </c>
@@ -3992,29 +3383,29 @@
         <f>'Информация для бумаг'!I15</f>
         <v>8</v>
       </c>
-      <c r="F13" s="66" t="str">
+      <c r="F13" s="52" t="str">
         <f>'Информация для бумаг'!K15</f>
         <v>Ул.Бутлерова, 11 к.4 , кв 385</v>
       </c>
-      <c r="G13" s="85" t="s">
+      <c r="G13" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="88"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-    </row>
-    <row r="14" s="68" customFormat="1" ht="17" customHeight="1" spans="1:13">
-      <c r="A14" s="87">
+      <c r="H13" s="108"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+    </row>
+    <row r="14" spans="1:14" s="54" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A14" s="69">
         <v>12</v>
       </c>
-      <c r="B14" s="83" t="str">
+      <c r="B14" s="66" t="str">
         <f>CONCATENATE('Информация для бумаг'!B16," ",'Информация для бумаг'!C16)</f>
         <v>Сайчик Мария</v>
       </c>
-      <c r="C14" s="84">
+      <c r="C14" s="67">
         <f>'Информация для бумаг'!N16</f>
         <v>38982</v>
       </c>
@@ -4026,29 +3417,29 @@
         <f>'Информация для бумаг'!I16</f>
         <v>9</v>
       </c>
-      <c r="F14" s="66" t="str">
+      <c r="F14" s="52" t="str">
         <f>'Информация для бумаг'!K16</f>
         <v>Кораблестроителей, 39-831</v>
       </c>
-      <c r="G14" s="85" t="s">
+      <c r="G14" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="88"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-    </row>
-    <row r="15" s="68" customFormat="1" spans="1:13">
-      <c r="A15" s="82">
+      <c r="H14" s="108"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+    </row>
+    <row r="15" spans="1:14" s="54" customFormat="1" ht="24">
+      <c r="A15" s="65">
         <v>13</v>
       </c>
-      <c r="B15" s="83" t="str">
+      <c r="B15" s="66" t="str">
         <f>CONCATENATE('Информация для бумаг'!B17," ",'Информация для бумаг'!C17)</f>
         <v>Семенова Елизавета</v>
       </c>
-      <c r="C15" s="84">
+      <c r="C15" s="67">
         <f>'Информация для бумаг'!N17</f>
         <v>39875</v>
       </c>
@@ -4060,31 +3451,31 @@
         <f>'Информация для бумаг'!I17</f>
         <v>7</v>
       </c>
-      <c r="F15" s="66" t="str">
+      <c r="F15" s="52" t="str">
         <f>'Информация для бумаг'!K17</f>
         <v>Лабутина 20-22 кв. 40</v>
       </c>
-      <c r="G15" s="85" t="s">
+      <c r="G15" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="88"/>
-      <c r="I15" s="114" t="s">
+      <c r="H15" s="108"/>
+      <c r="I15" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="116"/>
-    </row>
-    <row r="16" s="68" customFormat="1" ht="23" customHeight="1" spans="1:13">
-      <c r="A16" s="87">
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="100"/>
+    </row>
+    <row r="16" spans="1:14" s="54" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A16" s="69">
         <v>14</v>
       </c>
-      <c r="B16" s="83" t="str">
+      <c r="B16" s="66" t="str">
         <f>CONCATENATE('Информация для бумаг'!B18," ",'Информация для бумаг'!C18)</f>
         <v>Шилонцев Андрей</v>
       </c>
-      <c r="C16" s="84">
+      <c r="C16" s="67">
         <f>'Информация для бумаг'!N18</f>
         <v>38989</v>
       </c>
@@ -4096,29 +3487,29 @@
         <f>'Информация для бумаг'!I18</f>
         <v>9</v>
       </c>
-      <c r="F16" s="66" t="str">
+      <c r="F16" s="52" t="str">
         <f>'Информация для бумаг'!K18</f>
         <v>Санкт-Петербург, Ленинский проспект, дом 117, корпус 1, квартира 603</v>
       </c>
-      <c r="G16" s="85" t="s">
+      <c r="G16" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="H16" s="88"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-    </row>
-    <row r="17" s="68" customFormat="1" ht="36" spans="1:13">
-      <c r="A17" s="82">
+      <c r="H16" s="108"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+    </row>
+    <row r="17" spans="1:13" s="54" customFormat="1" ht="36">
+      <c r="A17" s="65">
         <v>15</v>
       </c>
-      <c r="B17" s="83" t="str">
+      <c r="B17" s="66" t="str">
         <f>CONCATENATE('Информация для бумаг'!B19," ",'Информация для бумаг'!C19)</f>
         <v>Шишкина Алина</v>
       </c>
-      <c r="C17" s="84">
+      <c r="C17" s="67">
         <f>'Информация для бумаг'!N19</f>
         <v>38070</v>
       </c>
@@ -4130,29 +3521,29 @@
         <f>'Информация для бумаг'!I19</f>
         <v>11</v>
       </c>
-      <c r="F17" s="66" t="str">
+      <c r="F17" s="52" t="str">
         <f>'Информация для бумаг'!K19</f>
         <v>Проспект Авиаконструкторов, дом 47, квартира 4</v>
       </c>
-      <c r="G17" s="85" t="s">
+      <c r="G17" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="H17" s="88"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-    </row>
-    <row r="18" s="68" customFormat="1" spans="1:13">
-      <c r="A18" s="87">
+      <c r="H17" s="108"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+    </row>
+    <row r="18" spans="1:13" s="54" customFormat="1">
+      <c r="A18" s="69">
         <v>16</v>
       </c>
-      <c r="B18" s="83" t="str">
+      <c r="B18" s="66" t="str">
         <f>CONCATENATE('Информация для бумаг'!B20," ",'Информация для бумаг'!C20)</f>
         <v>Нужин Илья</v>
       </c>
-      <c r="C18" s="84">
+      <c r="C18" s="67">
         <f>'Информация для бумаг'!N20</f>
         <v>38933</v>
       </c>
@@ -4164,375 +3555,289 @@
         <f>'Информация для бумаг'!I20</f>
         <v>9</v>
       </c>
-      <c r="F18" s="66" t="str">
+      <c r="F18" s="52" t="str">
         <f>'Информация для бумаг'!K20</f>
         <v>Наличная 37-1-4</v>
       </c>
-      <c r="G18" s="85" t="s">
+      <c r="G18" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="88"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-    </row>
-    <row r="19" s="68" customFormat="1" spans="1:13">
-      <c r="A19" s="87"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-    </row>
-    <row r="20" s="68" customFormat="1" spans="1:13">
-      <c r="A20" s="87"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-    </row>
-    <row r="21" s="68" customFormat="1" spans="1:13">
-      <c r="A21" s="87"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-    </row>
-    <row r="22" s="68" customFormat="1" spans="1:13">
-      <c r="A22" s="87"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-    </row>
-    <row r="23" s="68" customFormat="1" spans="1:13">
-      <c r="A23" s="87"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-    </row>
-    <row r="24" s="68" customFormat="1" spans="1:13">
-      <c r="A24" s="82"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-    </row>
-    <row r="25" s="68" customFormat="1" ht="12" spans="1:13">
-      <c r="A25" s="89"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-    </row>
-    <row r="26" s="68" customFormat="1" spans="1:13">
-      <c r="A26" s="82"/>
-      <c r="B26" s="91" t="str">
+      <c r="H18" s="108"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+    </row>
+    <row r="19" spans="1:13" s="54" customFormat="1">
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+    </row>
+    <row r="20" spans="1:13" s="54" customFormat="1">
+      <c r="A20" s="65"/>
+      <c r="B20" s="70" t="str">
         <f>'Информация для бумаг'!C23</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="92" t="s">
+      <c r="C20" s="67"/>
+      <c r="D20" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="93"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="87"/>
-      <c r="B27" s="31" t="str">
+      <c r="E20" s="102"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="69"/>
+      <c r="B21" s="31" t="str">
         <f>'Информация для бумаг'!C24</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="C27" s="84"/>
-      <c r="D27" s="95" t="s">
+      <c r="C21" s="67"/>
+      <c r="D21" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="96"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-    </row>
-    <row r="28" ht="15.6" spans="1:13">
-      <c r="A28" s="97" t="s">
+      <c r="E21" s="104"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75">
+      <c r="A22" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A29" s="100" t="s">
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A23" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="29" t="str">
+      <c r="B23" s="106"/>
+      <c r="C23" s="29" t="str">
         <f>'Информация для бумаг'!C28</f>
         <v>SYS1945298572,  001-059-070384/21</v>
       </c>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A30" s="29" t="s">
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A24" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="H30" s="104" t="s">
+      <c r="H24" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="117"/>
-      <c r="M30" s="117"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1" spans="8:8">
-      <c r="H31" s="29" t="s">
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H25" s="29" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="32" s="29" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="33" s="29" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="34" s="29" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="35" s="29" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="36" s="29" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="37" s="29" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="38" s="29" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="39" s="29" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="40" s="29" customFormat="1" ht="23.25" customHeight="1"/>
+    <row r="26" spans="1:13" ht="23.25" customHeight="1"/>
+    <row r="27" spans="1:13" ht="23.25" customHeight="1"/>
+    <row r="28" spans="1:13" ht="23.25" customHeight="1"/>
+    <row r="29" spans="1:13" ht="23.25" customHeight="1"/>
+    <row r="30" spans="1:13" ht="23.25" customHeight="1"/>
+    <row r="31" spans="1:13" ht="23.25" customHeight="1"/>
+    <row r="32" spans="1:13" ht="23.25" customHeight="1"/>
+    <row r="33" ht="23.25" customHeight="1"/>
+    <row r="34" ht="23.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="H3:H22"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="I15:M15"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="H3:H28"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
-  <pageMargins left="0.2" right="0.229166666666667" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <pageMargins left="0.2" right="0.22916666666666699" top="0.25" bottom="0.25" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" style="29" customWidth="1"/>
     <col min="2" max="6" width="8" style="29"/>
-    <col min="7" max="7" width="23.6388888888889" style="29" customWidth="1"/>
-    <col min="8" max="8" width="10.7777777777778" style="29" customWidth="1"/>
-    <col min="9" max="9" width="3.89814814814815" style="29" customWidth="1"/>
-    <col min="10" max="10" width="9.48148148148148" style="29" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="29" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="29" customWidth="1"/>
     <col min="11" max="11" width="8" style="29"/>
-    <col min="12" max="12" width="13.1851851851852" style="29"/>
-    <col min="13" max="13" width="9.90740740740741" style="29"/>
+    <col min="12" max="12" width="13.140625" style="29"/>
+    <col min="13" max="13" width="9.85546875" style="29"/>
     <col min="14" max="14" width="8" style="29"/>
-    <col min="15" max="15" width="1.63888888888889" style="29" customWidth="1"/>
+    <col min="15" max="15" width="1.5703125" style="29" customWidth="1"/>
     <col min="16" max="16384" width="8" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" spans="1:14">
+    <row r="1" spans="1:14" ht="12.75" customHeight="1">
       <c r="A1" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A2" s="48" t="s">
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A2" s="127" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="47" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" spans="1:7">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" spans="1:14">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="51" t="s">
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+    </row>
+    <row r="3" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A4" s="128"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-    </row>
-    <row r="6" ht="23" customHeight="1" spans="1:14">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="H6" s="47" t="s">
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="128"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+    </row>
+    <row r="6" spans="1:14" ht="23.1" customHeight="1">
+      <c r="A6" s="128"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="H6" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="52"/>
-      <c r="I7" s="70" t="s">
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="49"/>
+      <c r="I7" s="56" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:8">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="H8" s="57" t="s">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A8" s="117"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="121"/>
+      <c r="H8" s="50" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:10">
-      <c r="A9" s="53"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60"/>
+    <row r="9" spans="1:14" ht="15.75">
+      <c r="A9" s="117"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="124"/>
       <c r="H9" s="47" t="s">
         <v>138</v>
       </c>
@@ -4540,40 +3845,40 @@
         <f>COUNT('Cписок для приказа'!D5:D20)</f>
         <v>16</v>
       </c>
-      <c r="J9" s="67" t="s">
+      <c r="J9" s="53" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" ht="45" customHeight="1" spans="1:14">
-      <c r="A10" s="61"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="H10" s="50" t="s">
+    <row r="10" spans="1:14" ht="45" customHeight="1">
+      <c r="A10" s="118"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="H10" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="J10" s="71" t="str">
+      <c r="J10" s="112" t="str">
         <f>'Информация для бумаг'!C3</f>
         <v>Санкт-Петербург - Кандалакшский заповедник (о.Ряжков) - Санкт-Петербург</v>
       </c>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="61"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="118"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
       <c r="H11" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="I11" s="73">
+      <c r="I11" s="57">
         <f>DAYS360('Информация для бумаг'!C2,'Информация для бумаг'!D2)-1</f>
         <v>22</v>
       </c>
@@ -4581,62 +3886,62 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:12">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="H12" s="65" t="s">
+    <row r="12" spans="1:14" ht="15.75">
+      <c r="A12" s="51"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="H12" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="I12" s="65"/>
-      <c r="J12" s="74">
+      <c r="I12" s="115"/>
+      <c r="J12" s="58">
         <f>'Информация для бумаг'!C2</f>
         <v>44409</v>
       </c>
-      <c r="K12" s="75" t="s">
+      <c r="K12" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="L12" s="76">
+      <c r="L12" s="60">
         <f>'Информация для бумаг'!D2</f>
         <v>44432</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1" spans="1:6">
-      <c r="A13" s="61"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-    </row>
-    <row r="14" ht="15.6" spans="1:14">
-      <c r="A14" s="61"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="H14" s="67" t="s">
+    <row r="13" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A13" s="118"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75">
+      <c r="A14" s="118"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="H14" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="K14" s="75" t="str">
+      <c r="K14" s="116" t="str">
         <f>'Информация для бумаг'!C23</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="61"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="116"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="118"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
       <c r="K15" s="40" t="s">
         <v>146</v>
       </c>
@@ -4645,55 +3950,55 @@
         <v>89217427984</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A16" s="61"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="H16" s="68" t="s">
+    <row r="16" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A16" s="118"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="H16" s="54" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="H17" s="69" t="s">
+    <row r="17" spans="1:14">
+      <c r="A17" s="118"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="H17" s="55" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="61"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-    </row>
-    <row r="19" ht="15.6" spans="1:14">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="H19" s="67" t="s">
+    <row r="18" spans="1:14">
+      <c r="A18" s="118"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75">
+      <c r="A19" s="118"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="H19" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="K19" s="75" t="str">
+      <c r="K19" s="116" t="str">
         <f>'Информация для бумаг'!C24</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-    </row>
-    <row r="20" spans="11:12">
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="K20" s="40" t="s">
         <v>146</v>
       </c>
@@ -4702,53 +4007,53 @@
         <v>89679796720</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1" spans="8:14">
-      <c r="H22" s="47" t="s">
+    <row r="22" spans="1:14" ht="12.75" customHeight="1">
+      <c r="H22" s="110" t="s">
         <v>150</v>
       </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1" spans="8:14">
-      <c r="H23" s="47" t="s">
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="110"/>
+    </row>
+    <row r="23" spans="1:14" ht="12.75" customHeight="1">
+      <c r="H23" s="110" t="s">
         <v>151</v>
       </c>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-    </row>
-    <row r="25" ht="15.6" spans="8:13">
-      <c r="H25" s="67" t="s">
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="110"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75">
+      <c r="H25" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="M25" s="77">
+      <c r="M25" s="61">
         <f>'Информация для бумаг'!C26</f>
         <v>44337</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="1:9">
-      <c r="A26" s="67" t="s">
+    <row r="26" spans="1:14" ht="15.75">
+      <c r="A26" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67" t="s">
+      <c r="H26" s="53"/>
+      <c r="I26" s="53" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="8:8">
-      <c r="H28" s="67" t="s">
+    <row r="28" spans="1:14" ht="15.75">
+      <c r="H28" s="53" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="8:12">
-      <c r="H29" s="67" t="s">
+    <row r="29" spans="1:14" ht="15.75">
+      <c r="H29" s="53" t="s">
         <v>156</v>
       </c>
       <c r="K29" s="29">
@@ -4759,19 +4064,19 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="1:8">
-      <c r="A30" s="67" t="s">
+    <row r="30" spans="1:14" ht="15.75">
+      <c r="A30" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="H30" s="67"/>
-    </row>
-    <row r="31" ht="15.6" spans="8:8">
-      <c r="H31" s="67" t="s">
+      <c r="H30" s="53"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75">
+      <c r="H31" s="53" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="8:12">
-      <c r="H32" s="67" t="s">
+    <row r="32" spans="1:14" ht="15.75">
+      <c r="H32" s="53" t="s">
         <v>160</v>
       </c>
       <c r="K32" s="29">
@@ -4782,23 +4087,14 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="8:8">
-      <c r="H33" s="69" t="s">
+    <row r="33" spans="8:8" ht="15.75">
+      <c r="H33" s="55" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="A2:F6"/>
     <mergeCell ref="H23:N23"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
@@ -4808,43 +4104,51 @@
     <mergeCell ref="B10:F11"/>
     <mergeCell ref="B13:F15"/>
     <mergeCell ref="B16:F19"/>
-    <mergeCell ref="A2:F6"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="J10:N10"/>
   </mergeCells>
-  <pageMargins left="0.388888888888889" right="0.388888888888889" top="0.388888888888889" bottom="0.588888888888889" header="0" footer="0.509027777777778"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <pageMargins left="0.38888888888888901" right="0.38888888888888901" top="0.38888888888888901" bottom="0.58888888888888902" header="0" footer="0.50902777777777797"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.66666666666667" style="29"/>
-    <col min="2" max="2" width="35.7222222222222" style="29" customWidth="1"/>
-    <col min="3" max="3" width="9.33333333333333" style="29" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="29"/>
+    <col min="2" max="2" width="35.7109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="29" customWidth="1"/>
     <col min="4" max="4" width="8" style="29"/>
-    <col min="5" max="5" width="12.8888888888889" style="29"/>
-    <col min="6" max="6" width="33.8888888888889" style="29" customWidth="1"/>
-    <col min="7" max="7" width="17.2222222222222" style="40" customWidth="1"/>
-    <col min="8" max="8" width="26.4444444444444" style="29" customWidth="1"/>
-    <col min="9" max="9" width="12.8888888888889" style="29" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="29"/>
+    <col min="6" max="6" width="33.85546875" style="29" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="29" customWidth="1"/>
     <col min="10" max="16384" width="8" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:9">
       <c r="B1" s="29" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:9">
       <c r="B2" s="29" t="s">
         <v>163</v>
       </c>
@@ -4876,7 +4180,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" s="39" customFormat="1" ht="26.4" spans="1:9">
+    <row r="5" spans="1:9" s="39" customFormat="1" ht="25.5">
       <c r="A5" s="43">
         <v>1</v>
       </c>
@@ -4913,7 +4217,7 @@
         <v>89217476129, 8 921 9942973</v>
       </c>
     </row>
-    <row r="6" s="39" customFormat="1" spans="1:9">
+    <row r="6" spans="1:9" s="39" customFormat="1">
       <c r="A6" s="43">
         <v>2</v>
       </c>
@@ -4950,7 +4254,7 @@
         <v>89052006465</v>
       </c>
     </row>
-    <row r="7" s="39" customFormat="1" spans="1:9">
+    <row r="7" spans="1:9" s="39" customFormat="1" ht="25.5">
       <c r="A7" s="43">
         <v>3</v>
       </c>
@@ -4987,7 +4291,7 @@
         <v>89213205528</v>
       </c>
     </row>
-    <row r="8" s="39" customFormat="1" spans="1:9">
+    <row r="8" spans="1:9" s="39" customFormat="1">
       <c r="A8" s="43">
         <v>4</v>
       </c>
@@ -5024,7 +4328,7 @@
         <v>89052274602</v>
       </c>
     </row>
-    <row r="9" s="39" customFormat="1" spans="1:9">
+    <row r="9" spans="1:9" s="39" customFormat="1">
       <c r="A9" s="43">
         <v>5</v>
       </c>
@@ -5061,7 +4365,7 @@
         <v>89117966505</v>
       </c>
     </row>
-    <row r="10" s="39" customFormat="1" spans="1:9">
+    <row r="10" spans="1:9" s="39" customFormat="1">
       <c r="A10" s="43">
         <v>6</v>
       </c>
@@ -5098,7 +4402,7 @@
         <v>9522270284</v>
       </c>
     </row>
-    <row r="11" s="39" customFormat="1" ht="39.6" spans="1:9">
+    <row r="11" spans="1:9" s="39" customFormat="1" ht="38.25">
       <c r="A11" s="43">
         <v>7</v>
       </c>
@@ -5135,7 +4439,7 @@
         <v>89219451925</v>
       </c>
     </row>
-    <row r="12" s="39" customFormat="1" ht="26.4" spans="1:9">
+    <row r="12" spans="1:9" s="39" customFormat="1" ht="25.5">
       <c r="A12" s="43">
         <v>8</v>
       </c>
@@ -5172,7 +4476,7 @@
         <v>89213132221</v>
       </c>
     </row>
-    <row r="13" s="39" customFormat="1" ht="26.4" spans="1:9">
+    <row r="13" spans="1:9" s="39" customFormat="1" ht="25.5">
       <c r="A13" s="43">
         <v>9</v>
       </c>
@@ -5209,7 +4513,7 @@
         <v>89817910834</v>
       </c>
     </row>
-    <row r="14" s="39" customFormat="1" ht="26.4" spans="1:9">
+    <row r="14" spans="1:9" s="39" customFormat="1" ht="25.5">
       <c r="A14" s="43">
         <v>10</v>
       </c>
@@ -5246,7 +4550,7 @@
         <v>89112207532</v>
       </c>
     </row>
-    <row r="15" s="39" customFormat="1" spans="1:9">
+    <row r="15" spans="1:9" s="39" customFormat="1">
       <c r="A15" s="43">
         <v>11</v>
       </c>
@@ -5283,7 +4587,7 @@
         <v>89610717771</v>
       </c>
     </row>
-    <row r="16" s="39" customFormat="1" spans="1:9">
+    <row r="16" spans="1:9" s="39" customFormat="1">
       <c r="A16" s="43">
         <v>12</v>
       </c>
@@ -5320,7 +4624,7 @@
         <v>9818417041</v>
       </c>
     </row>
-    <row r="17" s="39" customFormat="1" spans="1:9">
+    <row r="17" spans="1:9" s="39" customFormat="1">
       <c r="A17" s="43">
         <v>13</v>
       </c>
@@ -5357,7 +4661,7 @@
         <v>9046392174</v>
       </c>
     </row>
-    <row r="18" s="39" customFormat="1" ht="26.4" spans="1:9">
+    <row r="18" spans="1:9" s="39" customFormat="1" ht="25.5">
       <c r="A18" s="43">
         <v>14</v>
       </c>
@@ -5394,7 +4698,7 @@
         <v>8921326506</v>
       </c>
     </row>
-    <row r="19" s="39" customFormat="1" ht="26.4" spans="1:9">
+    <row r="19" spans="1:9" s="39" customFormat="1" ht="25.5">
       <c r="A19" s="43">
         <v>15</v>
       </c>
@@ -5431,7 +4735,7 @@
         <v>89218717677</v>
       </c>
     </row>
-    <row r="20" s="39" customFormat="1" spans="1:9">
+    <row r="20" spans="1:9" s="39" customFormat="1">
       <c r="A20" s="43">
         <v>16</v>
       </c>
@@ -5468,7 +4772,7 @@
         <v>9213827100</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:9">
       <c r="B25" s="29" t="str">
         <f>'Информация для бумаг'!C23</f>
         <v>Хайтов Вадим Михайлович</v>
@@ -5477,7 +4781,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:9">
       <c r="B27" s="29" t="str">
         <f>'Информация для бумаг'!C24</f>
         <v>Котельникова Валентина Сергеевна</v>
@@ -5488,39 +4792,38 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.1111111111111" style="29" customWidth="1"/>
-    <col min="2" max="2" width="16.9074074074074" style="29" customWidth="1"/>
-    <col min="3" max="3" width="16.3611111111111" style="29" customWidth="1"/>
-    <col min="4" max="4" width="18.7314814814815" style="29" customWidth="1"/>
-    <col min="5" max="5" width="13.1203703703704" style="29" customWidth="1"/>
-    <col min="6" max="6" width="17.4444444444444" style="29" customWidth="1"/>
-    <col min="7" max="7" width="16.6296296296296" style="29" customWidth="1"/>
-    <col min="8" max="8" width="19.2685185185185" style="29" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="29" customWidth="1"/>
     <col min="9" max="16384" width="8" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:8">
       <c r="A1" s="30" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" ht="82.5" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="82.5" customHeight="1">
       <c r="A2" s="31" t="s">
         <v>164</v>
       </c>
@@ -5581,7 +4884,7 @@
       <c r="G5" s="33"/>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" ht="14.4" spans="1:8">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" s="31" t="str">
         <f>'Cписок для приказа'!B8</f>
         <v>Демидова Алина Витальевна</v>
@@ -5633,7 +4936,7 @@
       <c r="G9" s="34"/>
       <c r="H9" s="31"/>
     </row>
-    <row r="10" ht="14.4" spans="1:8">
+    <row r="10" spans="1:8" ht="15">
       <c r="A10" s="31" t="str">
         <f>'Cписок для приказа'!B12</f>
         <v>Каретная Вероника Михайловна</v>
@@ -5646,7 +4949,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="31"/>
     </row>
-    <row r="11" ht="14.4" spans="1:8">
+    <row r="11" spans="1:8" ht="15">
       <c r="A11" s="31" t="str">
         <f>'Cписок для приказа'!B13</f>
         <v>Кудряшов Тимофей Андреевич</v>
@@ -5659,7 +4962,7 @@
       <c r="G11" s="35"/>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" ht="14.4" spans="1:8">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12" s="31" t="str">
         <f>'Cписок для приказа'!B14</f>
         <v>Нематова Рената Батировна</v>
@@ -5672,7 +4975,7 @@
       <c r="G12" s="35"/>
       <c r="H12" s="31"/>
     </row>
-    <row r="13" ht="14.4" spans="1:8">
+    <row r="13" spans="1:8" ht="15">
       <c r="A13" s="31" t="str">
         <f>'Cписок для приказа'!B15</f>
         <v>Попов Василий Владиславович</v>
@@ -5685,7 +4988,7 @@
       <c r="G13" s="35"/>
       <c r="H13" s="31"/>
     </row>
-    <row r="14" ht="14.4" spans="1:8">
+    <row r="14" spans="1:8" ht="15">
       <c r="A14" s="31" t="str">
         <f>'Cписок для приказа'!B16</f>
         <v>Сайчик Мария Владимировна</v>
@@ -5724,7 +5027,7 @@
       <c r="G16" s="33"/>
       <c r="H16" s="31"/>
     </row>
-    <row r="17" ht="14.4" spans="1:8">
+    <row r="17" spans="1:8" ht="15">
       <c r="A17" s="31" t="str">
         <f>'Cписок для приказа'!B19</f>
         <v>Шишкина Алина Денисовна</v>
@@ -5750,51 +5053,50 @@
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:8">
       <c r="A19" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8" style="16"/>
-    <col min="2" max="2" width="28.8240740740741" style="16" customWidth="1"/>
-    <col min="3" max="3" width="10.8888888888889" style="16"/>
-    <col min="4" max="4" width="15.8888888888889" style="16" customWidth="1"/>
-    <col min="5" max="5" width="21.4259259259259" style="16"/>
-    <col min="6" max="6" width="12.8888888888889" style="16"/>
-    <col min="7" max="7" width="9.22222222222222" style="16"/>
-    <col min="8" max="8" width="8.96296296296296" style="16"/>
-    <col min="9" max="9" width="12.0833333333333" style="17"/>
-    <col min="10" max="10" width="19.4814814814815" style="16"/>
-    <col min="11" max="11" width="28.1851851851852" style="16"/>
-    <col min="12" max="12" width="31.4259259259259" style="16"/>
-    <col min="13" max="13" width="14.1574074074074" style="16"/>
-    <col min="14" max="14" width="18.8240740740741" style="16"/>
-    <col min="15" max="15" width="14.1574074074074" style="16"/>
+    <col min="2" max="2" width="28.85546875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="16"/>
+    <col min="4" max="4" width="15.85546875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="16"/>
+    <col min="6" max="6" width="12.85546875" style="16"/>
+    <col min="7" max="7" width="9.28515625" style="16"/>
+    <col min="8" max="8" width="9" style="16"/>
+    <col min="9" max="9" width="12.140625" style="17"/>
+    <col min="10" max="10" width="19.42578125" style="16"/>
+    <col min="11" max="11" width="28.140625" style="16"/>
+    <col min="12" max="12" width="31.42578125" style="16"/>
+    <col min="13" max="13" width="14.140625" style="16"/>
+    <col min="14" max="14" width="18.85546875" style="16"/>
+    <col min="15" max="15" width="14.140625" style="16"/>
     <col min="16" max="16384" width="8" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:17">
       <c r="B1" s="18" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="1:17">
       <c r="B2" s="16" t="s">
         <v>179</v>
       </c>
@@ -5806,7 +5108,7 @@
       </c>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="1:17">
       <c r="B3" s="16" t="s">
         <v>180</v>
       </c>
@@ -5815,7 +5117,7 @@
       </c>
       <c r="D3" s="20"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="1:17">
       <c r="B4" s="18" t="s">
         <v>182</v>
       </c>
@@ -5859,7 +5161,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" ht="14.4" spans="1:17">
+    <row r="5" spans="1:17" ht="15">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -5902,7 +5204,7 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" ht="14.4" spans="1:17">
+    <row r="6" spans="1:17" ht="15">
       <c r="A6" s="16">
         <v>2</v>
       </c>
@@ -5945,7 +5247,7 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" ht="14.4" spans="1:17">
+    <row r="7" spans="1:17" ht="15">
       <c r="A7" s="16">
         <v>3</v>
       </c>
@@ -5988,7 +5290,7 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" ht="14.4" spans="1:17">
+    <row r="8" spans="1:17" ht="15">
       <c r="A8" s="16">
         <v>4</v>
       </c>
@@ -6031,7 +5333,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" ht="14.4" spans="1:17">
+    <row r="9" spans="1:17" ht="15">
       <c r="A9" s="16">
         <v>5</v>
       </c>
@@ -6074,7 +5376,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" ht="14.4" spans="1:17">
+    <row r="10" spans="1:17" ht="15">
       <c r="A10" s="16">
         <v>6</v>
       </c>
@@ -6114,7 +5416,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" ht="14.4" spans="1:17">
+    <row r="11" spans="1:17" ht="15">
       <c r="A11" s="16">
         <v>7</v>
       </c>
@@ -6157,7 +5459,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" ht="14.4" spans="1:17">
+    <row r="12" spans="1:17" ht="15">
       <c r="A12" s="16">
         <v>8</v>
       </c>
@@ -6200,7 +5502,7 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" ht="14.4" spans="1:17">
+    <row r="13" spans="1:17" ht="15">
       <c r="A13" s="16">
         <v>9</v>
       </c>
@@ -6243,7 +5545,7 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" ht="14.4" spans="1:17">
+    <row r="14" spans="1:17" ht="15">
       <c r="A14" s="16">
         <v>10</v>
       </c>
@@ -6286,7 +5588,7 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" ht="14.4" spans="1:17">
+    <row r="15" spans="1:17" ht="15">
       <c r="A15" s="16">
         <v>11</v>
       </c>
@@ -6329,7 +5631,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" ht="14.4" spans="1:17">
+    <row r="16" spans="1:17" ht="15">
       <c r="A16" s="16">
         <v>12</v>
       </c>
@@ -6372,7 +5674,7 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" ht="14.4" spans="1:17">
+    <row r="17" spans="1:17" ht="15">
       <c r="A17" s="16">
         <v>13</v>
       </c>
@@ -6415,7 +5717,7 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" ht="14.4" spans="1:17">
+    <row r="18" spans="1:17" ht="15">
       <c r="A18" s="16">
         <v>14</v>
       </c>
@@ -6458,7 +5760,7 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" ht="14.4" spans="1:17">
+    <row r="19" spans="1:17" ht="15">
       <c r="A19" s="16">
         <v>15</v>
       </c>
@@ -6501,7 +5803,7 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
     </row>
-    <row r="20" ht="14.4" spans="1:17">
+    <row r="20" spans="1:17" ht="15">
       <c r="A20" s="16">
         <v>16</v>
       </c>
@@ -6541,7 +5843,7 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="1:17">
       <c r="B23" s="16" t="s">
         <v>170</v>
       </c>
@@ -6555,7 +5857,7 @@
         <v>89217427984</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="1:17">
       <c r="B24" s="16" t="s">
         <v>281</v>
       </c>
@@ -6569,7 +5871,7 @@
         <v>89679796720</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:17">
       <c r="B26" s="16" t="s">
         <v>283</v>
       </c>
@@ -6577,7 +5879,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:17">
       <c r="B27" s="16" t="s">
         <v>284</v>
       </c>
@@ -6585,7 +5887,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="1:17">
       <c r="B28" s="16" t="s">
         <v>285</v>
       </c>
@@ -6595,36 +5897,35 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.1111111111111" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.7777777777778" style="4" customWidth="1"/>
-    <col min="3" max="4" width="14.3333333333333" style="4" customWidth="1"/>
-    <col min="5" max="6" width="16.6666666666667" style="4"/>
-    <col min="7" max="7" width="28.1111111111111" style="4" customWidth="1"/>
-    <col min="8" max="8" width="29.7777777777778" style="5" customWidth="1"/>
-    <col min="9" max="10" width="12.8888888888889" style="4"/>
-    <col min="11" max="12" width="10.8888888888889" style="4"/>
-    <col min="13" max="13" width="8.88888888888889" style="4"/>
-    <col min="14" max="14" width="12.8888888888889" style="4"/>
-    <col min="15" max="15" width="10.8888888888889" style="4"/>
-    <col min="16" max="17" width="8.88888888888889" style="4"/>
-    <col min="18" max="19" width="12.8888888888889" style="4"/>
-    <col min="20" max="16384" width="8.88888888888889" style="4"/>
+    <col min="1" max="1" width="19.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" style="4"/>
+    <col min="7" max="7" width="28.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" style="5" customWidth="1"/>
+    <col min="9" max="10" width="12.85546875" style="4"/>
+    <col min="11" max="12" width="10.85546875" style="4"/>
+    <col min="13" max="13" width="8.85546875" style="4"/>
+    <col min="14" max="14" width="12.85546875" style="4"/>
+    <col min="15" max="15" width="10.85546875" style="4"/>
+    <col min="16" max="17" width="8.85546875" style="4"/>
+    <col min="18" max="19" width="12.85546875" style="4"/>
+    <col min="20" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -7581,7 +6882,7 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:27">
+    <row r="15" spans="1:27" s="3" customFormat="1">
       <c r="A15" s="6" t="s">
         <v>266</v>
       </c>
@@ -7650,7 +6951,7 @@
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
     </row>
-    <row r="16" ht="15.15" spans="1:27">
+    <row r="16" spans="1:27">
       <c r="A16" s="6" t="s">
         <v>271</v>
       </c>
@@ -7719,7 +7020,7 @@
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
     </row>
-    <row r="17" ht="15.15" spans="1:27">
+    <row r="17" spans="1:27">
       <c r="A17" s="6" t="s">
         <v>275</v>
       </c>
@@ -10571,31 +9872,27 @@
       <c r="AA113" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA17">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:AA17"/>
   <sortState ref="A2:AA21">
     <sortCondition ref="A2:A21"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C8"/>
+      <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="13.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="47.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10609,7 +9906,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="2" ht="52.8" spans="1:3">
+    <row r="2" spans="1:3" ht="51">
       <c r="A2" s="1" t="s">
         <v>382</v>
       </c>
@@ -10642,7 +9939,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="5" ht="79.2" spans="1:3">
+    <row r="5" spans="1:3" ht="76.5">
       <c r="A5" s="1" t="s">
         <v>271</v>
       </c>
@@ -10653,7 +9950,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" ht="39.6" spans="1:3">
+    <row r="6" spans="1:3" ht="38.25">
       <c r="A6" s="1" t="s">
         <v>248</v>
       </c>
@@ -10675,7 +9972,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="8" ht="52.8" spans="1:3">
+    <row r="8" spans="1:3" ht="51">
       <c r="A8" s="1" t="s">
         <v>191</v>
       </c>
@@ -10688,6 +9985,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Exp2021/Exp 2021.xlsx
+++ b/Exp2021/Exp 2021.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="401">
   <si>
     <t>ОБОРУДОВАНИЕ</t>
   </si>
@@ -1077,6 +1077,9 @@
     <t>Ограничений нет</t>
   </si>
   <si>
+    <t>olgapasko1974@yandex.ru</t>
+  </si>
+  <si>
     <t>alenaevdok2004@gmail.com</t>
   </si>
   <si>
@@ -1144,6 +1147,9 @@
   </si>
   <si>
     <t>nemana1@gmail.com</t>
+  </si>
+  <si>
+    <t>babukaka04@gmail.com</t>
   </si>
   <si>
     <t>ГУ МВД РОССИИ по Санкт-Петербургу и Ленинградской обл.</t>
@@ -1304,15 +1310,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="176" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
-    <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="179" formatCode="d/m/yy;@"/>
     <numFmt numFmtId="180" formatCode="dd\.mmm"/>
     <numFmt numFmtId="181" formatCode="[$-419]d\ mm\ yyyy;@"/>
-    <numFmt numFmtId="182" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="182" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -1327,6 +1333,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1476,21 +1490,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1505,7 +1514,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1519,26 +1528,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1567,10 +1560,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1581,8 +1581,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1596,11 +1604,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
     </font>
     <font>
       <i/>
@@ -1630,7 +1636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1642,7 +1648,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,7 +1660,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,19 +1732,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,13 +1780,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1720,78 +1810,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1799,18 +1817,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1990,21 +1996,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2064,6 +2055,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2079,11 +2079,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2092,159 +2098,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2268,280 +2274,286 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="15" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="12" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="36" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="36" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2941,601 +2953,601 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85185185185185" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.13888888888889" style="117" customWidth="1"/>
-    <col min="2" max="2" width="29" style="117" customWidth="1"/>
-    <col min="3" max="3" width="14.712962962963" style="117" customWidth="1"/>
-    <col min="4" max="4" width="10.4259259259259" style="117" customWidth="1"/>
-    <col min="5" max="5" width="17.8518518518519" style="117" customWidth="1"/>
-    <col min="6" max="6" width="7.85185185185185" style="117" customWidth="1"/>
-    <col min="7" max="16384" width="7.85185185185185" style="117"/>
+    <col min="1" max="1" width="4.13888888888889" style="119" customWidth="1"/>
+    <col min="2" max="2" width="29" style="119" customWidth="1"/>
+    <col min="3" max="3" width="14.712962962963" style="119" customWidth="1"/>
+    <col min="4" max="4" width="10.4259259259259" style="119" customWidth="1"/>
+    <col min="5" max="5" width="17.8518518518519" style="119" customWidth="1"/>
+    <col min="6" max="6" width="7.85185185185185" style="119" customWidth="1"/>
+    <col min="7" max="16384" width="7.85185185185185" style="119"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="118"/>
-      <c r="B1" s="119" t="s">
+      <c r="A1" s="120"/>
+      <c r="B1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="121" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="118"/>
-      <c r="B2" s="120" t="s">
+      <c r="A2" s="120"/>
+      <c r="B2" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="122" t="s">
+      <c r="C2" s="123"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="124" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119" t="s">
+      <c r="C3" s="123"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="117">
+      <c r="F3" s="119">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="121"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119" t="s">
+      <c r="C4" s="123"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="117">
+      <c r="F4" s="119">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119" t="s">
+      <c r="C5" s="123"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="117">
+      <c r="F5" s="119">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="E6" s="119" t="s">
+      <c r="C6" s="123"/>
+      <c r="E6" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="117">
+      <c r="F6" s="119">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119" t="s">
+      <c r="C7" s="123"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="117">
+      <c r="F7" s="119">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="117" t="s">
+      <c r="C8" s="123"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="117">
+      <c r="F8" s="119">
         <v>3</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" spans="2:6">
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="117" t="s">
+      <c r="C9" s="123"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="117">
+      <c r="F9" s="119">
         <v>4</v>
       </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" spans="2:6">
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="121"/>
-      <c r="E10" s="117" t="s">
+      <c r="C10" s="123"/>
+      <c r="E10" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="117">
+      <c r="F10" s="119">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="119"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="121"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="121"/>
-      <c r="E12" s="124" t="s">
+      <c r="C12" s="123"/>
+      <c r="E12" s="126" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="E13" s="117" t="s">
+      <c r="C13" s="123"/>
+      <c r="E13" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="117">
+      <c r="F13" s="119">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="120" t="s">
+      <c r="B14" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="121"/>
+      <c r="C14" s="123"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="120" t="s">
+      <c r="B15" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="121"/>
-      <c r="E15" s="119" t="s">
+      <c r="C15" s="123"/>
+      <c r="E15" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="117" t="s">
+      <c r="F15" s="119" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="120" t="s">
+      <c r="B16" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="121"/>
+      <c r="C16" s="123"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="121"/>
+      <c r="C17" s="123"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="120" t="s">
+      <c r="B18" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="121"/>
+      <c r="C18" s="123"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="120" t="s">
+      <c r="B19" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="121"/>
+      <c r="C19" s="123"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="125"/>
-      <c r="B20" s="120" t="s">
+      <c r="A20" s="127"/>
+      <c r="B20" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="121"/>
+      <c r="C20" s="123"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="125"/>
-      <c r="B21" s="120" t="s">
+      <c r="A21" s="127"/>
+      <c r="B21" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="121"/>
+      <c r="C21" s="123"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="125"/>
-      <c r="B22" s="120" t="s">
+      <c r="A22" s="127"/>
+      <c r="B22" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="121"/>
+      <c r="C22" s="123"/>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="120" t="s">
+      <c r="B23" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="121"/>
+      <c r="C23" s="123"/>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="120" t="s">
+      <c r="B24" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="121"/>
+      <c r="C24" s="123"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="121"/>
+      <c r="C25" s="123"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="120" t="s">
+      <c r="B26" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="121"/>
+      <c r="C26" s="123"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="120" t="s">
+      <c r="B27" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="121"/>
+      <c r="C27" s="123"/>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="120" t="s">
+      <c r="B28" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="121"/>
+      <c r="C28" s="123"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="120" t="s">
+      <c r="B29" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="121"/>
+      <c r="C29" s="123"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="121" t="s">
+      <c r="B30" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="121"/>
+      <c r="C30" s="123"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="120" t="s">
+      <c r="B31" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="121"/>
+      <c r="C31" s="123"/>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="120" t="s">
+      <c r="B32" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="121"/>
+      <c r="C32" s="123"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="120" t="s">
+      <c r="B33" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="121"/>
+      <c r="C33" s="123"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="120" t="s">
+      <c r="B34" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="121"/>
+      <c r="C34" s="123"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="120" t="s">
+      <c r="B35" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="121"/>
+      <c r="C35" s="123"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="123" t="s">
+      <c r="B36" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="121"/>
+      <c r="C36" s="123"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="120" t="s">
+      <c r="B37" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="121"/>
+      <c r="C37" s="123"/>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="120" t="s">
+      <c r="B38" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="121"/>
+      <c r="C38" s="123"/>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="120" t="s">
+      <c r="B39" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="121"/>
+      <c r="C39" s="123"/>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="120" t="s">
+      <c r="B40" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="121"/>
+      <c r="C40" s="123"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="120" t="s">
+      <c r="B41" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="121"/>
+      <c r="C41" s="123"/>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="120" t="s">
+      <c r="B42" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="121"/>
+      <c r="C42" s="123"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="120" t="s">
+      <c r="B43" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="121"/>
+      <c r="C43" s="123"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="120" t="s">
+      <c r="B44" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="121"/>
+      <c r="C44" s="123"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="120" t="s">
+      <c r="B45" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="121"/>
+      <c r="C45" s="123"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="120" t="s">
+      <c r="B46" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="121"/>
+      <c r="C46" s="123"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="120" t="s">
+      <c r="B47" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="121"/>
+      <c r="C47" s="123"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="120" t="s">
+      <c r="B48" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="121"/>
+      <c r="C48" s="123"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="123" t="s">
+      <c r="B49" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="121"/>
+      <c r="C49" s="123"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="120" t="s">
+      <c r="B50" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="121"/>
+      <c r="C50" s="123"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="120" t="s">
+      <c r="B51" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="121"/>
+      <c r="C51" s="123"/>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="120" t="s">
+      <c r="B52" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="121"/>
+      <c r="C52" s="123"/>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="126" t="s">
+      <c r="B53" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="121"/>
+      <c r="C53" s="123"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="120" t="s">
+      <c r="B54" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="121"/>
+      <c r="C54" s="123"/>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="120" t="s">
+      <c r="B55" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="121"/>
+      <c r="C55" s="123"/>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="120" t="s">
+      <c r="B56" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="121"/>
+      <c r="C56" s="123"/>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="120" t="s">
+      <c r="B57" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="121"/>
+      <c r="C57" s="123"/>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="120" t="s">
+      <c r="B58" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="121"/>
+      <c r="C58" s="123"/>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="121" t="s">
+      <c r="B59" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="121"/>
+      <c r="C59" s="123"/>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="120" t="s">
+      <c r="B60" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="121"/>
+      <c r="C60" s="123"/>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="120" t="s">
+      <c r="B61" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="121"/>
+      <c r="C61" s="123"/>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="120" t="s">
+      <c r="B62" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="121"/>
+      <c r="C62" s="123"/>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="120" t="s">
+      <c r="B63" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="C63" s="121"/>
+      <c r="C63" s="123"/>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="120" t="s">
+      <c r="B64" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="121"/>
+      <c r="C64" s="123"/>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="120" t="s">
+      <c r="B65" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="121"/>
+      <c r="C65" s="123"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="120" t="s">
+      <c r="B66" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="121"/>
+      <c r="C66" s="123"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="121" t="s">
+      <c r="B67" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="121"/>
+      <c r="C67" s="123"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="120" t="s">
+      <c r="B68" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="121"/>
+      <c r="C68" s="123"/>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="120" t="s">
+      <c r="B69" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="121"/>
+      <c r="C69" s="123"/>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="120" t="s">
+      <c r="B70" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="121"/>
+      <c r="C70" s="123"/>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="120" t="s">
+      <c r="B71" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="121"/>
+      <c r="C71" s="123"/>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="120" t="s">
+      <c r="B72" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="121"/>
+      <c r="C72" s="123"/>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="120" t="s">
+      <c r="B73" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="121"/>
+      <c r="C73" s="123"/>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="120" t="s">
+      <c r="B74" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="121"/>
+      <c r="C74" s="123"/>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="120" t="s">
+      <c r="B75" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="C75" s="121"/>
+      <c r="C75" s="123"/>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="120" t="s">
+      <c r="B76" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="C76" s="121"/>
+      <c r="C76" s="123"/>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="123" t="s">
+      <c r="B77" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="121"/>
+      <c r="C77" s="123"/>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="121" t="s">
+      <c r="B78" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="121"/>
+      <c r="C78" s="123"/>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="122" t="s">
+      <c r="B80" s="124" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="117" t="s">
+      <c r="B81" s="119" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="117" t="s">
+      <c r="B82" s="119" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="117" t="s">
+      <c r="B83" s="119" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="117" t="s">
+      <c r="B84" s="119" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="117" t="s">
+      <c r="B85" s="119" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="117" t="s">
+      <c r="B86" s="119" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="117" t="s">
+      <c r="B87" s="119" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3559,767 +3571,767 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.42592592592593" style="30" customWidth="1"/>
-    <col min="2" max="2" width="18" style="30" customWidth="1"/>
-    <col min="3" max="3" width="10.8518518518519" style="30"/>
-    <col min="4" max="4" width="11.1388888888889" style="30" customWidth="1"/>
-    <col min="5" max="5" width="8.57407407407407" style="30" customWidth="1"/>
-    <col min="6" max="6" width="32" style="30" customWidth="1"/>
-    <col min="7" max="7" width="8.42592592592593" style="30" customWidth="1"/>
-    <col min="8" max="8" width="11" style="30" customWidth="1"/>
-    <col min="9" max="9" width="3.71296296296296" style="30" customWidth="1"/>
-    <col min="10" max="10" width="7.85185185185185" style="30"/>
-    <col min="11" max="11" width="17.8518518518519" style="30" customWidth="1"/>
-    <col min="12" max="12" width="6.13888888888889" style="30" customWidth="1"/>
-    <col min="13" max="13" width="12.5740740740741" style="30" customWidth="1"/>
-    <col min="14" max="256" width="8.28703703703704" style="30"/>
-    <col min="257" max="16384" width="8" style="30"/>
+    <col min="1" max="1" width="3.42592592592593" style="32" customWidth="1"/>
+    <col min="2" max="2" width="18" style="32" customWidth="1"/>
+    <col min="3" max="3" width="10.8518518518519" style="32"/>
+    <col min="4" max="4" width="11.1388888888889" style="32" customWidth="1"/>
+    <col min="5" max="5" width="8.57407407407407" style="32" customWidth="1"/>
+    <col min="6" max="6" width="32" style="32" customWidth="1"/>
+    <col min="7" max="7" width="8.42592592592593" style="32" customWidth="1"/>
+    <col min="8" max="8" width="11" style="32" customWidth="1"/>
+    <col min="9" max="9" width="3.71296296296296" style="32" customWidth="1"/>
+    <col min="10" max="10" width="7.85185185185185" style="32"/>
+    <col min="11" max="11" width="17.8518518518519" style="32" customWidth="1"/>
+    <col min="12" max="12" width="6.13888888888889" style="32" customWidth="1"/>
+    <col min="13" max="13" width="12.5740740740741" style="32" customWidth="1"/>
+    <col min="14" max="256" width="8.28703703703704" style="32"/>
+    <col min="257" max="16384" width="8" style="32"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:13">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
     </row>
     <row r="2" ht="42.95" customHeight="1" spans="1:13">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="H2" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="104" t="s">
+      <c r="K2" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="105" t="s">
+      <c r="M2" s="107" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" s="69" customFormat="1" ht="27.95" customHeight="1" spans="1:14">
-      <c r="A3" s="83">
+    <row r="3" s="71" customFormat="1" ht="27.95" customHeight="1" spans="1:14">
+      <c r="A3" s="85">
         <v>1</v>
       </c>
-      <c r="B3" s="84" t="str">
+      <c r="B3" s="86" t="str">
         <f>CONCATENATE('Информация для бумаг'!B5," ",'Информация для бумаг'!C5)</f>
         <v>Атаманов Андрей</v>
       </c>
-      <c r="C3" s="85" t="str">
+      <c r="C3" s="87" t="str">
         <f>'Информация для бумаг'!N5</f>
         <v>02.03.0005</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="45">
         <f>'Информация для бумаг'!H5</f>
         <v>630</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="34">
         <f>'Информация для бумаг'!I5</f>
         <v>10</v>
       </c>
-      <c r="F3" s="67" t="str">
+      <c r="F3" s="69" t="str">
         <f>'Информация для бумаг'!K5</f>
         <v>Шуваловский пр. д. 90 к. кв.180</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="87" t="s">
+      <c r="H3" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="88">
+      <c r="I3" s="90">
         <v>1</v>
       </c>
-      <c r="J3" s="106" t="s">
+      <c r="J3" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="107" t="s">
+      <c r="K3" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="L3" s="108">
+      <c r="L3" s="110">
         <v>1400</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="N3" s="109"/>
-    </row>
-    <row r="4" s="69" customFormat="1" ht="24" spans="1:14">
-      <c r="A4" s="88">
+      <c r="N3" s="111"/>
+    </row>
+    <row r="4" s="71" customFormat="1" ht="24" spans="1:14">
+      <c r="A4" s="90">
         <v>2</v>
       </c>
-      <c r="B4" s="84" t="str">
+      <c r="B4" s="86" t="str">
         <f>CONCATENATE('Информация для бумаг'!B6," ",'Информация для бумаг'!C6)</f>
         <v>Башилов Константин</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="87">
         <f>'Информация для бумаг'!N6</f>
         <v>39367</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="45">
         <f>'Информация для бумаг'!H6</f>
         <v>197</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="34">
         <f>'Информация для бумаг'!I6</f>
         <v>7</v>
       </c>
-      <c r="F4" s="67" t="str">
+      <c r="F4" s="69" t="str">
         <f>'Информация для бумаг'!K6</f>
         <v>СПб, Пестеля д. 13-15 кв. 108</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="89"/>
-      <c r="I4" s="83">
+      <c r="H4" s="91"/>
+      <c r="I4" s="85">
         <v>2</v>
       </c>
-      <c r="J4" s="106" t="s">
+      <c r="J4" s="108" t="s">
         <v>117</v>
       </c>
-      <c r="K4" s="107" t="s">
+      <c r="K4" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108" t="s">
+      <c r="L4" s="110"/>
+      <c r="M4" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="N4" s="109"/>
-    </row>
-    <row r="5" s="69" customFormat="1" ht="23.1" customHeight="1" spans="1:14">
-      <c r="A5" s="83">
+      <c r="N4" s="111"/>
+    </row>
+    <row r="5" s="71" customFormat="1" ht="23.1" customHeight="1" spans="1:14">
+      <c r="A5" s="85">
         <v>3</v>
       </c>
-      <c r="B5" s="84" t="str">
+      <c r="B5" s="86" t="str">
         <f>CONCATENATE('Информация для бумаг'!B7," ",'Информация для бумаг'!C7)</f>
         <v>Белокуров Михаил</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="87">
         <f>'Информация для бумаг'!N7</f>
         <v>38553</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="45">
         <f>'Информация для бумаг'!H7</f>
         <v>225</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="34">
         <f>'Информация для бумаг'!I7</f>
         <v>10</v>
       </c>
-      <c r="F5" s="67" t="str">
+      <c r="F5" s="69" t="str">
         <f>'Информация для бумаг'!K7</f>
         <v>ул. Ставропольская д. 12/15 кв. 46</v>
       </c>
-      <c r="G5" s="86" t="s">
+      <c r="G5" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="89"/>
-      <c r="I5" s="88">
+      <c r="H5" s="91"/>
+      <c r="I5" s="90">
         <v>3</v>
       </c>
-      <c r="J5" s="110" t="s">
+      <c r="J5" s="112" t="s">
         <v>120</v>
       </c>
-      <c r="K5" s="107" t="s">
+      <c r="K5" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="L5" s="108">
+      <c r="L5" s="110">
         <v>1400</v>
       </c>
-      <c r="M5" s="108" t="s">
+      <c r="M5" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="N5" s="109"/>
-    </row>
-    <row r="6" s="69" customFormat="1" ht="15.6" spans="1:14">
-      <c r="A6" s="88">
+      <c r="N5" s="111"/>
+    </row>
+    <row r="6" s="71" customFormat="1" ht="15.6" spans="1:14">
+      <c r="A6" s="90">
         <v>4</v>
       </c>
-      <c r="B6" s="84" t="str">
+      <c r="B6" s="86" t="str">
         <f>CONCATENATE('Информация для бумаг'!B8," ",'Информация для бумаг'!C8)</f>
         <v>Демидова Алина</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="87">
         <f>'Информация для бумаг'!N8</f>
         <v>39554</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="45">
         <f>'Информация для бумаг'!H8</f>
         <v>320</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="34">
         <f>'Информация для бумаг'!I8</f>
         <v>7</v>
       </c>
-      <c r="F6" s="67" t="str">
+      <c r="F6" s="69" t="str">
         <f>'Информация для бумаг'!K8</f>
         <v>Туристская ул. дом 28 корп.3 кв.203</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="89"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="109"/>
-    </row>
-    <row r="7" s="69" customFormat="1" ht="15.6" spans="1:14">
-      <c r="A7" s="83">
+      <c r="H6" s="91"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="111"/>
+    </row>
+    <row r="7" s="71" customFormat="1" ht="15.6" spans="1:14">
+      <c r="A7" s="85">
         <v>5</v>
       </c>
-      <c r="B7" s="84" t="str">
+      <c r="B7" s="86" t="str">
         <f>CONCATENATE('Информация для бумаг'!B9," ",'Информация для бумаг'!C9)</f>
         <v>Евдокимова Алёна</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="87">
         <f>'Информация для бумаг'!N9</f>
         <v>38137</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="45">
         <f>'Информация для бумаг'!H9</f>
         <v>225</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="34">
         <f>'Информация для бумаг'!I9</f>
         <v>11</v>
       </c>
-      <c r="F7" s="67" t="str">
+      <c r="F7" s="69" t="str">
         <f>'Информация для бумаг'!K9</f>
         <v>ул. Витебская, д.10, кв.14</v>
       </c>
-      <c r="G7" s="86" t="s">
+      <c r="G7" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="89"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="109"/>
-    </row>
-    <row r="8" s="69" customFormat="1" spans="1:14">
-      <c r="A8" s="88">
+      <c r="H7" s="91"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="111"/>
+    </row>
+    <row r="8" s="71" customFormat="1" spans="1:14">
+      <c r="A8" s="90">
         <v>6</v>
       </c>
-      <c r="B8" s="84" t="str">
+      <c r="B8" s="86" t="str">
         <f>CONCATENATE('Информация для бумаг'!B10," ",'Информация для бумаг'!C10)</f>
         <v>Ершова Татьяна</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="87">
         <f>'Информация для бумаг'!N10</f>
         <v>39166</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="45">
         <f>'Информация для бумаг'!H10</f>
         <v>441</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="34">
         <f>'Информация для бумаг'!I10</f>
         <v>8</v>
       </c>
-      <c r="F8" s="67" t="str">
+      <c r="F8" s="69" t="str">
         <f>'Информация для бумаг'!K10</f>
         <v>ул. Малая Карпатская д.17 кв 275</v>
       </c>
-      <c r="G8" s="86" t="s">
+      <c r="G8" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="89"/>
-      <c r="N8" s="112"/>
-    </row>
-    <row r="9" s="69" customFormat="1" ht="24" spans="1:13">
-      <c r="A9" s="83">
+      <c r="H8" s="91"/>
+      <c r="N8" s="114"/>
+    </row>
+    <row r="9" s="71" customFormat="1" ht="24" spans="1:13">
+      <c r="A9" s="85">
         <v>7</v>
       </c>
-      <c r="B9" s="84" t="str">
+      <c r="B9" s="86" t="str">
         <f>CONCATENATE('Информация для бумаг'!B11," ",'Информация для бумаг'!C11)</f>
         <v>Зиглина Софья</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="87">
         <f>'Информация для бумаг'!N11</f>
         <v>38518</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="45">
         <f>'Информация для бумаг'!H11</f>
         <v>628</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="34">
         <f>'Информация для бумаг'!I11</f>
         <v>10</v>
       </c>
-      <c r="F9" s="67" t="str">
+      <c r="F9" s="69" t="str">
         <f>'Информация для бумаг'!K11</f>
         <v>Санкт-Петербург, Красногвардейский район, улица Коммуны, дом 42, к.1, КВ.33</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="H9" s="89"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-    </row>
-    <row r="10" s="69" customFormat="1" spans="1:13">
-      <c r="A10" s="88">
+      <c r="H9" s="91"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+    </row>
+    <row r="10" s="71" customFormat="1" spans="1:13">
+      <c r="A10" s="90">
         <v>8</v>
       </c>
-      <c r="B10" s="84" t="str">
+      <c r="B10" s="86" t="str">
         <f>CONCATENATE('Информация для бумаг'!B12," ",'Информация для бумаг'!C12)</f>
         <v>Каретная Вероника</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="87">
         <f>'Информация для бумаг'!N12</f>
         <v>39485</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="45">
         <f>'Информация для бумаг'!H12</f>
         <v>12</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="34">
         <f>'Информация для бумаг'!I12</f>
         <v>7</v>
       </c>
-      <c r="F10" s="67" t="str">
+      <c r="F10" s="69" t="str">
         <f>'Информация для бумаг'!K12</f>
         <v>С-Пб., ул. Кораблестроителей д.19/1, кв. 168</v>
       </c>
-      <c r="G10" s="86" t="s">
+      <c r="G10" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="H10" s="89"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-    </row>
-    <row r="11" s="69" customFormat="1" ht="24" spans="1:13">
-      <c r="A11" s="83">
+      <c r="H10" s="91"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+    </row>
+    <row r="11" s="71" customFormat="1" ht="24" spans="1:13">
+      <c r="A11" s="85">
         <v>9</v>
       </c>
-      <c r="B11" s="84" t="str">
+      <c r="B11" s="86" t="str">
         <f>CONCATENATE('Информация для бумаг'!B13," ",'Информация для бумаг'!C13)</f>
         <v>Кудряшов Тимофей</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="87">
         <f>'Информация для бумаг'!N13</f>
         <v>38434</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="45">
         <f>'Информация для бумаг'!H13</f>
         <v>504</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="34">
         <f>'Информация для бумаг'!I13</f>
         <v>11</v>
       </c>
-      <c r="F11" s="67" t="str">
+      <c r="F11" s="69" t="str">
         <f>'Информация для бумаг'!K13</f>
         <v>Санкт-Петербург, пр. Маршала Жукова, д.45, кв 222</v>
       </c>
-      <c r="G11" s="86" t="s">
+      <c r="G11" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="89"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-    </row>
-    <row r="12" s="69" customFormat="1" spans="1:13">
-      <c r="A12" s="88">
+      <c r="H11" s="91"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+    </row>
+    <row r="12" s="71" customFormat="1" spans="1:13">
+      <c r="A12" s="90">
         <v>10</v>
       </c>
-      <c r="B12" s="84" t="str">
+      <c r="B12" s="86" t="str">
         <f>CONCATENATE('Информация для бумаг'!B14," ",'Информация для бумаг'!C14)</f>
         <v>Нематова Рената</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="87">
         <f>'Информация для бумаг'!N14</f>
         <v>38051</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="45">
         <f>'Информация для бумаг'!H14</f>
         <v>225</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="34">
         <f>'Информация для бумаг'!I14</f>
         <v>11</v>
       </c>
-      <c r="F12" s="67" t="str">
+      <c r="F12" s="69" t="str">
         <f>'Информация для бумаг'!K14</f>
         <v>СПб,пос.Александровская,4 линия, д. 43А</v>
       </c>
-      <c r="G12" s="86" t="s">
+      <c r="G12" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="89"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-    </row>
-    <row r="13" s="69" customFormat="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A13" s="83">
+      <c r="H12" s="91"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+    </row>
+    <row r="13" s="71" customFormat="1" ht="24" customHeight="1" spans="1:13">
+      <c r="A13" s="85">
         <v>11</v>
       </c>
-      <c r="B13" s="84" t="str">
+      <c r="B13" s="86" t="str">
         <f>CONCATENATE('Информация для бумаг'!B15," ",'Информация для бумаг'!C15)</f>
         <v>Попов Василий</v>
       </c>
-      <c r="C13" s="85">
+      <c r="C13" s="87">
         <f>'Информация для бумаг'!N15</f>
         <v>39331</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="45">
         <f>'Информация для бумаг'!H15</f>
         <v>183</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="34">
         <f>'Информация для бумаг'!I15</f>
         <v>8</v>
       </c>
-      <c r="F13" s="67" t="str">
+      <c r="F13" s="69" t="str">
         <f>'Информация для бумаг'!K15</f>
         <v>Ул.Бутлерова, 11 к.4 , кв 385</v>
       </c>
-      <c r="G13" s="86" t="s">
+      <c r="G13" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="89"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-    </row>
-    <row r="14" s="69" customFormat="1" ht="17.1" customHeight="1" spans="1:13">
-      <c r="A14" s="88">
+      <c r="H13" s="91"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+    </row>
+    <row r="14" s="71" customFormat="1" ht="17.1" customHeight="1" spans="1:13">
+      <c r="A14" s="90">
         <v>12</v>
       </c>
-      <c r="B14" s="84" t="str">
+      <c r="B14" s="86" t="str">
         <f>CONCATENATE('Информация для бумаг'!B16," ",'Информация для бумаг'!C16)</f>
         <v>Сайчик Мария</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="87">
         <f>'Информация для бумаг'!N16</f>
         <v>38982</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="45">
         <f>'Информация для бумаг'!H16</f>
         <v>586</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="34">
         <f>'Информация для бумаг'!I16</f>
         <v>9</v>
       </c>
-      <c r="F14" s="67" t="str">
+      <c r="F14" s="69" t="str">
         <f>'Информация для бумаг'!K16</f>
         <v>Кораблестроителей, 39-831</v>
       </c>
-      <c r="G14" s="86" t="s">
+      <c r="G14" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="89"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-    </row>
-    <row r="15" s="69" customFormat="1" spans="1:13">
-      <c r="A15" s="83">
+      <c r="H14" s="91"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+    </row>
+    <row r="15" s="71" customFormat="1" spans="1:13">
+      <c r="A15" s="85">
         <v>13</v>
       </c>
-      <c r="B15" s="84" t="str">
+      <c r="B15" s="86" t="str">
         <f>CONCATENATE('Информация для бумаг'!B17," ",'Информация для бумаг'!C17)</f>
         <v>Семенова Елизавета</v>
       </c>
-      <c r="C15" s="85">
+      <c r="C15" s="87">
         <f>'Информация для бумаг'!N17</f>
         <v>39875</v>
       </c>
-      <c r="D15" s="43" t="str">
+      <c r="D15" s="45" t="str">
         <f>'Информация для бумаг'!H17</f>
         <v>Гимн 2</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="34">
         <f>'Информация для бумаг'!I17</f>
         <v>7</v>
       </c>
-      <c r="F15" s="67" t="str">
+      <c r="F15" s="69" t="str">
         <f>'Информация для бумаг'!K17</f>
         <v>Лабутина 20-22 кв. 40</v>
       </c>
-      <c r="G15" s="86" t="s">
+      <c r="G15" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="89"/>
-      <c r="I15" s="113" t="s">
+      <c r="H15" s="91"/>
+      <c r="I15" s="115" t="s">
         <v>122</v>
       </c>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="115"/>
-    </row>
-    <row r="16" s="69" customFormat="1" ht="23.1" customHeight="1" spans="1:13">
-      <c r="A16" s="88">
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="117"/>
+    </row>
+    <row r="16" s="71" customFormat="1" ht="23.1" customHeight="1" spans="1:13">
+      <c r="A16" s="90">
         <v>14</v>
       </c>
-      <c r="B16" s="84" t="str">
+      <c r="B16" s="86" t="str">
         <f>CONCATENATE('Информация для бумаг'!B18," ",'Информация для бумаг'!C18)</f>
         <v>Шилонцев Андрей</v>
       </c>
-      <c r="C16" s="85">
+      <c r="C16" s="87">
         <f>'Информация для бумаг'!N18</f>
         <v>38989</v>
       </c>
-      <c r="D16" s="43" t="str">
+      <c r="D16" s="45" t="str">
         <f>'Информация для бумаг'!H18</f>
         <v>Лицей № 387</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="34">
         <f>'Информация для бумаг'!I18</f>
         <v>9</v>
       </c>
-      <c r="F16" s="67" t="str">
+      <c r="F16" s="69" t="str">
         <f>'Информация для бумаг'!K18</f>
         <v>Санкт-Петербург, Ленинский проспект, дом 117, корпус 1, квартира 603</v>
       </c>
-      <c r="G16" s="86" t="s">
+      <c r="G16" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="H16" s="89"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-    </row>
-    <row r="17" s="69" customFormat="1" ht="24" spans="1:13">
-      <c r="A17" s="83">
+      <c r="H16" s="91"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+    </row>
+    <row r="17" s="71" customFormat="1" ht="24" spans="1:13">
+      <c r="A17" s="85">
         <v>15</v>
       </c>
-      <c r="B17" s="84" t="str">
+      <c r="B17" s="86" t="str">
         <f>CONCATENATE('Информация для бумаг'!B19," ",'Информация для бумаг'!C19)</f>
         <v>Шишкина Алина</v>
       </c>
-      <c r="C17" s="85">
+      <c r="C17" s="87">
         <f>'Информация для бумаг'!N19</f>
         <v>38070</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="45">
         <f>'Информация для бумаг'!H19</f>
         <v>246</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="34">
         <f>'Информация для бумаг'!I19</f>
         <v>11</v>
       </c>
-      <c r="F17" s="67" t="str">
+      <c r="F17" s="69" t="str">
         <f>'Информация для бумаг'!K19</f>
         <v>Проспект Авиаконструкторов, дом 47, квартира 4</v>
       </c>
-      <c r="G17" s="86" t="s">
+      <c r="G17" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="H17" s="89"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-    </row>
-    <row r="18" s="69" customFormat="1" spans="1:13">
-      <c r="A18" s="88">
+      <c r="H17" s="91"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+    </row>
+    <row r="18" s="71" customFormat="1" spans="1:13">
+      <c r="A18" s="90">
         <v>16</v>
       </c>
-      <c r="B18" s="84" t="str">
+      <c r="B18" s="86" t="str">
         <f>CONCATENATE('Информация для бумаг'!B20," ",'Информация для бумаг'!C20)</f>
         <v>Нужин Илья</v>
       </c>
-      <c r="C18" s="85">
+      <c r="C18" s="87">
         <f>'Информация для бумаг'!N20</f>
         <v>38933</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="45">
         <f>'Информация для бумаг'!H20</f>
         <v>30</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="34">
         <f>'Информация для бумаг'!I20</f>
         <v>9</v>
       </c>
-      <c r="F18" s="67" t="str">
+      <c r="F18" s="69" t="str">
         <f>'Информация для бумаг'!K20</f>
         <v>Наличная 37-1-4</v>
       </c>
-      <c r="G18" s="86" t="s">
+      <c r="G18" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="89"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-    </row>
-    <row r="19" s="69" customFormat="1" spans="1:13">
-      <c r="A19" s="83"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-    </row>
-    <row r="20" s="69" customFormat="1" spans="1:13">
-      <c r="A20" s="83"/>
-      <c r="B20" s="90" t="str">
+      <c r="H18" s="91"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+    </row>
+    <row r="19" s="71" customFormat="1" spans="1:13">
+      <c r="A19" s="85"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+    </row>
+    <row r="20" s="71" customFormat="1" spans="1:13">
+      <c r="A20" s="85"/>
+      <c r="B20" s="92" t="str">
         <f>'Информация для бумаг'!C23</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="91" t="s">
+      <c r="C20" s="87"/>
+      <c r="D20" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="E20" s="92"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="88"/>
-      <c r="B21" s="32" t="str">
+      <c r="A21" s="90"/>
+      <c r="B21" s="34" t="str">
         <f>'Информация для бумаг'!C24</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="94" t="s">
+      <c r="C21" s="87"/>
+      <c r="D21" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="95"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
     </row>
     <row r="22" ht="15.6" spans="1:13">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="100"/>
-      <c r="C23" s="30" t="str">
+      <c r="B23" s="102"/>
+      <c r="C23" s="32" t="str">
         <f>'Информация для бумаг'!C28</f>
         <v>SYS1945298572,  001-059-070384/21</v>
       </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="H24" s="103" t="s">
+      <c r="H24" s="105" t="s">
         <v>128</v>
       </c>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="8:8">
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="32" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4359,381 +4371,381 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="30" customWidth="1"/>
-    <col min="2" max="6" width="8" style="30"/>
-    <col min="7" max="7" width="23.5740740740741" style="30" customWidth="1"/>
-    <col min="8" max="8" width="10.712962962963" style="30" customWidth="1"/>
-    <col min="9" max="9" width="3.85185185185185" style="30" customWidth="1"/>
-    <col min="10" max="10" width="9.42592592592593" style="30" customWidth="1"/>
-    <col min="11" max="11" width="8" style="30"/>
-    <col min="12" max="12" width="13.1388888888889" style="30"/>
-    <col min="13" max="13" width="9.85185185185185" style="30"/>
-    <col min="14" max="14" width="8" style="30"/>
-    <col min="15" max="15" width="1.57407407407407" style="30" customWidth="1"/>
-    <col min="16" max="16384" width="8" style="30"/>
+    <col min="1" max="1" width="10" style="32" customWidth="1"/>
+    <col min="2" max="6" width="8" style="32"/>
+    <col min="7" max="7" width="23.5740740740741" style="32" customWidth="1"/>
+    <col min="8" max="8" width="10.712962962963" style="32" customWidth="1"/>
+    <col min="9" max="9" width="3.85185185185185" style="32" customWidth="1"/>
+    <col min="10" max="10" width="9.42592592592593" style="32" customWidth="1"/>
+    <col min="11" max="11" width="8" style="32"/>
+    <col min="12" max="12" width="13.1388888888889" style="32"/>
+    <col min="13" max="13" width="9.85185185185185" style="32"/>
+    <col min="14" max="14" width="8" style="32"/>
+    <col min="15" max="15" width="1.57407407407407" style="32" customWidth="1"/>
+    <col min="16" max="16384" width="8" style="32"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" spans="1:14">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="48" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
     </row>
     <row r="3" ht="12.75" customHeight="1" spans="1:7">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" ht="12.75" customHeight="1" spans="1:14">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
     </row>
     <row r="6" ht="23.1" customHeight="1" spans="1:14">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="H6" s="48" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="H6" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="53"/>
-      <c r="I7" s="71" t="s">
+      <c r="B7" s="55"/>
+      <c r="I7" s="73" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:8">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-      <c r="H8" s="58" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="59"/>
+      <c r="H8" s="60" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" ht="15.6" spans="1:10">
-      <c r="A9" s="54"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
-      <c r="H9" s="48" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="63"/>
+      <c r="H9" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="32">
         <f>COUNT('Cписок для приказа'!D5:D20)</f>
         <v>16</v>
       </c>
-      <c r="J9" s="68" t="s">
+      <c r="J9" s="70" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="10" ht="45" customHeight="1" spans="1:14">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="H10" s="51" t="s">
+      <c r="A10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="H10" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="J10" s="72" t="str">
+      <c r="J10" s="74" t="str">
         <f>'Информация для бумаг'!C3</f>
         <v>Санкт-Петербург - Кандалакшский заповедник (о.Ряжков) - Санкт-Петербург</v>
       </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="H11" s="41" t="s">
+      <c r="A11" s="64"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="H11" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="I11" s="74">
+      <c r="I11" s="76">
         <f>DAYS360('Информация для бумаг'!C2,'Информация для бумаг'!D2)-1</f>
         <v>22</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="32" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="1:12">
-      <c r="A12" s="64"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="H12" s="66" t="s">
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="H12" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="I12" s="66"/>
-      <c r="J12" s="75">
+      <c r="I12" s="68"/>
+      <c r="J12" s="77">
         <f>'Информация для бумаг'!C2</f>
         <v>44409</v>
       </c>
-      <c r="K12" s="76" t="s">
+      <c r="K12" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="L12" s="77">
+      <c r="L12" s="79">
         <f>'Информация для бумаг'!D2</f>
         <v>44432</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1" spans="1:6">
-      <c r="A13" s="62"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
     </row>
     <row r="14" ht="15.6" spans="1:14">
-      <c r="A14" s="62"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="H14" s="68" t="s">
+      <c r="A14" s="64"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="H14" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="K14" s="76" t="str">
+      <c r="K14" s="78" t="str">
         <f>'Информация для бумаг'!C23</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="62"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="K15" s="41" t="s">
+      <c r="A15" s="64"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="K15" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="32">
         <f>'Информация для бумаг'!F23</f>
         <v>89217427984</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="H16" s="69" t="s">
+      <c r="A16" s="64"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="H16" s="71" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="H17" s="70" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="H17" s="72" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
     </row>
     <row r="19" ht="15.6" spans="1:14">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="H19" s="68" t="s">
+      <c r="A19" s="64"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="H19" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="K19" s="76" t="str">
+      <c r="K19" s="78" t="str">
         <f>'Информация для бумаг'!C24</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
     </row>
     <row r="20" spans="11:12">
-      <c r="K20" s="41" t="s">
+      <c r="K20" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="L20" s="30">
+      <c r="L20" s="32">
         <f>'Информация для бумаг'!F24</f>
         <v>89679796720</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="8:14">
-      <c r="H22" s="48" t="s">
+      <c r="H22" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
     </row>
     <row r="23" ht="12.75" customHeight="1" spans="8:14">
-      <c r="H23" s="48" t="s">
+      <c r="H23" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
     </row>
     <row r="25" ht="15.6" spans="8:13">
-      <c r="H25" s="68" t="s">
+      <c r="H25" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="M25" s="78">
+      <c r="M25" s="80">
         <f>'Информация для бумаг'!C26</f>
         <v>44337</v>
       </c>
     </row>
     <row r="26" ht="15.6" spans="1:9">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68" t="s">
+      <c r="H26" s="70"/>
+      <c r="I26" s="70" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="28" ht="15.6" spans="8:8">
-      <c r="H28" s="68" t="s">
+      <c r="H28" s="70" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="29" ht="15.6" spans="8:12">
-      <c r="H29" s="68" t="s">
+      <c r="H29" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="K29" s="30">
+      <c r="K29" s="32">
         <f>'Информация для бумаг'!C27</f>
         <v>2021</v>
       </c>
-      <c r="L29" s="30" t="s">
+      <c r="L29" s="32" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="30" ht="15.6" spans="1:8">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="H30" s="68"/>
+      <c r="H30" s="70"/>
     </row>
     <row r="31" ht="15.6" spans="8:8">
-      <c r="H31" s="68" t="s">
+      <c r="H31" s="70" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="32" ht="15.6" spans="8:12">
-      <c r="H32" s="68" t="s">
+      <c r="H32" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="32">
         <f>'Информация для бумаг'!C27</f>
         <v>2021</v>
       </c>
-      <c r="L32" s="30" t="s">
+      <c r="L32" s="32" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="33" ht="15.6" spans="8:8">
-      <c r="H33" s="70" t="s">
+      <c r="H33" s="72" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4777,662 +4789,662 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.71296296296296" style="30"/>
-    <col min="2" max="2" width="35.712962962963" style="30" customWidth="1"/>
-    <col min="3" max="3" width="9.28703703703704" style="30" customWidth="1"/>
-    <col min="4" max="4" width="8" style="30"/>
-    <col min="5" max="5" width="12.8518518518519" style="30"/>
-    <col min="6" max="6" width="33.8518518518519" style="30" customWidth="1"/>
-    <col min="7" max="7" width="17.287037037037" style="41" customWidth="1"/>
-    <col min="8" max="8" width="26.4259259259259" style="30" customWidth="1"/>
-    <col min="9" max="9" width="12.8518518518519" style="30" customWidth="1"/>
-    <col min="10" max="16384" width="8" style="30"/>
+    <col min="1" max="1" width="3.71296296296296" style="32"/>
+    <col min="2" max="2" width="35.712962962963" style="32" customWidth="1"/>
+    <col min="3" max="3" width="9.28703703703704" style="32" customWidth="1"/>
+    <col min="4" max="4" width="8" style="32"/>
+    <col min="5" max="5" width="12.8518518518519" style="32"/>
+    <col min="6" max="6" width="33.8518518518519" style="32" customWidth="1"/>
+    <col min="7" max="7" width="17.287037037037" style="43" customWidth="1"/>
+    <col min="8" max="8" width="26.4259259259259" style="32" customWidth="1"/>
+    <col min="9" max="9" width="12.8518518518519" style="32" customWidth="1"/>
+    <col min="10" max="16384" width="8" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="32" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="34" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="5" s="40" customFormat="1" ht="26.4" spans="1:9">
-      <c r="A5" s="44">
+    <row r="5" s="42" customFormat="1" ht="26.4" spans="1:9">
+      <c r="A5" s="46">
         <v>1</v>
       </c>
-      <c r="B5" s="44" t="str">
+      <c r="B5" s="46" t="str">
         <f>CONCATENATE('Информация для бумаг'!B5," ",'Информация для бумаг'!C5," ",'Информация для бумаг'!D5)</f>
         <v>Атаманов Андрей Иванович</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="47">
         <f>'Информация для бумаг'!H5</f>
         <v>630</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="47">
         <f>'Информация для бумаг'!I5</f>
         <v>10</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="46">
         <f>'Информация для бумаг'!J5</f>
         <v>89118124048</v>
       </c>
-      <c r="F5" s="46" t="str">
+      <c r="F5" s="48" t="str">
         <f>'Информация для бумаг'!K5</f>
         <v>Шуваловский пр. д. 90 к. кв.180</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="47">
         <f>'Информация для бумаг'!O5</f>
         <v>4018281460</v>
       </c>
-      <c r="H5" s="44" t="str">
+      <c r="H5" s="46" t="str">
         <f>'Информация для бумаг'!L5</f>
         <v>Атаманов Иван Валерьевич</v>
       </c>
-      <c r="I5" s="44" t="str">
+      <c r="I5" s="46" t="str">
         <f>'Информация для бумаг'!M5</f>
         <v>89217476129, 8 921 9942973</v>
       </c>
     </row>
-    <row r="6" s="40" customFormat="1" spans="1:9">
-      <c r="A6" s="44">
+    <row r="6" s="42" customFormat="1" spans="1:9">
+      <c r="A6" s="46">
         <v>2</v>
       </c>
-      <c r="B6" s="44" t="str">
+      <c r="B6" s="46" t="str">
         <f>CONCATENATE('Информация для бумаг'!B6," ",'Информация для бумаг'!C6," ",'Информация для бумаг'!D6)</f>
         <v>Башилов Константин Вячеславович</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="47">
         <f>'Информация для бумаг'!H6</f>
         <v>197</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="47">
         <f>'Информация для бумаг'!I6</f>
         <v>7</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="46">
         <f>'Информация для бумаг'!J6</f>
         <v>89650953153</v>
       </c>
-      <c r="F6" s="46" t="str">
+      <c r="F6" s="48" t="str">
         <f>'Информация для бумаг'!K6</f>
         <v>СПб, Пестеля д. 13-15 кв. 108</v>
       </c>
-      <c r="G6" s="45" t="str">
+      <c r="G6" s="47" t="str">
         <f>'Информация для бумаг'!O6</f>
         <v>II-АК 622034</v>
       </c>
-      <c r="H6" s="44" t="str">
+      <c r="H6" s="46" t="str">
         <f>'Информация для бумаг'!L6</f>
         <v>Батаковская Мария Павловна</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="46">
         <f>'Информация для бумаг'!M6</f>
         <v>89052006465</v>
       </c>
     </row>
-    <row r="7" s="40" customFormat="1" spans="1:9">
-      <c r="A7" s="44">
+    <row r="7" s="42" customFormat="1" spans="1:9">
+      <c r="A7" s="46">
         <v>3</v>
       </c>
-      <c r="B7" s="44" t="str">
+      <c r="B7" s="46" t="str">
         <f>CONCATENATE('Информация для бумаг'!B7," ",'Информация для бумаг'!C7," ",'Информация для бумаг'!D7)</f>
         <v>Белокуров Михаил Сергеевич</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="47">
         <f>'Информация для бумаг'!H7</f>
         <v>225</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="47">
         <f>'Информация для бумаг'!I7</f>
         <v>10</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="46">
         <f>'Информация для бумаг'!J7</f>
         <v>89215575265</v>
       </c>
-      <c r="F7" s="46" t="str">
+      <c r="F7" s="48" t="str">
         <f>'Информация для бумаг'!K7</f>
         <v>ул. Ставропольская д. 12/15 кв. 46</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="47">
         <f>'Информация для бумаг'!O7</f>
         <v>4019397258</v>
       </c>
-      <c r="H7" s="44" t="str">
+      <c r="H7" s="46" t="str">
         <f>'Информация для бумаг'!L7</f>
         <v>Белокурова Елена Валентиновна</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="46">
         <f>'Информация для бумаг'!M7</f>
         <v>89213205528</v>
       </c>
     </row>
-    <row r="8" s="40" customFormat="1" spans="1:9">
-      <c r="A8" s="44">
+    <row r="8" s="42" customFormat="1" spans="1:9">
+      <c r="A8" s="46">
         <v>4</v>
       </c>
-      <c r="B8" s="44" t="str">
+      <c r="B8" s="46" t="str">
         <f>CONCATENATE('Информация для бумаг'!B8," ",'Информация для бумаг'!C8," ",'Информация для бумаг'!D8)</f>
         <v>Демидова Алина Витальевна</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="47">
         <f>'Информация для бумаг'!H8</f>
         <v>320</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="47">
         <f>'Информация для бумаг'!I8</f>
         <v>7</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="46">
         <f>'Информация для бумаг'!J8</f>
         <v>89817406171</v>
       </c>
-      <c r="F8" s="46" t="str">
+      <c r="F8" s="48" t="str">
         <f>'Информация для бумаг'!K8</f>
         <v>Туристская ул. дом 28 корп.3 кв.203</v>
       </c>
-      <c r="G8" s="45" t="str">
+      <c r="G8" s="47" t="str">
         <f>'Информация для бумаг'!O8</f>
         <v>II-АК 649071</v>
       </c>
-      <c r="H8" s="44" t="str">
+      <c r="H8" s="46" t="str">
         <f>'Информация для бумаг'!L8</f>
         <v>Демидов Виталий Николаевич</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="46">
         <f>'Информация для бумаг'!M8</f>
         <v>89052274602</v>
       </c>
     </row>
-    <row r="9" s="40" customFormat="1" spans="1:9">
-      <c r="A9" s="44">
+    <row r="9" s="42" customFormat="1" spans="1:9">
+      <c r="A9" s="46">
         <v>5</v>
       </c>
-      <c r="B9" s="44" t="str">
+      <c r="B9" s="46" t="str">
         <f>CONCATENATE('Информация для бумаг'!B9," ",'Информация для бумаг'!C9," ",'Информация для бумаг'!D9)</f>
         <v>Евдокимова Алёна Игоревна</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="47">
         <f>'Информация для бумаг'!H9</f>
         <v>225</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="47">
         <f>'Информация для бумаг'!I9</f>
         <v>11</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="46">
         <f>'Информация для бумаг'!J9</f>
         <v>89818346175</v>
       </c>
-      <c r="F9" s="46" t="str">
+      <c r="F9" s="48" t="str">
         <f>'Информация для бумаг'!K9</f>
         <v>ул. Витебская, д.10, кв.14</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="47">
         <f>'Информация для бумаг'!O9</f>
         <v>4018085917</v>
       </c>
-      <c r="H9" s="44" t="str">
+      <c r="H9" s="46" t="str">
         <f>'Информация для бумаг'!L9</f>
         <v>Пасько Ольга Владимировна</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="46">
         <f>'Информация для бумаг'!M9</f>
         <v>89117966505</v>
       </c>
     </row>
-    <row r="10" s="40" customFormat="1" spans="1:9">
-      <c r="A10" s="44">
+    <row r="10" s="42" customFormat="1" spans="1:9">
+      <c r="A10" s="46">
         <v>6</v>
       </c>
-      <c r="B10" s="44" t="str">
+      <c r="B10" s="46" t="str">
         <f>CONCATENATE('Информация для бумаг'!B10," ",'Информация для бумаг'!C10," ",'Информация для бумаг'!D10)</f>
         <v>Ершова Татьяна Алексеевна</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="47">
         <f>'Информация для бумаг'!H10</f>
         <v>441</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="47">
         <f>'Информация для бумаг'!I10</f>
         <v>8</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="46">
         <f>'Информация для бумаг'!J10</f>
         <v>89213354865</v>
       </c>
-      <c r="F10" s="46" t="str">
+      <c r="F10" s="48" t="str">
         <f>'Информация для бумаг'!K10</f>
         <v>ул. Малая Карпатская д.17 кв 275</v>
       </c>
-      <c r="G10" s="45" t="str">
+      <c r="G10" s="47" t="str">
         <f>'Информация для бумаг'!O10</f>
         <v>I-ВО 645042</v>
       </c>
-      <c r="H10" s="44" t="str">
+      <c r="H10" s="46" t="str">
         <f>'Информация для бумаг'!L10</f>
         <v>Ершова Ирина Алексеевна</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="46">
         <f>'Информация для бумаг'!M10</f>
         <v>9522270284</v>
       </c>
     </row>
-    <row r="11" s="40" customFormat="1" ht="39.6" spans="1:9">
-      <c r="A11" s="44">
+    <row r="11" s="42" customFormat="1" ht="39.6" spans="1:9">
+      <c r="A11" s="46">
         <v>7</v>
       </c>
-      <c r="B11" s="44" t="str">
+      <c r="B11" s="46" t="str">
         <f>CONCATENATE('Информация для бумаг'!B11," ",'Информация для бумаг'!C11," ",'Информация для бумаг'!D11)</f>
         <v>Зиглина Софья Антоновна</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="47">
         <f>'Информация для бумаг'!H11</f>
         <v>628</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="47">
         <f>'Информация для бумаг'!I11</f>
         <v>10</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="46">
         <f>'Информация для бумаг'!J11</f>
         <v>89215747616</v>
       </c>
-      <c r="F11" s="46" t="str">
+      <c r="F11" s="48" t="str">
         <f>'Информация для бумаг'!K11</f>
         <v>Санкт-Петербург, Красногвардейский район, улица Коммуны, дом 42, к.1, КВ.33</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="47">
         <f>'Информация для бумаг'!O11</f>
         <v>4019418643</v>
       </c>
-      <c r="H11" s="44" t="str">
+      <c r="H11" s="46" t="str">
         <f>'Информация для бумаг'!L11</f>
         <v>Антропова Ася Юрьевна</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="46">
         <f>'Информация для бумаг'!M11</f>
         <v>89219451925</v>
       </c>
     </row>
-    <row r="12" s="40" customFormat="1" ht="26.4" spans="1:9">
-      <c r="A12" s="44">
+    <row r="12" s="42" customFormat="1" ht="26.4" spans="1:9">
+      <c r="A12" s="46">
         <v>8</v>
       </c>
-      <c r="B12" s="44" t="str">
+      <c r="B12" s="46" t="str">
         <f>CONCATENATE('Информация для бумаг'!B12," ",'Информация для бумаг'!C12," ",'Информация для бумаг'!D12)</f>
         <v>Каретная Вероника Михайловна</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="47">
         <f>'Информация для бумаг'!H12</f>
         <v>12</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="47">
         <f>'Информация для бумаг'!I12</f>
         <v>7</v>
       </c>
-      <c r="E12" s="44" t="str">
+      <c r="E12" s="46" t="str">
         <f>'Информация для бумаг'!J12</f>
         <v>89312244315  89319803214</v>
       </c>
-      <c r="F12" s="46" t="str">
+      <c r="F12" s="48" t="str">
         <f>'Информация для бумаг'!K12</f>
         <v>С-Пб., ул. Кораблестроителей д.19/1, кв. 168</v>
       </c>
-      <c r="G12" s="45" t="str">
+      <c r="G12" s="47" t="str">
         <f>'Информация для бумаг'!O12</f>
         <v>II-АК 606923</v>
       </c>
-      <c r="H12" s="44" t="str">
+      <c r="H12" s="46" t="str">
         <f>'Информация для бумаг'!L12</f>
         <v>Халтурин Михаил Дмитриевич</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="46">
         <f>'Информация для бумаг'!M12</f>
         <v>89213132221</v>
       </c>
     </row>
-    <row r="13" s="40" customFormat="1" ht="26.4" spans="1:9">
-      <c r="A13" s="44">
+    <row r="13" s="42" customFormat="1" ht="26.4" spans="1:9">
+      <c r="A13" s="46">
         <v>9</v>
       </c>
-      <c r="B13" s="44" t="str">
+      <c r="B13" s="46" t="str">
         <f>CONCATENATE('Информация для бумаг'!B13," ",'Информация для бумаг'!C13," ",'Информация для бумаг'!D13)</f>
         <v>Кудряшов Тимофей Андреевич</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="47">
         <f>'Информация для бумаг'!H13</f>
         <v>504</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="47">
         <f>'Информация для бумаг'!I13</f>
         <v>11</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="46">
         <f>'Информация для бумаг'!J13</f>
         <v>89111652301</v>
       </c>
-      <c r="F13" s="46" t="str">
+      <c r="F13" s="48" t="str">
         <f>'Информация для бумаг'!K13</f>
         <v>Санкт-Петербург, пр. Маршала Жукова, д.45, кв 222</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="47">
         <f>'Информация для бумаг'!O13</f>
         <v>4018287872</v>
       </c>
-      <c r="H13" s="44" t="str">
+      <c r="H13" s="46" t="str">
         <f>'Информация для бумаг'!L13</f>
         <v>Кудряшов Андрей Николаевич</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="46">
         <f>'Информация для бумаг'!M13</f>
         <v>89817910834</v>
       </c>
     </row>
-    <row r="14" s="40" customFormat="1" ht="26.4" spans="1:9">
-      <c r="A14" s="44">
+    <row r="14" s="42" customFormat="1" ht="26.4" spans="1:9">
+      <c r="A14" s="46">
         <v>10</v>
       </c>
-      <c r="B14" s="44" t="str">
+      <c r="B14" s="46" t="str">
         <f>CONCATENATE('Информация для бумаг'!B14," ",'Информация для бумаг'!C14," ",'Информация для бумаг'!D14)</f>
         <v>Нематова Рената Батировна</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="47">
         <f>'Информация для бумаг'!H14</f>
         <v>225</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="47">
         <f>'Информация для бумаг'!I14</f>
         <v>11</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="46">
         <f>'Информация для бумаг'!J14</f>
         <v>89111959536</v>
       </c>
-      <c r="F14" s="46" t="str">
+      <c r="F14" s="48" t="str">
         <f>'Информация для бумаг'!K14</f>
         <v>СПб,пос.Александровская,4 линия, д. 43А</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="47">
         <f>'Информация для бумаг'!O14</f>
         <v>4018034409</v>
       </c>
-      <c r="H14" s="44" t="str">
+      <c r="H14" s="46" t="str">
         <f>'Информация для бумаг'!L14</f>
         <v>Нематова Анна Евгеньевна</v>
       </c>
-      <c r="I14" s="44">
+      <c r="I14" s="46">
         <f>'Информация для бумаг'!M14</f>
         <v>89112207532</v>
       </c>
     </row>
-    <row r="15" s="40" customFormat="1" spans="1:9">
-      <c r="A15" s="44">
+    <row r="15" s="42" customFormat="1" spans="1:9">
+      <c r="A15" s="46">
         <v>11</v>
       </c>
-      <c r="B15" s="44" t="str">
+      <c r="B15" s="46" t="str">
         <f>CONCATENATE('Информация для бумаг'!B15," ",'Информация для бумаг'!C15," ",'Информация для бумаг'!D15)</f>
         <v>Попов Василий Владиславович</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="47">
         <f>'Информация для бумаг'!H15</f>
         <v>183</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="47">
         <f>'Информация для бумаг'!I15</f>
         <v>8</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="46">
         <f>'Информация для бумаг'!J15</f>
         <v>89610752525</v>
       </c>
-      <c r="F15" s="46" t="str">
+      <c r="F15" s="48" t="str">
         <f>'Информация для бумаг'!K15</f>
         <v>Ул.Бутлерова, 11 к.4 , кв 385</v>
       </c>
-      <c r="G15" s="45" t="str">
+      <c r="G15" s="47" t="str">
         <f>'Информация для бумаг'!O15</f>
         <v>I -РК 818754</v>
       </c>
-      <c r="H15" s="44" t="str">
+      <c r="H15" s="46" t="str">
         <f>'Информация для бумаг'!L15</f>
         <v>Попова Юлия Юрьевна</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="46">
         <f>'Информация для бумаг'!M15</f>
         <v>89610717771</v>
       </c>
     </row>
-    <row r="16" s="40" customFormat="1" spans="1:9">
-      <c r="A16" s="44">
+    <row r="16" s="42" customFormat="1" spans="1:9">
+      <c r="A16" s="46">
         <v>12</v>
       </c>
-      <c r="B16" s="44" t="str">
+      <c r="B16" s="46" t="str">
         <f>CONCATENATE('Информация для бумаг'!B16," ",'Информация для бумаг'!C16," ",'Информация для бумаг'!D16)</f>
         <v>Сайчик Мария Владимировна</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="47">
         <f>'Информация для бумаг'!H16</f>
         <v>586</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="47">
         <f>'Информация для бумаг'!I16</f>
         <v>9</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="46">
         <f>'Информация для бумаг'!J16</f>
         <v>9818723635</v>
       </c>
-      <c r="F16" s="46" t="str">
+      <c r="F16" s="48" t="str">
         <f>'Информация для бумаг'!K16</f>
         <v>Кораблестроителей, 39-831</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="47">
         <f>'Информация для бумаг'!O16</f>
         <v>4020691039</v>
       </c>
-      <c r="H16" s="44" t="str">
+      <c r="H16" s="46" t="str">
         <f>'Информация для бумаг'!L16</f>
         <v>Сайчик Татьяна  Борисовна</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I16" s="46">
         <f>'Информация для бумаг'!M16</f>
         <v>9818417041</v>
       </c>
     </row>
-    <row r="17" s="40" customFormat="1" spans="1:9">
-      <c r="A17" s="44">
+    <row r="17" s="42" customFormat="1" spans="1:9">
+      <c r="A17" s="46">
         <v>13</v>
       </c>
-      <c r="B17" s="44" t="str">
+      <c r="B17" s="46" t="str">
         <f>CONCATENATE('Информация для бумаг'!B17," ",'Информация для бумаг'!C17," ",'Информация для бумаг'!D17)</f>
         <v>Семенова Елизавета Викторовна</v>
       </c>
-      <c r="C17" s="45" t="str">
+      <c r="C17" s="47" t="str">
         <f>'Информация для бумаг'!H17</f>
         <v>Гимн 2</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="47">
         <f>'Информация для бумаг'!I17</f>
         <v>7</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="46">
         <f>'Информация для бумаг'!J17</f>
         <v>89046391880</v>
       </c>
-      <c r="F17" s="46" t="str">
+      <c r="F17" s="48" t="str">
         <f>'Информация для бумаг'!K17</f>
         <v>Лабутина 20-22 кв. 40</v>
       </c>
-      <c r="G17" s="45" t="str">
+      <c r="G17" s="47" t="str">
         <f>'Информация для бумаг'!O17</f>
         <v>II-АК № 689853</v>
       </c>
-      <c r="H17" s="44" t="str">
+      <c r="H17" s="46" t="str">
         <f>'Информация для бумаг'!L17</f>
         <v>Семенова Наталья Николаевна</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="46">
         <f>'Информация для бумаг'!M17</f>
         <v>9046392174</v>
       </c>
     </row>
-    <row r="18" s="40" customFormat="1" ht="26.4" spans="1:9">
-      <c r="A18" s="44">
+    <row r="18" s="42" customFormat="1" ht="26.4" spans="1:9">
+      <c r="A18" s="46">
         <v>14</v>
       </c>
-      <c r="B18" s="44" t="str">
+      <c r="B18" s="46" t="str">
         <f>CONCATENATE('Информация для бумаг'!B18," ",'Информация для бумаг'!C18," ",'Информация для бумаг'!D18)</f>
         <v>Шилонцев Андрей Александрович</v>
       </c>
-      <c r="C18" s="45" t="str">
+      <c r="C18" s="47" t="str">
         <f>'Информация для бумаг'!H18</f>
         <v>Лицей № 387</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="47">
         <f>'Информация для бумаг'!I18</f>
         <v>9</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="46">
         <f>'Информация для бумаг'!J18</f>
         <v>69218627582</v>
       </c>
-      <c r="F18" s="46" t="str">
+      <c r="F18" s="48" t="str">
         <f>'Информация для бумаг'!K18</f>
         <v>Санкт-Петербург, Ленинский проспект, дом 117, корпус 1, квартира 603</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="47">
         <f>'Информация для бумаг'!O18</f>
         <v>4020684651</v>
       </c>
-      <c r="H18" s="44" t="str">
+      <c r="H18" s="46" t="str">
         <f>'Информация для бумаг'!L18</f>
         <v>Шилонцева Татьяна Александровна</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="46">
         <f>'Информация для бумаг'!M18</f>
         <v>8921326506</v>
       </c>
     </row>
-    <row r="19" s="40" customFormat="1" ht="26.4" spans="1:9">
-      <c r="A19" s="44">
+    <row r="19" s="42" customFormat="1" ht="26.4" spans="1:9">
+      <c r="A19" s="46">
         <v>15</v>
       </c>
-      <c r="B19" s="44" t="str">
+      <c r="B19" s="46" t="str">
         <f>CONCATENATE('Информация для бумаг'!B19," ",'Информация для бумаг'!C19," ",'Информация для бумаг'!D19)</f>
         <v>Шишкина Алина Денисовна</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="47">
         <f>'Информация для бумаг'!H19</f>
         <v>246</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="47">
         <f>'Информация для бумаг'!I19</f>
         <v>11</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="46">
         <f>'Информация для бумаг'!J19</f>
         <v>89312711134</v>
       </c>
-      <c r="F19" s="46" t="str">
+      <c r="F19" s="48" t="str">
         <f>'Информация для бумаг'!K19</f>
         <v>Проспект Авиаконструкторов, дом 47, квартира 4</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="47">
         <f>'Информация для бумаг'!O19</f>
         <v>4018029738</v>
       </c>
-      <c r="H19" s="44" t="str">
+      <c r="H19" s="46" t="str">
         <f>'Информация для бумаг'!L19</f>
         <v>Шишкин Денис Витальевич</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="46">
         <f>'Информация для бумаг'!M19</f>
         <v>89218717677</v>
       </c>
     </row>
-    <row r="20" s="40" customFormat="1" spans="1:9">
-      <c r="A20" s="44">
+    <row r="20" s="42" customFormat="1" spans="1:9">
+      <c r="A20" s="46">
         <v>16</v>
       </c>
-      <c r="B20" s="44" t="str">
+      <c r="B20" s="46" t="str">
         <f>CONCATENATE('Информация для бумаг'!B20," ",'Информация для бумаг'!C20," ",'Информация для бумаг'!D20)</f>
         <v>Нужин Илья Мулложонович</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="47">
         <f>'Информация для бумаг'!H20</f>
         <v>30</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="47">
         <f>'Информация для бумаг'!I20</f>
         <v>9</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="46">
         <f>'Информация для бумаг'!J20</f>
         <v>9313625109</v>
       </c>
-      <c r="F20" s="46" t="str">
+      <c r="F20" s="48" t="str">
         <f>'Информация для бумаг'!K20</f>
         <v>Наличная 37-1-4</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="47">
         <f>'Информация для бумаг'!O20</f>
         <v>4020668443</v>
       </c>
-      <c r="H20" s="44" t="str">
+      <c r="H20" s="46" t="str">
         <f>'Информация для бумаг'!L20</f>
         <v>Нужина  Юлия  Андреевна</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="46">
         <f>'Информация для бумаг'!M20</f>
         <v>9213827100</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="30" t="str">
+      <c r="B25" s="32" t="str">
         <f>'Информация для бумаг'!C23</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="32" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="30" t="str">
+      <c r="B27" s="32" t="str">
         <f>'Информация для бумаг'!C24</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="32" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5454,254 +5466,254 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="32.1388888888889" style="30" customWidth="1"/>
-    <col min="2" max="2" width="16.8518518518519" style="30" customWidth="1"/>
-    <col min="3" max="3" width="16.4259259259259" style="30" customWidth="1"/>
-    <col min="4" max="4" width="18.712962962963" style="30" customWidth="1"/>
-    <col min="5" max="5" width="13.1388888888889" style="30" customWidth="1"/>
-    <col min="6" max="6" width="17.4259259259259" style="30" customWidth="1"/>
-    <col min="7" max="7" width="16.5740740740741" style="30" customWidth="1"/>
-    <col min="8" max="8" width="19.287037037037" style="30" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="30"/>
+    <col min="1" max="1" width="32.1388888888889" style="32" customWidth="1"/>
+    <col min="2" max="2" width="16.8518518518519" style="32" customWidth="1"/>
+    <col min="3" max="3" width="16.4259259259259" style="32" customWidth="1"/>
+    <col min="4" max="4" width="18.712962962963" style="32" customWidth="1"/>
+    <col min="5" max="5" width="13.1388888888889" style="32" customWidth="1"/>
+    <col min="6" max="6" width="17.4259259259259" style="32" customWidth="1"/>
+    <col min="7" max="7" width="16.5740740740741" style="32" customWidth="1"/>
+    <col min="8" max="8" width="19.287037037037" style="32" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="2" ht="82.5" customHeight="1" spans="1:8">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="32" t="str">
+      <c r="A3" s="34" t="str">
         <f>'Cписок для приказа'!B5</f>
         <v>Атаманов Андрей Иванович</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="32"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="32" t="str">
+      <c r="A4" s="34" t="str">
         <f>'Cписок для приказа'!B6</f>
         <v>Башилов Константин Вячеславович</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="32"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="32" t="str">
+      <c r="A5" s="34" t="str">
         <f>'Cписок для приказа'!B7</f>
         <v>Белокуров Михаил Сергеевич</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="32"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" ht="14.4" spans="1:8">
-      <c r="A6" s="32" t="str">
+      <c r="A6" s="34" t="str">
         <f>'Cписок для приказа'!B8</f>
         <v>Демидова Алина Витальевна</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="32"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="32" t="str">
+      <c r="A7" s="34" t="str">
         <f>'Cписок для приказа'!B9</f>
         <v>Евдокимова Алёна Игоревна</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="32"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="32" t="str">
+      <c r="A8" s="34" t="str">
         <f>'Cписок для приказа'!B10</f>
         <v>Ершова Татьяна Алексеевна</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="32"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="32" t="str">
+      <c r="A9" s="34" t="str">
         <f>'Cписок для приказа'!B11</f>
         <v>Зиглина Софья Антоновна</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="32"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="34"/>
     </row>
     <row r="10" ht="14.4" spans="1:8">
-      <c r="A10" s="32" t="str">
+      <c r="A10" s="34" t="str">
         <f>'Cписок для приказа'!B12</f>
         <v>Каретная Вероника Михайловна</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="32"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" ht="14.4" spans="1:8">
-      <c r="A11" s="32" t="str">
+      <c r="A11" s="34" t="str">
         <f>'Cписок для приказа'!B13</f>
         <v>Кудряшов Тимофей Андреевич</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="32"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" ht="14.4" spans="1:8">
-      <c r="A12" s="32" t="str">
+      <c r="A12" s="34" t="str">
         <f>'Cписок для приказа'!B14</f>
         <v>Нематова Рената Батировна</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="32"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" ht="14.4" spans="1:8">
-      <c r="A13" s="32" t="str">
+      <c r="A13" s="34" t="str">
         <f>'Cписок для приказа'!B15</f>
         <v>Попов Василий Владиславович</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="32"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" ht="14.4" spans="1:8">
-      <c r="A14" s="32" t="str">
+      <c r="A14" s="34" t="str">
         <f>'Cписок для приказа'!B16</f>
         <v>Сайчик Мария Владимировна</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="32"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="32" t="str">
+      <c r="A15" s="34" t="str">
         <f>'Cписок для приказа'!B17</f>
         <v>Семенова Елизавета Викторовна</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="32"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="32" t="str">
+      <c r="A16" s="34" t="str">
         <f>'Cписок для приказа'!B18</f>
         <v>Шилонцев Андрей Александрович</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="32"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="34"/>
     </row>
     <row r="17" ht="14.4" spans="1:8">
-      <c r="A17" s="32" t="str">
+      <c r="A17" s="34" t="str">
         <f>'Cписок для приказа'!B19</f>
         <v>Шишкина Алина Денисовна</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="32"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="34"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="32" t="str">
+      <c r="A18" s="34" t="str">
         <f>'Cписок для приказа'!B20</f>
         <v>Нужин Илья Мулложонович</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="39"/>
+      <c r="A19" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5721,96 +5733,96 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="18"/>
-    <col min="2" max="2" width="28.8518518518519" style="18" customWidth="1"/>
-    <col min="3" max="3" width="10.8518518518519" style="18"/>
-    <col min="4" max="4" width="15.8518518518519" style="18" customWidth="1"/>
-    <col min="5" max="5" width="21.4259259259259" style="18"/>
-    <col min="6" max="6" width="12.8518518518519" style="18"/>
-    <col min="7" max="7" width="9.28703703703704" style="18"/>
-    <col min="8" max="8" width="9" style="18"/>
-    <col min="9" max="9" width="12.1388888888889" style="19"/>
-    <col min="10" max="10" width="19.4259259259259" style="18"/>
-    <col min="11" max="11" width="28.1388888888889" style="18"/>
-    <col min="12" max="12" width="31.4259259259259" style="18"/>
-    <col min="13" max="13" width="14.1388888888889" style="18"/>
-    <col min="14" max="14" width="18.8518518518519" style="18"/>
-    <col min="15" max="15" width="14.1388888888889" style="18"/>
-    <col min="16" max="16384" width="8" style="18"/>
+    <col min="1" max="1" width="8" style="20"/>
+    <col min="2" max="2" width="28.8518518518519" style="20" customWidth="1"/>
+    <col min="3" max="3" width="10.8518518518519" style="20"/>
+    <col min="4" max="4" width="15.8518518518519" style="20" customWidth="1"/>
+    <col min="5" max="5" width="21.4259259259259" style="20"/>
+    <col min="6" max="6" width="12.8518518518519" style="20"/>
+    <col min="7" max="7" width="9.28703703703704" style="20"/>
+    <col min="8" max="8" width="9" style="20"/>
+    <col min="9" max="9" width="12.1388888888889" style="21"/>
+    <col min="10" max="10" width="19.4259259259259" style="20"/>
+    <col min="11" max="11" width="28.1388888888889" style="20"/>
+    <col min="12" max="12" width="31.4259259259259" style="20"/>
+    <col min="13" max="13" width="14.1388888888889" style="20"/>
+    <col min="14" max="14" width="18.8518518518519" style="20"/>
+    <col min="15" max="15" width="14.1388888888889" style="20"/>
+    <col min="16" max="16384" width="8" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="23">
         <v>44409</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="23">
         <v>44432</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="22" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" ht="14.4" spans="1:17">
-      <c r="A5" s="18">
+      <c r="A5" s="20">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -5822,9 +5834,9 @@
       <c r="D5" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="7">
         <v>630</v>
       </c>
@@ -5837,7 +5849,7 @@
       <c r="K5" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="L5" s="31" t="s">
         <v>195</v>
       </c>
       <c r="M5" s="6" t="s">
@@ -5853,7 +5865,7 @@
       <c r="Q5" s="6"/>
     </row>
     <row r="6" ht="14.4" spans="1:17">
-      <c r="A6" s="18">
+      <c r="A6" s="20">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5865,9 +5877,9 @@
       <c r="D6" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="7">
         <v>197</v>
       </c>
@@ -5880,13 +5892,13 @@
       <c r="K6" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="31" t="s">
         <v>202</v>
       </c>
       <c r="M6" s="7">
         <v>89052006465</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="14">
         <v>39367</v>
       </c>
       <c r="O6" s="6" t="s">
@@ -5896,7 +5908,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" ht="14.4" spans="1:17">
-      <c r="A7" s="18">
+      <c r="A7" s="20">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -5908,9 +5920,9 @@
       <c r="D7" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="7">
         <v>225</v>
       </c>
@@ -5923,13 +5935,13 @@
       <c r="K7" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="L7" s="29" t="s">
+      <c r="L7" s="31" t="s">
         <v>208</v>
       </c>
       <c r="M7" s="7">
         <v>89213205528</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="14">
         <v>38553</v>
       </c>
       <c r="O7" s="7">
@@ -5939,7 +5951,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" ht="14.4" spans="1:17">
-      <c r="A8" s="18">
+      <c r="A8" s="20">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -5951,7 +5963,7 @@
       <c r="D8" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="7">
@@ -5966,13 +5978,13 @@
       <c r="K8" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="31" t="s">
         <v>213</v>
       </c>
       <c r="M8" s="7">
         <v>89052274602</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="14">
         <v>39554</v>
       </c>
       <c r="O8" s="6" t="s">
@@ -5982,7 +5994,7 @@
       <c r="Q8" s="6"/>
     </row>
     <row r="9" ht="14.4" spans="1:17">
-      <c r="A9" s="18">
+      <c r="A9" s="20">
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -5994,9 +6006,9 @@
       <c r="D9" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="7">
         <v>225</v>
       </c>
@@ -6009,13 +6021,13 @@
       <c r="K9" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="L9" s="31" t="s">
         <v>219</v>
       </c>
       <c r="M9" s="7">
         <v>89117966505</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="14">
         <v>38137</v>
       </c>
       <c r="O9" s="7">
@@ -6025,7 +6037,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" ht="14.4" spans="1:17">
-      <c r="A10" s="18">
+      <c r="A10" s="20">
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -6049,13 +6061,13 @@
       <c r="K10" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="31" t="s">
         <v>224</v>
       </c>
       <c r="M10" s="6">
         <v>9522270284</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="14">
         <v>39166</v>
       </c>
       <c r="O10" s="6" t="s">
@@ -6065,7 +6077,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" ht="14.4" spans="1:17">
-      <c r="A11" s="18">
+      <c r="A11" s="20">
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -6077,9 +6089,9 @@
       <c r="D11" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="7">
         <v>628</v>
       </c>
@@ -6092,13 +6104,13 @@
       <c r="K11" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="31" t="s">
         <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>89219451925</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="14">
         <v>38518</v>
       </c>
       <c r="O11" s="7">
@@ -6108,7 +6120,7 @@
       <c r="Q11" s="6"/>
     </row>
     <row r="12" ht="14.4" spans="1:17">
-      <c r="A12" s="18">
+      <c r="A12" s="20">
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -6120,9 +6132,9 @@
       <c r="D12" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="7">
         <v>12</v>
       </c>
@@ -6135,13 +6147,13 @@
       <c r="K12" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="L12" s="29" t="s">
+      <c r="L12" s="31" t="s">
         <v>236</v>
       </c>
       <c r="M12" s="7">
         <v>89213132221</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="14">
         <v>39485</v>
       </c>
       <c r="O12" s="6" t="s">
@@ -6151,7 +6163,7 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" ht="14.4" spans="1:17">
-      <c r="A13" s="18">
+      <c r="A13" s="20">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -6163,7 +6175,7 @@
       <c r="D13" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="7">
@@ -6178,13 +6190,13 @@
       <c r="K13" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="31" t="s">
         <v>242</v>
       </c>
       <c r="M13" s="7">
         <v>89817910834</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="14">
         <v>38434</v>
       </c>
       <c r="O13" s="7">
@@ -6194,7 +6206,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" ht="14.4" spans="1:17">
-      <c r="A14" s="18">
+      <c r="A14" s="20">
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -6206,7 +6218,7 @@
       <c r="D14" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E14" s="24"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="7">
@@ -6221,13 +6233,13 @@
       <c r="K14" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="L14" s="29" t="s">
+      <c r="L14" s="31" t="s">
         <v>247</v>
       </c>
       <c r="M14" s="7">
         <v>89112207532</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="14">
         <v>38051</v>
       </c>
       <c r="O14" s="7">
@@ -6237,7 +6249,7 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" ht="14.4" spans="1:17">
-      <c r="A15" s="18">
+      <c r="A15" s="20">
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -6249,7 +6261,7 @@
       <c r="D15" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="7">
@@ -6264,13 +6276,13 @@
       <c r="K15" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="L15" s="29" t="s">
+      <c r="L15" s="31" t="s">
         <v>252</v>
       </c>
       <c r="M15" s="7">
         <v>89610717771</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="14">
         <v>39331</v>
       </c>
       <c r="O15" s="6" t="s">
@@ -6280,10 +6292,10 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" ht="14.4" spans="1:17">
-      <c r="A16" s="18">
+      <c r="A16" s="20">
         <v>12</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>254</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -6292,28 +6304,28 @@
       <c r="D16" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="14">
+      <c r="H16" s="16">
         <v>586</v>
       </c>
       <c r="I16" s="6">
         <v>9</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="17">
         <v>9818723635</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="L16" s="29" t="s">
+      <c r="L16" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="17">
         <v>9818417041</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="18">
         <v>38982</v>
       </c>
       <c r="O16" s="6">
@@ -6323,7 +6335,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" ht="14.4" spans="1:17">
-      <c r="A17" s="18">
+      <c r="A17" s="20">
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -6335,9 +6347,9 @@
       <c r="D17" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="7" t="s">
         <v>262</v>
       </c>
@@ -6350,13 +6362,13 @@
       <c r="K17" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="L17" s="29" t="s">
+      <c r="L17" s="31" t="s">
         <v>264</v>
       </c>
       <c r="M17" s="6">
         <v>9046392174</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="14">
         <v>39875</v>
       </c>
       <c r="O17" s="6" t="s">
@@ -6366,7 +6378,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" ht="14.4" spans="1:17">
-      <c r="A18" s="18">
+      <c r="A18" s="20">
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -6378,9 +6390,9 @@
       <c r="D18" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="7" t="s">
         <v>268</v>
       </c>
@@ -6393,13 +6405,13 @@
       <c r="K18" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="L18" s="29" t="s">
+      <c r="L18" s="31" t="s">
         <v>270</v>
       </c>
       <c r="M18" s="7">
         <v>8921326506</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="14">
         <v>38989</v>
       </c>
       <c r="O18" s="7">
@@ -6409,7 +6421,7 @@
       <c r="Q18" s="6"/>
     </row>
     <row r="19" ht="14.4" spans="1:17">
-      <c r="A19" s="18">
+      <c r="A19" s="20">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -6421,7 +6433,7 @@
       <c r="D19" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E19" s="24"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="7">
@@ -6436,13 +6448,13 @@
       <c r="K19" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="L19" s="29" t="s">
+      <c r="L19" s="31" t="s">
         <v>274</v>
       </c>
       <c r="M19" s="7">
         <v>89218717677</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="14">
         <v>38070</v>
       </c>
       <c r="O19" s="7">
@@ -6452,7 +6464,7 @@
       <c r="Q19" s="6"/>
     </row>
     <row r="20" ht="14.4" spans="1:17">
-      <c r="A20" s="18">
+      <c r="A20" s="20">
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -6470,19 +6482,19 @@
       <c r="I20" s="6">
         <v>9</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="19">
         <v>9313625109</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="L20" s="29" t="s">
+      <c r="L20" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="16">
         <v>9213827100</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N20" s="18">
         <v>38933</v>
       </c>
       <c r="O20" s="6">
@@ -6492,54 +6504,54 @@
       <c r="Q20" s="6"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="28">
         <v>89217427984</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="28">
         <v>89679796720</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="23">
         <v>44337</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="28">
         <v>2021</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="29" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6556,7 +6568,7 @@
   <dimension ref="A1:AC113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H18"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
@@ -6762,7 +6774,7 @@
       <c r="M3" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="14">
         <v>39367</v>
       </c>
       <c r="O3" s="6" t="s">
@@ -6834,7 +6846,7 @@
       <c r="M4" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="14">
         <v>38553</v>
       </c>
       <c r="O4" s="6" t="s">
@@ -6909,7 +6921,7 @@
       <c r="M5" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="14">
         <v>39554</v>
       </c>
       <c r="O5" s="6" t="s">
@@ -6964,8 +6976,11 @@
       <c r="G6" s="8">
         <v>1</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="10" t="s">
         <v>331</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>332</v>
       </c>
       <c r="J6" s="7">
         <v>225</v>
@@ -6979,7 +6994,7 @@
       <c r="M6" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="14">
         <v>38137</v>
       </c>
       <c r="O6" s="6" t="s">
@@ -6990,10 +7005,10 @@
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="T6" s="6" t="s">
         <v>256</v>
@@ -7033,7 +7048,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J7" s="7">
         <v>441</v>
@@ -7047,7 +7062,7 @@
       <c r="M7" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="14">
         <v>39166</v>
       </c>
       <c r="O7" s="6" t="s">
@@ -7057,19 +7072,19 @@
         <v>225</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R7" s="6" t="s">
         <v>220</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T7" s="6" t="s">
         <v>222</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
@@ -7103,10 +7118,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J8" s="7">
         <v>628</v>
@@ -7120,7 +7135,7 @@
       <c r="M8" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="14">
         <v>38518</v>
       </c>
       <c r="O8" s="6" t="s">
@@ -7130,22 +7145,22 @@
         <v>4019418643</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U8" s="7">
         <v>89219451925</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
@@ -7178,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J9" s="7">
         <v>12</v>
@@ -7192,7 +7207,7 @@
       <c r="M9" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="14">
         <v>39485</v>
       </c>
       <c r="O9" s="6" t="s">
@@ -7202,22 +7217,22 @@
         <v>237</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>205</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="U9" s="7">
         <v>89213132221</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
@@ -7250,10 +7265,10 @@
         <v>1</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="I10" s="13" t="s">
         <v>351</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>352</v>
       </c>
       <c r="J10" s="7">
         <v>504</v>
@@ -7267,7 +7282,7 @@
       <c r="M10" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="14">
         <v>38434</v>
       </c>
       <c r="O10" s="6" t="s">
@@ -7277,7 +7292,7 @@
         <v>4018287872</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="R10" s="6" t="s">
         <v>238</v>
@@ -7292,7 +7307,7 @@
         <v>89817910834</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
@@ -7323,7 +7338,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="J11" s="7">
         <v>225</v>
@@ -7337,7 +7355,7 @@
       <c r="M11" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="14">
         <v>38051</v>
       </c>
       <c r="O11" s="6" t="s">
@@ -7347,22 +7365,22 @@
         <v>4018034409</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="R11" s="6" t="s">
         <v>243</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="U11" s="7">
         <v>89112207532</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
@@ -7393,7 +7411,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J12" s="7">
         <v>183</v>
@@ -7407,7 +7425,7 @@
       <c r="M12" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="14">
         <v>39331</v>
       </c>
       <c r="O12" s="6" t="s">
@@ -7417,22 +7435,22 @@
         <v>253</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U12" s="7">
         <v>89610717771</v>
       </c>
       <c r="V12" s="6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
@@ -7443,7 +7461,7 @@
       <c r="AC12" s="6"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>254</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -7462,25 +7480,25 @@
         <v>1</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="J13" s="14">
+      <c r="H13" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="J13" s="16">
         <v>586</v>
       </c>
       <c r="K13" s="6">
         <v>9</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="17">
         <v>9818723635</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="18">
         <v>38982</v>
       </c>
       <c r="O13" s="6" t="s">
@@ -7490,16 +7508,16 @@
         <v>4020691039</v>
       </c>
       <c r="Q13" s="6"/>
-      <c r="R13" s="15" t="s">
+      <c r="R13" s="17" t="s">
         <v>254</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="U13" s="15">
+        <v>367</v>
+      </c>
+      <c r="U13" s="17">
         <v>9818417041</v>
       </c>
       <c r="V13" s="6"/>
@@ -7533,11 +7551,11 @@
       <c r="G14" s="8">
         <v>1</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>366</v>
+      <c r="H14" s="12" t="s">
+        <v>368</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>262</v>
@@ -7551,7 +7569,7 @@
       <c r="M14" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="14">
         <v>39875</v>
       </c>
       <c r="O14" s="6" t="s">
@@ -7561,22 +7579,22 @@
         <v>265</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="R14" s="6" t="s">
         <v>259</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
@@ -7607,7 +7625,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>268</v>
@@ -7621,7 +7639,7 @@
       <c r="M15" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="14">
         <v>38989</v>
       </c>
       <c r="O15" s="6" t="s">
@@ -7631,22 +7649,22 @@
         <v>4020684651</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>221</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="U15" s="7">
         <v>8921326506</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
@@ -7678,11 +7696,11 @@
       <c r="G16" s="8">
         <v>1</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>378</v>
+      <c r="H16" s="12" t="s">
+        <v>380</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J16" s="7">
         <v>246</v>
@@ -7696,7 +7714,7 @@
       <c r="M16" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="14">
         <v>38070</v>
       </c>
       <c r="O16" s="6" t="s">
@@ -7706,22 +7724,22 @@
         <v>4018029738</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="U16" s="7">
         <v>89218717677</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
@@ -7751,8 +7769,8 @@
       <c r="G17" s="8">
         <v>1</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>385</v>
+      <c r="H17" s="13" t="s">
+        <v>387</v>
       </c>
       <c r="J17" s="7">
         <v>30</v>
@@ -7760,13 +7778,13 @@
       <c r="K17" s="6">
         <v>9</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="19">
         <v>9313625109</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M17" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="N17" s="16">
+      <c r="N17" s="18">
         <v>38933</v>
       </c>
       <c r="O17" s="6" t="s">
@@ -7776,18 +7794,18 @@
         <v>4020668443</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="R17" s="14" t="s">
-        <v>387</v>
+        <v>388</v>
+      </c>
+      <c r="R17" s="16" t="s">
+        <v>389</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="U17" s="14">
+        <v>391</v>
+      </c>
+      <c r="U17" s="16">
         <v>9213827100</v>
       </c>
       <c r="V17" s="6"/>
@@ -7844,7 +7862,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="7"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="12"/>
+      <c r="N19" s="14"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -10789,6 +10807,8 @@
     <hyperlink ref="H8" r:id="rId4" display="assia3@yandex.ru"/>
     <hyperlink ref="H16" r:id="rId5" display="hayloft@mail.ru"/>
     <hyperlink ref="H14" r:id="rId6" display="natasemenova@mail.ru"/>
+    <hyperlink ref="I11" r:id="rId7" display="babukaka04@gmail.com"/>
+    <hyperlink ref="H6" r:id="rId8" display="olgapasko1974@yandex.ru"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -10813,24 +10833,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" ht="52.8" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -10852,7 +10872,7 @@
         <v>227</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" ht="79.2" spans="1:3">
@@ -10863,7 +10883,7 @@
         <v>210</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" ht="39.6" spans="1:3">
@@ -10874,18 +10894,18 @@
         <v>249</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" ht="52.8" spans="1:3">

--- a/Exp2021/Exp 2021.xlsx
+++ b/Exp2021/Exp 2021.xlsx
@@ -1310,15 +1310,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="[$-419]d\ mm\ yyyy;@"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="180" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="181" formatCode="[$-419]d\ mm\ yyyy;@"/>
-    <numFmt numFmtId="182" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
+    <numFmt numFmtId="181" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
+    <numFmt numFmtId="182" formatCode="d/m/yy;@"/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -1477,14 +1477,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1495,6 +1495,59 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1513,16 +1566,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1536,16 +1587,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1559,54 +1602,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
     </font>
     <font>
       <i/>
@@ -1636,7 +1636,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1648,7 +1690,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,37 +1726,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1714,7 +1756,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,97 +1816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1996,13 +1996,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2022,26 +2050,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2063,52 +2093,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2121,133 +2121,133 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="129">
@@ -2289,7 +2289,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="15" applyBorder="1">
@@ -2299,7 +2299,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2308,8 +2308,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2377,7 +2377,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2423,19 +2423,19 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2454,7 +2454,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2511,7 +2511,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="13" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2523,7 +2523,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6568,7 +6568,7 @@
   <dimension ref="A1:AC113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>

--- a/Exp2021/Exp 2021.xlsx
+++ b/Exp2021/Exp 2021.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VM_space\Text\Article\Lab-processings\Exp2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264" tabRatio="804" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9270" tabRatio="804" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Список оборудования" sheetId="12" r:id="rId1"/>
@@ -22,20 +27,20 @@
     <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Участники!$A$1:$AC$17</definedName>
     <definedName name="_ftn1" localSheetId="2">'Маршлист внешняя сторона'!$H$29</definedName>
     <definedName name="_ftnref1" localSheetId="2">'Маршлист внешняя сторона'!$H$26</definedName>
-    <definedName name="class" localSheetId="3">[3]Справочник!$H$2:$H$14</definedName>
-    <definedName name="class">[1]Справочник!$H$2:$H$14</definedName>
-    <definedName name="dist" localSheetId="3">[3]Справочник!$F$2:$F$19</definedName>
-    <definedName name="dist">[2]Справочник!$F$2:$F$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Участники!$A$1:$AC$17</definedName>
+    <definedName name="class" localSheetId="3">[1]Справочник!$H$2:$H$14</definedName>
+    <definedName name="class">[2]Справочник!$H$2:$H$14</definedName>
+    <definedName name="dist" localSheetId="3">[1]Справочник!$F$2:$F$19</definedName>
+    <definedName name="dist">[3]Справочник!$F$2:$F$19</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="402">
   <si>
     <t>ОБОРУДОВАНИЕ</t>
   </si>
@@ -1304,23 +1309,22 @@
   <si>
     <t>Аллергия на пыльцу растений</t>
   </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="d/m/yy;@"/>
-    <numFmt numFmtId="180" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="181" formatCode="[$-419]d\ mm\ yyyy;@"/>
-    <numFmt numFmtId="182" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="169" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="170" formatCode="[$-419]d\ mm\ yyyy;@"/>
+    <numFmt numFmtId="171" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1339,7 +1343,6 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1347,7 +1350,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1476,134 +1478,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
       <charset val="204"/>
@@ -1615,7 +1489,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1634,194 +1508,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1995,262 +1683,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="56">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2274,32 +1723,32 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="15" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="15" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2308,13 +1757,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2329,8 +1778,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -2339,7 +1788,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2364,57 +1813,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2423,22 +1830,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2451,35 +1849,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2487,22 +1867,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2511,24 +1882,44 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2539,93 +1930,117 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="36" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="56">
+  <cellStyles count="9">
+    <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
-    <cellStyle name="Обычный_СПИСОК ОБОРУДОВАНИЯ_1" xfId="2"/>
-    <cellStyle name="Денежный [0]" xfId="3" builtinId="7"/>
-    <cellStyle name="40% — Акцент5" xfId="4" builtinId="47"/>
-    <cellStyle name="Хороший" xfId="5" builtinId="26"/>
-    <cellStyle name="Запятая [0]" xfId="6" builtinId="6"/>
-    <cellStyle name="Денежный" xfId="7" builtinId="4"/>
-    <cellStyle name="Запятая" xfId="8" builtinId="3"/>
-    <cellStyle name="Обычный_общий список" xfId="9"/>
-    <cellStyle name="40% — Акцент6" xfId="10" builtinId="51"/>
-    <cellStyle name="Процент" xfId="11" builtinId="5"/>
-    <cellStyle name="20% — Акцент2" xfId="12" builtinId="34"/>
-    <cellStyle name="Итого" xfId="13" builtinId="25"/>
-    <cellStyle name="Вывод" xfId="14" builtinId="21"/>
-    <cellStyle name="Гиперссылка" xfId="15" builtinId="8"/>
-    <cellStyle name="40% — Акцент4" xfId="16" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="17" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="18" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="19" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="20" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="21" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="22" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="23" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="24" builtinId="18"/>
-    <cellStyle name="Обычный_МАРШ.ЛИСТ ПЕРВАЯ ЯЩЕРА" xfId="25"/>
-    <cellStyle name="Заголовок 4" xfId="26" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="27" builtinId="20"/>
-    <cellStyle name="Проверить ячейку" xfId="28" builtinId="23"/>
-    <cellStyle name="Вычисление" xfId="29" builtinId="22"/>
-    <cellStyle name="Связанная ячейка" xfId="30" builtinId="24"/>
-    <cellStyle name="Плохой" xfId="31" builtinId="27"/>
-    <cellStyle name="Акцент5" xfId="32" builtinId="45"/>
-    <cellStyle name="Нейтральный" xfId="33" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="35" builtinId="30"/>
-    <cellStyle name="Обычный_СПИСОК ОБОРУДОВАНИЯ" xfId="36"/>
-    <cellStyle name="40% — Акцент1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% — Акцент5" xfId="38" builtinId="46"/>
-    <cellStyle name="60% — Акцент1" xfId="39" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="40" builtinId="33"/>
-    <cellStyle name="40% — Акцент2" xfId="41" builtinId="35"/>
-    <cellStyle name="20% — Акцент6" xfId="42" builtinId="50"/>
-    <cellStyle name="60% — Акцент2" xfId="43" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="44" builtinId="37"/>
-    <cellStyle name="40% — Акцент3" xfId="45" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="46" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="47" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="48" builtinId="42"/>
-    <cellStyle name="60% — Акцент4" xfId="49" builtinId="44"/>
-    <cellStyle name="60% — Акцент5" xfId="50" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="51" builtinId="49"/>
-    <cellStyle name="60% — Акцент6" xfId="52" builtinId="52"/>
-    <cellStyle name="Обычный_Jaschera_07" xfId="53"/>
-    <cellStyle name="Обычный_Jashera 2018" xfId="54"/>
-    <cellStyle name="Обычный_Внутренняя таблица марш. листа" xfId="55"/>
+    <cellStyle name="Обычный_Jaschera_07" xfId="6"/>
+    <cellStyle name="Обычный_Jashera 2018" xfId="7"/>
+    <cellStyle name="Обычный_Внутренняя таблица марш. листа" xfId="8"/>
+    <cellStyle name="Обычный_МАРШ.ЛИСТ ПЕРВАЯ ЯЩЕРА" xfId="4"/>
+    <cellStyle name="Обычный_общий список" xfId="2"/>
+    <cellStyle name="Обычный_СПИСОК ОБОРУДОВАНИЯ" xfId="5"/>
+    <cellStyle name="Обычный_СПИСОК ОБОРУДОВАНИЯ_1" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -2646,7 +2061,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -2667,7 +2082,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -2939,627 +2354,627 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.85185185185185" defaultRowHeight="13.2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.13888888888889" style="119" customWidth="1"/>
-    <col min="2" max="2" width="29" style="119" customWidth="1"/>
-    <col min="3" max="3" width="14.712962962963" style="119" customWidth="1"/>
-    <col min="4" max="4" width="10.4259259259259" style="119" customWidth="1"/>
-    <col min="5" max="5" width="17.8518518518519" style="119" customWidth="1"/>
-    <col min="6" max="6" width="7.85185185185185" style="119" customWidth="1"/>
-    <col min="7" max="16384" width="7.85185185185185" style="119"/>
+    <col min="1" max="1" width="4.140625" style="90" customWidth="1"/>
+    <col min="2" max="2" width="29" style="90" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="90" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="90" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="90" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="90" customWidth="1"/>
+    <col min="7" max="16384" width="7.85546875" style="90"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="120"/>
-      <c r="B1" s="121" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="91"/>
+      <c r="B1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="92" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="120"/>
-      <c r="B2" s="122" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="91"/>
+      <c r="B2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="124" t="s">
+      <c r="C2" s="94"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="95" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="122" t="s">
+    <row r="3" spans="1:6">
+      <c r="B3" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121" t="s">
+      <c r="C3" s="94"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="119">
+      <c r="F3" s="90">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="125" t="s">
+    <row r="4" spans="1:6">
+      <c r="B4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="119">
+      <c r="F4" s="90">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="122" t="s">
+    <row r="5" spans="1:6">
+      <c r="B5" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121" t="s">
+      <c r="C5" s="94"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="119">
+      <c r="F5" s="90">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="122" t="s">
+    <row r="6" spans="1:6">
+      <c r="B6" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="123"/>
-      <c r="E6" s="121" t="s">
+      <c r="C6" s="94"/>
+      <c r="E6" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="119">
+      <c r="F6" s="90">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="122" t="s">
+    <row r="7" spans="1:6">
+      <c r="B7" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="123"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121" t="s">
+      <c r="C7" s="94"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="119">
+      <c r="F7" s="90">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="122" t="s">
+    <row r="8" spans="1:6">
+      <c r="B8" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="123"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="119" t="s">
+      <c r="C8" s="94"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="119">
+      <c r="F8" s="90">
         <v>3</v>
       </c>
     </row>
-    <row r="9" ht="13.9" customHeight="1" spans="2:6">
-      <c r="B9" s="122" t="s">
+    <row r="9" spans="1:6" ht="13.9" customHeight="1">
+      <c r="B9" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="119" t="s">
+      <c r="C9" s="94"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="119">
+      <c r="F9" s="90">
         <v>4</v>
       </c>
     </row>
-    <row r="10" ht="13.9" customHeight="1" spans="2:6">
-      <c r="B10" s="125" t="s">
+    <row r="10" spans="1:6" ht="13.9" customHeight="1">
+      <c r="B10" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="E10" s="119" t="s">
+      <c r="C10" s="94"/>
+      <c r="E10" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="119">
+      <c r="F10" s="90">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="122" t="s">
+    <row r="11" spans="1:6">
+      <c r="B11" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="121"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="122" t="s">
+      <c r="C11" s="94"/>
+      <c r="D11" s="92"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="E12" s="126" t="s">
+      <c r="C12" s="94"/>
+      <c r="E12" s="97" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="122" t="s">
+    <row r="13" spans="1:6">
+      <c r="B13" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="E13" s="119" t="s">
+      <c r="C13" s="94"/>
+      <c r="E13" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="119">
+      <c r="F13" s="90">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="122" t="s">
+    <row r="14" spans="1:6">
+      <c r="B14" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="123"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="122" t="s">
+      <c r="C14" s="94"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="E15" s="121" t="s">
+      <c r="C15" s="94"/>
+      <c r="E15" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="119" t="s">
+      <c r="F15" s="90" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="122" t="s">
+    <row r="16" spans="1:6">
+      <c r="B16" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="123"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="122" t="s">
+      <c r="C16" s="94"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="123"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="122" t="s">
+      <c r="C17" s="94"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="123"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="122" t="s">
+      <c r="C18" s="94"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="123"/>
+      <c r="C19" s="94"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="127"/>
-      <c r="B20" s="122" t="s">
+      <c r="A20" s="98"/>
+      <c r="B20" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="123"/>
+      <c r="C20" s="94"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="127"/>
-      <c r="B21" s="122" t="s">
+      <c r="A21" s="98"/>
+      <c r="B21" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="123"/>
+      <c r="C21" s="94"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="127"/>
-      <c r="B22" s="122" t="s">
+      <c r="A22" s="98"/>
+      <c r="B22" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="123"/>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="122" t="s">
+      <c r="C22" s="94"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="123"/>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="122" t="s">
+      <c r="C23" s="94"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="123"/>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="122" t="s">
+      <c r="C24" s="94"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="123"/>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="122" t="s">
+      <c r="C25" s="94"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="123"/>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="122" t="s">
+      <c r="C26" s="94"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="123"/>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="122" t="s">
+      <c r="C27" s="94"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="123"/>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="122" t="s">
+      <c r="C28" s="94"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="123"/>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="123" t="s">
+      <c r="C29" s="94"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="123"/>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="122" t="s">
+      <c r="C30" s="94"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="123"/>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="122" t="s">
+      <c r="C31" s="94"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="123"/>
+      <c r="C32" s="94"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="122" t="s">
+      <c r="B33" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="123"/>
+      <c r="C33" s="94"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="122" t="s">
+      <c r="B34" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="123"/>
+      <c r="C34" s="94"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="122" t="s">
+      <c r="B35" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="123"/>
+      <c r="C35" s="94"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="125" t="s">
+      <c r="B36" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="123"/>
+      <c r="C36" s="94"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="122" t="s">
+      <c r="B37" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="123"/>
+      <c r="C37" s="94"/>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="122" t="s">
+      <c r="B38" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="123"/>
+      <c r="C38" s="94"/>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="122" t="s">
+      <c r="B39" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="123"/>
+      <c r="C39" s="94"/>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="122" t="s">
+      <c r="B40" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="123"/>
+      <c r="C40" s="94"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="122" t="s">
+      <c r="B41" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="123"/>
+      <c r="C41" s="94"/>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="122" t="s">
+      <c r="B42" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="123"/>
+      <c r="C42" s="94"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="122" t="s">
+      <c r="B43" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="123"/>
+      <c r="C43" s="94"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="122" t="s">
+      <c r="B44" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="123"/>
+      <c r="C44" s="94"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="122" t="s">
+      <c r="B45" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="123"/>
+      <c r="C45" s="94"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="122" t="s">
+      <c r="B46" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="123"/>
+      <c r="C46" s="94"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="122" t="s">
+      <c r="B47" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="123"/>
+      <c r="C47" s="94"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="122" t="s">
+      <c r="B48" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="123"/>
+      <c r="C48" s="94"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="125" t="s">
+      <c r="B49" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="123"/>
+      <c r="C49" s="94"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="122" t="s">
+      <c r="B50" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="123"/>
+      <c r="C50" s="94"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="122" t="s">
+      <c r="B51" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="123"/>
+      <c r="C51" s="94"/>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="122" t="s">
+      <c r="B52" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="123"/>
+      <c r="C52" s="94"/>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="128" t="s">
+      <c r="B53" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="123"/>
+      <c r="C53" s="94"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="122" t="s">
+      <c r="B54" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="123"/>
+      <c r="C54" s="94"/>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="122" t="s">
+      <c r="B55" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="123"/>
+      <c r="C55" s="94"/>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="122" t="s">
+      <c r="B56" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="123"/>
+      <c r="C56" s="94"/>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="122" t="s">
+      <c r="B57" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="123"/>
+      <c r="C57" s="94"/>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="122" t="s">
+      <c r="B58" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="123"/>
+      <c r="C58" s="94"/>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="123" t="s">
+      <c r="B59" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="123"/>
+      <c r="C59" s="94"/>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="122" t="s">
+      <c r="B60" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="123"/>
+      <c r="C60" s="94"/>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="122" t="s">
+      <c r="B61" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="123"/>
+      <c r="C61" s="94"/>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="122" t="s">
+      <c r="B62" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="123"/>
+      <c r="C62" s="94"/>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="122" t="s">
+      <c r="B63" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="C63" s="123"/>
+      <c r="C63" s="94"/>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="122" t="s">
+      <c r="B64" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="123"/>
+      <c r="C64" s="94"/>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="122" t="s">
+      <c r="B65" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="123"/>
+      <c r="C65" s="94"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="122" t="s">
+      <c r="B66" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="123"/>
+      <c r="C66" s="94"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="123" t="s">
+      <c r="B67" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="123"/>
+      <c r="C67" s="94"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="122" t="s">
+      <c r="B68" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="123"/>
+      <c r="C68" s="94"/>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="122" t="s">
+      <c r="B69" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="123"/>
+      <c r="C69" s="94"/>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="122" t="s">
+      <c r="B70" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="123"/>
+      <c r="C70" s="94"/>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="122" t="s">
+      <c r="B71" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="123"/>
+      <c r="C71" s="94"/>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="122" t="s">
+      <c r="B72" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="123"/>
+      <c r="C72" s="94"/>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="122" t="s">
+      <c r="B73" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="123"/>
+      <c r="C73" s="94"/>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="122" t="s">
+      <c r="B74" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="123"/>
+      <c r="C74" s="94"/>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="122" t="s">
+      <c r="B75" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="C75" s="123"/>
+      <c r="C75" s="94"/>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="122" t="s">
+      <c r="B76" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="C76" s="123"/>
+      <c r="C76" s="94"/>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="125" t="s">
+      <c r="B77" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="123"/>
+      <c r="C77" s="94"/>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="123" t="s">
+      <c r="B78" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="123"/>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="124" t="s">
+      <c r="C78" s="94"/>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" s="95" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="119" t="s">
+      <c r="B81" s="90" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="119" t="s">
+      <c r="B82" s="90" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="119" t="s">
+      <c r="B83" s="90" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="119" t="s">
+      <c r="B84" s="90" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="119" t="s">
+      <c r="B85" s="90" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="119" t="s">
+      <c r="B86" s="90" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="119" t="s">
+      <c r="B87" s="90" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3569,46 +2984,46 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.42592592592593" style="32" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="32" customWidth="1"/>
     <col min="2" max="2" width="18" style="32" customWidth="1"/>
-    <col min="3" max="3" width="10.8518518518519" style="32"/>
-    <col min="4" max="4" width="11.1388888888889" style="32" customWidth="1"/>
-    <col min="5" max="5" width="8.57407407407407" style="32" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="32"/>
+    <col min="4" max="4" width="11.140625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="32" customWidth="1"/>
     <col min="6" max="6" width="32" style="32" customWidth="1"/>
-    <col min="7" max="7" width="8.42592592592593" style="32" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="32" customWidth="1"/>
     <col min="8" max="8" width="11" style="32" customWidth="1"/>
-    <col min="9" max="9" width="3.71296296296296" style="32" customWidth="1"/>
-    <col min="10" max="10" width="7.85185185185185" style="32"/>
-    <col min="11" max="11" width="17.8518518518519" style="32" customWidth="1"/>
-    <col min="12" max="12" width="6.13888888888889" style="32" customWidth="1"/>
-    <col min="13" max="13" width="12.5740740740741" style="32" customWidth="1"/>
-    <col min="14" max="256" width="8.28703703703704" style="32"/>
+    <col min="9" max="9" width="3.7109375" style="32" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="32"/>
+    <col min="11" max="11" width="17.85546875" style="32" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" style="32" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="32" customWidth="1"/>
+    <col min="14" max="256" width="8.28515625" style="32"/>
     <col min="257" max="16384" width="8" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:13">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A1" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-    </row>
-    <row r="2" ht="42.95" customHeight="1" spans="1:13">
-      <c r="A2" s="82" t="s">
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+    </row>
+    <row r="2" spans="1:14" ht="42.95" customHeight="1">
+      <c r="A2" s="65" t="s">
         <v>100</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -3620,43 +3035,43 @@
       <c r="D2" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="66" t="s">
         <v>104</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="65" t="s">
         <v>100</v>
       </c>
       <c r="J2" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="106" t="s">
+      <c r="K2" s="80" t="s">
         <v>109</v>
       </c>
       <c r="L2" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="107" t="s">
+      <c r="M2" s="81" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" s="71" customFormat="1" ht="27.95" customHeight="1" spans="1:14">
-      <c r="A3" s="85">
+    <row r="3" spans="1:14" s="57" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A3" s="68">
         <v>1</v>
       </c>
-      <c r="B3" s="86" t="str">
+      <c r="B3" s="69" t="str">
         <f>CONCATENATE('Информация для бумаг'!B5," ",'Информация для бумаг'!C5)</f>
         <v>Атаманов Андрей</v>
       </c>
-      <c r="C3" s="87" t="str">
+      <c r="C3" s="70" t="str">
         <f>'Информация для бумаг'!N5</f>
         <v>02.03.0005</v>
       </c>
@@ -3668,42 +3083,42 @@
         <f>'Информация для бумаг'!I5</f>
         <v>10</v>
       </c>
-      <c r="F3" s="69" t="str">
+      <c r="F3" s="55" t="str">
         <f>'Информация для бумаг'!K5</f>
         <v>Шуваловский пр. д. 90 к. кв.180</v>
       </c>
-      <c r="G3" s="88" t="s">
+      <c r="G3" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="89" t="s">
+      <c r="H3" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="90">
+      <c r="I3" s="72">
         <v>1</v>
       </c>
-      <c r="J3" s="108" t="s">
+      <c r="J3" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="109" t="s">
+      <c r="K3" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="L3" s="110">
+      <c r="L3" s="84">
         <v>1400</v>
       </c>
-      <c r="M3" s="110" t="s">
+      <c r="M3" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="N3" s="111"/>
-    </row>
-    <row r="4" s="71" customFormat="1" ht="24" spans="1:14">
-      <c r="A4" s="90">
+      <c r="N3" s="85"/>
+    </row>
+    <row r="4" spans="1:14" s="57" customFormat="1" ht="24">
+      <c r="A4" s="72">
         <v>2</v>
       </c>
-      <c r="B4" s="86" t="str">
+      <c r="B4" s="69" t="str">
         <f>CONCATENATE('Информация для бумаг'!B6," ",'Информация для бумаг'!C6)</f>
         <v>Башилов Константин</v>
       </c>
-      <c r="C4" s="87">
+      <c r="C4" s="70">
         <f>'Информация для бумаг'!N6</f>
         <v>39367</v>
       </c>
@@ -3715,38 +3130,38 @@
         <f>'Информация для бумаг'!I6</f>
         <v>7</v>
       </c>
-      <c r="F4" s="69" t="str">
+      <c r="F4" s="55" t="str">
         <f>'Информация для бумаг'!K6</f>
         <v>СПб, Пестеля д. 13-15 кв. 108</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="91"/>
-      <c r="I4" s="85">
+      <c r="H4" s="111"/>
+      <c r="I4" s="68">
         <v>2</v>
       </c>
-      <c r="J4" s="108" t="s">
+      <c r="J4" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="K4" s="109" t="s">
+      <c r="K4" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="N4" s="111"/>
-    </row>
-    <row r="5" s="71" customFormat="1" ht="23.1" customHeight="1" spans="1:14">
-      <c r="A5" s="85">
+      <c r="N4" s="85"/>
+    </row>
+    <row r="5" spans="1:14" s="57" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A5" s="68">
         <v>3</v>
       </c>
-      <c r="B5" s="86" t="str">
+      <c r="B5" s="69" t="str">
         <f>CONCATENATE('Информация для бумаг'!B7," ",'Информация для бумаг'!C7)</f>
         <v>Белокуров Михаил</v>
       </c>
-      <c r="C5" s="87">
+      <c r="C5" s="70">
         <f>'Информация для бумаг'!N7</f>
         <v>38553</v>
       </c>
@@ -3758,40 +3173,40 @@
         <f>'Информация для бумаг'!I7</f>
         <v>10</v>
       </c>
-      <c r="F5" s="69" t="str">
+      <c r="F5" s="55" t="str">
         <f>'Информация для бумаг'!K7</f>
         <v>ул. Ставропольская д. 12/15 кв. 46</v>
       </c>
-      <c r="G5" s="88" t="s">
+      <c r="G5" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="91"/>
-      <c r="I5" s="90">
+      <c r="H5" s="111"/>
+      <c r="I5" s="72">
         <v>3</v>
       </c>
-      <c r="J5" s="112" t="s">
+      <c r="J5" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="K5" s="109" t="s">
+      <c r="K5" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="L5" s="110">
+      <c r="L5" s="84">
         <v>1400</v>
       </c>
-      <c r="M5" s="110" t="s">
+      <c r="M5" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="N5" s="111"/>
-    </row>
-    <row r="6" s="71" customFormat="1" ht="15.6" spans="1:14">
-      <c r="A6" s="90">
+      <c r="N5" s="85"/>
+    </row>
+    <row r="6" spans="1:14" s="57" customFormat="1" ht="15.75">
+      <c r="A6" s="72">
         <v>4</v>
       </c>
-      <c r="B6" s="86" t="str">
+      <c r="B6" s="69" t="str">
         <f>CONCATENATE('Информация для бумаг'!B8," ",'Информация для бумаг'!C8)</f>
         <v>Демидова Алина</v>
       </c>
-      <c r="C6" s="87">
+      <c r="C6" s="70">
         <f>'Информация для бумаг'!N8</f>
         <v>39554</v>
       </c>
@@ -3803,30 +3218,30 @@
         <f>'Информация для бумаг'!I8</f>
         <v>7</v>
       </c>
-      <c r="F6" s="69" t="str">
+      <c r="F6" s="55" t="str">
         <f>'Информация для бумаг'!K8</f>
         <v>Туристская ул. дом 28 корп.3 кв.203</v>
       </c>
-      <c r="G6" s="88" t="s">
+      <c r="G6" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="91"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="111"/>
-    </row>
-    <row r="7" s="71" customFormat="1" ht="15.6" spans="1:14">
-      <c r="A7" s="85">
+      <c r="H6" s="111"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="85"/>
+    </row>
+    <row r="7" spans="1:14" s="57" customFormat="1" ht="15.75">
+      <c r="A7" s="68">
         <v>5</v>
       </c>
-      <c r="B7" s="86" t="str">
+      <c r="B7" s="69" t="str">
         <f>CONCATENATE('Информация для бумаг'!B9," ",'Информация для бумаг'!C9)</f>
         <v>Евдокимова Алёна</v>
       </c>
-      <c r="C7" s="87">
+      <c r="C7" s="70">
         <f>'Информация для бумаг'!N9</f>
         <v>38137</v>
       </c>
@@ -3838,30 +3253,30 @@
         <f>'Информация для бумаг'!I9</f>
         <v>11</v>
       </c>
-      <c r="F7" s="69" t="str">
+      <c r="F7" s="55" t="str">
         <f>'Информация для бумаг'!K9</f>
         <v>ул. Витебская, д.10, кв.14</v>
       </c>
-      <c r="G7" s="88" t="s">
+      <c r="G7" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="111"/>
-    </row>
-    <row r="8" s="71" customFormat="1" spans="1:14">
-      <c r="A8" s="90">
+      <c r="H7" s="111"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="85"/>
+    </row>
+    <row r="8" spans="1:14" s="57" customFormat="1">
+      <c r="A8" s="72">
         <v>6</v>
       </c>
-      <c r="B8" s="86" t="str">
+      <c r="B8" s="69" t="str">
         <f>CONCATENATE('Информация для бумаг'!B10," ",'Информация для бумаг'!C10)</f>
         <v>Ершова Татьяна</v>
       </c>
-      <c r="C8" s="87">
+      <c r="C8" s="70">
         <f>'Информация для бумаг'!N10</f>
         <v>39166</v>
       </c>
@@ -3873,25 +3288,25 @@
         <f>'Информация для бумаг'!I10</f>
         <v>8</v>
       </c>
-      <c r="F8" s="69" t="str">
+      <c r="F8" s="55" t="str">
         <f>'Информация для бумаг'!K10</f>
         <v>ул. Малая Карпатская д.17 кв 275</v>
       </c>
-      <c r="G8" s="88" t="s">
+      <c r="G8" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="91"/>
-      <c r="N8" s="114"/>
-    </row>
-    <row r="9" s="71" customFormat="1" ht="24" spans="1:13">
-      <c r="A9" s="85">
+      <c r="H8" s="111"/>
+      <c r="N8" s="88"/>
+    </row>
+    <row r="9" spans="1:14" s="57" customFormat="1" ht="36">
+      <c r="A9" s="68">
         <v>7</v>
       </c>
-      <c r="B9" s="86" t="str">
+      <c r="B9" s="69" t="str">
         <f>CONCATENATE('Информация для бумаг'!B11," ",'Информация для бумаг'!C11)</f>
         <v>Зиглина Софья</v>
       </c>
-      <c r="C9" s="87">
+      <c r="C9" s="70">
         <f>'Информация для бумаг'!N11</f>
         <v>38518</v>
       </c>
@@ -3903,29 +3318,29 @@
         <f>'Информация для бумаг'!I11</f>
         <v>10</v>
       </c>
-      <c r="F9" s="69" t="str">
+      <c r="F9" s="55" t="str">
         <f>'Информация для бумаг'!K11</f>
         <v>Санкт-Петербург, Красногвардейский район, улица Коммуны, дом 42, к.1, КВ.33</v>
       </c>
-      <c r="G9" s="88" t="s">
+      <c r="G9" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="H9" s="91"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-    </row>
-    <row r="10" s="71" customFormat="1" spans="1:13">
-      <c r="A10" s="90">
+      <c r="H9" s="111"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+    </row>
+    <row r="10" spans="1:14" s="57" customFormat="1" ht="24">
+      <c r="A10" s="72">
         <v>8</v>
       </c>
-      <c r="B10" s="86" t="str">
+      <c r="B10" s="69" t="str">
         <f>CONCATENATE('Информация для бумаг'!B12," ",'Информация для бумаг'!C12)</f>
         <v>Каретная Вероника</v>
       </c>
-      <c r="C10" s="87">
+      <c r="C10" s="70">
         <f>'Информация для бумаг'!N12</f>
         <v>39485</v>
       </c>
@@ -3937,29 +3352,29 @@
         <f>'Информация для бумаг'!I12</f>
         <v>7</v>
       </c>
-      <c r="F10" s="69" t="str">
+      <c r="F10" s="55" t="str">
         <f>'Информация для бумаг'!K12</f>
         <v>С-Пб., ул. Кораблестроителей д.19/1, кв. 168</v>
       </c>
-      <c r="G10" s="88" t="s">
+      <c r="G10" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="H10" s="91"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-    </row>
-    <row r="11" s="71" customFormat="1" ht="24" spans="1:13">
-      <c r="A11" s="85">
+      <c r="H10" s="111"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+    </row>
+    <row r="11" spans="1:14" s="57" customFormat="1" ht="24">
+      <c r="A11" s="68">
         <v>9</v>
       </c>
-      <c r="B11" s="86" t="str">
+      <c r="B11" s="69" t="str">
         <f>CONCATENATE('Информация для бумаг'!B13," ",'Информация для бумаг'!C13)</f>
         <v>Кудряшов Тимофей</v>
       </c>
-      <c r="C11" s="87">
+      <c r="C11" s="70">
         <f>'Информация для бумаг'!N13</f>
         <v>38434</v>
       </c>
@@ -3971,29 +3386,29 @@
         <f>'Информация для бумаг'!I13</f>
         <v>11</v>
       </c>
-      <c r="F11" s="69" t="str">
+      <c r="F11" s="55" t="str">
         <f>'Информация для бумаг'!K13</f>
         <v>Санкт-Петербург, пр. Маршала Жукова, д.45, кв 222</v>
       </c>
-      <c r="G11" s="88" t="s">
+      <c r="G11" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-    </row>
-    <row r="12" s="71" customFormat="1" spans="1:13">
-      <c r="A12" s="90">
+      <c r="H11" s="111"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+    </row>
+    <row r="12" spans="1:14" s="57" customFormat="1" ht="24">
+      <c r="A12" s="72">
         <v>10</v>
       </c>
-      <c r="B12" s="86" t="str">
+      <c r="B12" s="69" t="str">
         <f>CONCATENATE('Информация для бумаг'!B14," ",'Информация для бумаг'!C14)</f>
         <v>Нематова Рената</v>
       </c>
-      <c r="C12" s="87">
+      <c r="C12" s="70">
         <f>'Информация для бумаг'!N14</f>
         <v>38051</v>
       </c>
@@ -4005,29 +3420,29 @@
         <f>'Информация для бумаг'!I14</f>
         <v>11</v>
       </c>
-      <c r="F12" s="69" t="str">
+      <c r="F12" s="55" t="str">
         <f>'Информация для бумаг'!K14</f>
         <v>СПб,пос.Александровская,4 линия, д. 43А</v>
       </c>
-      <c r="G12" s="88" t="s">
+      <c r="G12" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="91"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-    </row>
-    <row r="13" s="71" customFormat="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A13" s="85">
+      <c r="H12" s="111"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+    </row>
+    <row r="13" spans="1:14" s="57" customFormat="1" ht="24" customHeight="1">
+      <c r="A13" s="68">
         <v>11</v>
       </c>
-      <c r="B13" s="86" t="str">
+      <c r="B13" s="69" t="str">
         <f>CONCATENATE('Информация для бумаг'!B15," ",'Информация для бумаг'!C15)</f>
         <v>Попов Василий</v>
       </c>
-      <c r="C13" s="87">
+      <c r="C13" s="70">
         <f>'Информация для бумаг'!N15</f>
         <v>39331</v>
       </c>
@@ -4039,29 +3454,29 @@
         <f>'Информация для бумаг'!I15</f>
         <v>8</v>
       </c>
-      <c r="F13" s="69" t="str">
+      <c r="F13" s="55" t="str">
         <f>'Информация для бумаг'!K15</f>
         <v>Ул.Бутлерова, 11 к.4 , кв 385</v>
       </c>
-      <c r="G13" s="88" t="s">
+      <c r="G13" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="91"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-    </row>
-    <row r="14" s="71" customFormat="1" ht="17.1" customHeight="1" spans="1:13">
-      <c r="A14" s="90">
+      <c r="H13" s="111"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+    </row>
+    <row r="14" spans="1:14" s="57" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A14" s="72">
         <v>12</v>
       </c>
-      <c r="B14" s="86" t="str">
+      <c r="B14" s="69" t="str">
         <f>CONCATENATE('Информация для бумаг'!B16," ",'Информация для бумаг'!C16)</f>
         <v>Сайчик Мария</v>
       </c>
-      <c r="C14" s="87">
+      <c r="C14" s="70">
         <f>'Информация для бумаг'!N16</f>
         <v>38982</v>
       </c>
@@ -4073,29 +3488,29 @@
         <f>'Информация для бумаг'!I16</f>
         <v>9</v>
       </c>
-      <c r="F14" s="69" t="str">
+      <c r="F14" s="55" t="str">
         <f>'Информация для бумаг'!K16</f>
         <v>Кораблестроителей, 39-831</v>
       </c>
-      <c r="G14" s="88" t="s">
+      <c r="G14" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="91"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-    </row>
-    <row r="15" s="71" customFormat="1" spans="1:13">
-      <c r="A15" s="85">
+      <c r="H14" s="111"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+    </row>
+    <row r="15" spans="1:14" s="57" customFormat="1">
+      <c r="A15" s="68">
         <v>13</v>
       </c>
-      <c r="B15" s="86" t="str">
+      <c r="B15" s="69" t="str">
         <f>CONCATENATE('Информация для бумаг'!B17," ",'Информация для бумаг'!C17)</f>
         <v>Семенова Елизавета</v>
       </c>
-      <c r="C15" s="87">
+      <c r="C15" s="70">
         <f>'Информация для бумаг'!N17</f>
         <v>39875</v>
       </c>
@@ -4107,31 +3522,31 @@
         <f>'Информация для бумаг'!I17</f>
         <v>7</v>
       </c>
-      <c r="F15" s="69" t="str">
+      <c r="F15" s="55" t="str">
         <f>'Информация для бумаг'!K17</f>
         <v>Лабутина 20-22 кв. 40</v>
       </c>
-      <c r="G15" s="88" t="s">
+      <c r="G15" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="91"/>
-      <c r="I15" s="115" t="s">
+      <c r="H15" s="111"/>
+      <c r="I15" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="117"/>
-    </row>
-    <row r="16" s="71" customFormat="1" ht="23.1" customHeight="1" spans="1:13">
-      <c r="A16" s="90">
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="103"/>
+    </row>
+    <row r="16" spans="1:14" s="57" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A16" s="72">
         <v>14</v>
       </c>
-      <c r="B16" s="86" t="str">
+      <c r="B16" s="69" t="str">
         <f>CONCATENATE('Информация для бумаг'!B18," ",'Информация для бумаг'!C18)</f>
         <v>Шилонцев Андрей</v>
       </c>
-      <c r="C16" s="87">
+      <c r="C16" s="70">
         <f>'Информация для бумаг'!N18</f>
         <v>38989</v>
       </c>
@@ -4143,29 +3558,29 @@
         <f>'Информация для бумаг'!I18</f>
         <v>9</v>
       </c>
-      <c r="F16" s="69" t="str">
+      <c r="F16" s="55" t="str">
         <f>'Информация для бумаг'!K18</f>
         <v>Санкт-Петербург, Ленинский проспект, дом 117, корпус 1, квартира 603</v>
       </c>
-      <c r="G16" s="88" t="s">
+      <c r="G16" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="H16" s="91"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-    </row>
-    <row r="17" s="71" customFormat="1" ht="24" spans="1:13">
-      <c r="A17" s="85">
+      <c r="H16" s="111"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+    </row>
+    <row r="17" spans="1:13" s="57" customFormat="1" ht="24">
+      <c r="A17" s="68">
         <v>15</v>
       </c>
-      <c r="B17" s="86" t="str">
+      <c r="B17" s="69" t="str">
         <f>CONCATENATE('Информация для бумаг'!B19," ",'Информация для бумаг'!C19)</f>
         <v>Шишкина Алина</v>
       </c>
-      <c r="C17" s="87">
+      <c r="C17" s="70">
         <f>'Информация для бумаг'!N19</f>
         <v>38070</v>
       </c>
@@ -4177,29 +3592,29 @@
         <f>'Информация для бумаг'!I19</f>
         <v>11</v>
       </c>
-      <c r="F17" s="69" t="str">
+      <c r="F17" s="55" t="str">
         <f>'Информация для бумаг'!K19</f>
         <v>Проспект Авиаконструкторов, дом 47, квартира 4</v>
       </c>
-      <c r="G17" s="88" t="s">
+      <c r="G17" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="H17" s="91"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-    </row>
-    <row r="18" s="71" customFormat="1" spans="1:13">
-      <c r="A18" s="90">
+      <c r="H17" s="111"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+    </row>
+    <row r="18" spans="1:13" s="57" customFormat="1">
+      <c r="A18" s="72">
         <v>16</v>
       </c>
-      <c r="B18" s="86" t="str">
+      <c r="B18" s="69" t="str">
         <f>CONCATENATE('Информация для бумаг'!B20," ",'Информация для бумаг'!C20)</f>
         <v>Нужин Илья</v>
       </c>
-      <c r="C18" s="87">
+      <c r="C18" s="70">
         <f>'Информация для бумаг'!N20</f>
         <v>38933</v>
       </c>
@@ -4211,290 +3626,289 @@
         <f>'Информация для бумаг'!I20</f>
         <v>9</v>
       </c>
-      <c r="F18" s="69" t="str">
+      <c r="F18" s="55" t="str">
         <f>'Информация для бумаг'!K20</f>
         <v>Наличная 37-1-4</v>
       </c>
-      <c r="G18" s="88" t="s">
+      <c r="G18" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="91"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-    </row>
-    <row r="19" s="71" customFormat="1" spans="1:13">
-      <c r="A19" s="85"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-    </row>
-    <row r="20" s="71" customFormat="1" spans="1:13">
-      <c r="A20" s="85"/>
-      <c r="B20" s="92" t="str">
+      <c r="H18" s="111"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+    </row>
+    <row r="19" spans="1:13" s="57" customFormat="1">
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+    </row>
+    <row r="20" spans="1:13" s="57" customFormat="1">
+      <c r="A20" s="68"/>
+      <c r="B20" s="73" t="str">
         <f>'Информация для бумаг'!C23</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="93" t="s">
+      <c r="C20" s="70"/>
+      <c r="D20" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="90"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="34" t="str">
         <f>'Информация для бумаг'!C24</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="96" t="s">
+      <c r="C21" s="70"/>
+      <c r="D21" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="97"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="91"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="111"/>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
     </row>
-    <row r="22" ht="15.6" spans="1:13">
-      <c r="A22" s="98" t="s">
+    <row r="22" spans="1:13" ht="15.75">
+      <c r="A22" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="100"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="112"/>
       <c r="I22" s="34"/>
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A23" s="101" t="s">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A23" s="108" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="102"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="32" t="str">
         <f>'Информация для бумаг'!C28</f>
         <v>SYS1945298572,  001-059-070384/21</v>
       </c>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="99"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="76"/>
       <c r="I23" s="34"/>
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1" spans="1:13">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1">
       <c r="A24" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="H24" s="105" t="s">
+      <c r="H24" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="118"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1" spans="8:8">
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1">
       <c r="H25" s="32" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" ht="23.25" customHeight="1"/>
-    <row r="27" ht="23.25" customHeight="1"/>
-    <row r="28" ht="23.25" customHeight="1"/>
-    <row r="29" ht="23.25" customHeight="1"/>
-    <row r="30" ht="23.25" customHeight="1"/>
-    <row r="31" ht="23.25" customHeight="1"/>
-    <row r="32" ht="23.25" customHeight="1"/>
+    <row r="26" spans="1:13" ht="23.25" customHeight="1"/>
+    <row r="27" spans="1:13" ht="23.25" customHeight="1"/>
+    <row r="28" spans="1:13" ht="23.25" customHeight="1"/>
+    <row r="29" spans="1:13" ht="23.25" customHeight="1"/>
+    <row r="30" spans="1:13" ht="23.25" customHeight="1"/>
+    <row r="31" spans="1:13" ht="23.25" customHeight="1"/>
+    <row r="32" spans="1:13" ht="23.25" customHeight="1"/>
     <row r="33" ht="23.25" customHeight="1"/>
     <row r="34" ht="23.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="H3:H22"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="I15:M15"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="H3:H22"/>
   </mergeCells>
-  <pageMargins left="0.2" right="0.229166666666667" top="0.25" bottom="0.25" header="0" footer="0"/>
+  <pageMargins left="0.2" right="0.22916666666666699" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="94" orientation="landscape"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" style="32" customWidth="1"/>
     <col min="2" max="6" width="8" style="32"/>
-    <col min="7" max="7" width="23.5740740740741" style="32" customWidth="1"/>
-    <col min="8" max="8" width="10.712962962963" style="32" customWidth="1"/>
-    <col min="9" max="9" width="3.85185185185185" style="32" customWidth="1"/>
-    <col min="10" max="10" width="9.42592592592593" style="32" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="32" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" style="32" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="32" customWidth="1"/>
     <col min="11" max="11" width="8" style="32"/>
-    <col min="12" max="12" width="13.1388888888889" style="32"/>
-    <col min="13" max="13" width="9.85185185185185" style="32"/>
+    <col min="12" max="12" width="13.140625" style="32"/>
+    <col min="13" max="13" width="9.85546875" style="32"/>
     <col min="14" max="14" width="8" style="32"/>
-    <col min="15" max="15" width="1.57407407407407" style="32" customWidth="1"/>
+    <col min="15" max="15" width="1.5703125" style="32" customWidth="1"/>
     <col min="16" max="16384" width="8" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" spans="1:14">
+    <row r="1" spans="1:14" ht="12.75" customHeight="1">
       <c r="A1" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A2" s="51" t="s">
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A2" s="122" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="50" t="s">
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" spans="1:7">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" spans="1:14">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54" t="s">
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+    </row>
+    <row r="3" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A3" s="123"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="51"/>
+    </row>
+    <row r="4" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-    </row>
-    <row r="6" ht="23.1" customHeight="1" spans="1:14">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="H6" s="50" t="s">
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="123"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+    </row>
+    <row r="6" spans="1:14" ht="23.1" customHeight="1">
+      <c r="A6" s="123"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="H6" s="113" t="s">
         <v>135</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="55"/>
-      <c r="I7" s="73" t="s">
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="52"/>
+      <c r="I7" s="59" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:8">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
-      <c r="H8" s="60" t="s">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A8" s="120"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="126"/>
+      <c r="H8" s="53" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:10">
-      <c r="A9" s="56"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="63"/>
+    <row r="9" spans="1:14" ht="15.75">
+      <c r="A9" s="120"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="129"/>
       <c r="H9" s="50" t="s">
         <v>138</v>
       </c>
@@ -4502,40 +3916,40 @@
         <f>COUNT('Cписок для приказа'!D5:D20)</f>
         <v>16</v>
       </c>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="56" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" ht="45" customHeight="1" spans="1:14">
-      <c r="A10" s="64"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="H10" s="53" t="s">
+    <row r="10" spans="1:14" ht="45" customHeight="1">
+      <c r="A10" s="121"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="H10" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="J10" s="74" t="str">
+      <c r="J10" s="115" t="str">
         <f>'Информация для бумаг'!C3</f>
         <v>Санкт-Петербург - Кандалакшский заповедник (о.Ряжков) - Санкт-Петербург</v>
       </c>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="64"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="121"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
       <c r="H11" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="I11" s="76">
+      <c r="I11" s="60">
         <f>DAYS360('Информация для бумаг'!C2,'Информация для бумаг'!D2)-1</f>
         <v>22</v>
       </c>
@@ -4543,62 +3957,62 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:12">
-      <c r="A12" s="66"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="H12" s="68" t="s">
+    <row r="12" spans="1:14" ht="15.75">
+      <c r="A12" s="54"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="H12" s="118" t="s">
         <v>143</v>
       </c>
-      <c r="I12" s="68"/>
-      <c r="J12" s="77">
+      <c r="I12" s="118"/>
+      <c r="J12" s="61">
         <f>'Информация для бумаг'!C2</f>
         <v>44409</v>
       </c>
-      <c r="K12" s="78" t="s">
+      <c r="K12" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="L12" s="79">
+      <c r="L12" s="63">
         <f>'Информация для бумаг'!D2</f>
         <v>44432</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1" spans="1:6">
-      <c r="A13" s="64"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-    </row>
-    <row r="14" ht="15.6" spans="1:14">
-      <c r="A14" s="64"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="H14" s="70" t="s">
+    <row r="13" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A13" s="121"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75">
+      <c r="A14" s="121"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="H14" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="K14" s="78" t="str">
+      <c r="K14" s="119" t="str">
         <f>'Информация для бумаг'!C23</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="64"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="119"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="121"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
       <c r="K15" s="43" t="s">
         <v>146</v>
       </c>
@@ -4607,55 +4021,55 @@
         <v>89217427984</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A16" s="64"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="H16" s="71" t="s">
+    <row r="16" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A16" s="121"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="H16" s="57" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="64"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="H17" s="72" t="s">
+    <row r="17" spans="1:14">
+      <c r="A17" s="121"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="H17" s="58" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="64"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-    </row>
-    <row r="19" ht="15.6" spans="1:14">
-      <c r="A19" s="64"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="H19" s="70" t="s">
+    <row r="18" spans="1:14">
+      <c r="A18" s="121"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75">
+      <c r="A19" s="121"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="H19" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="K19" s="78" t="str">
+      <c r="K19" s="119" t="str">
         <f>'Информация для бумаг'!C24</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
-    </row>
-    <row r="20" spans="11:12">
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="K20" s="43" t="s">
         <v>146</v>
       </c>
@@ -4664,53 +4078,53 @@
         <v>89679796720</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1" spans="8:14">
-      <c r="H22" s="50" t="s">
+    <row r="22" spans="1:14" ht="12.75" customHeight="1">
+      <c r="H22" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1" spans="8:14">
-      <c r="H23" s="50" t="s">
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+    </row>
+    <row r="23" spans="1:14" ht="12.75" customHeight="1">
+      <c r="H23" s="113" t="s">
         <v>151</v>
       </c>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-    </row>
-    <row r="25" ht="15.6" spans="8:13">
-      <c r="H25" s="70" t="s">
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75">
+      <c r="H25" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="M25" s="80">
+      <c r="M25" s="64">
         <f>'Информация для бумаг'!C26</f>
         <v>44337</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="1:9">
-      <c r="A26" s="70" t="s">
+    <row r="26" spans="1:14" ht="15.75">
+      <c r="A26" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70" t="s">
+      <c r="H26" s="56"/>
+      <c r="I26" s="56" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="8:8">
-      <c r="H28" s="70" t="s">
+    <row r="28" spans="1:14" ht="15.75">
+      <c r="H28" s="56" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="8:12">
-      <c r="H29" s="70" t="s">
+    <row r="29" spans="1:14" ht="15.75">
+      <c r="H29" s="56" t="s">
         <v>156</v>
       </c>
       <c r="K29" s="32">
@@ -4721,19 +4135,19 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="1:8">
-      <c r="A30" s="70" t="s">
+    <row r="30" spans="1:14" ht="15.75">
+      <c r="A30" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="H30" s="70"/>
-    </row>
-    <row r="31" ht="15.6" spans="8:8">
-      <c r="H31" s="70" t="s">
+      <c r="H30" s="56"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75">
+      <c r="H31" s="56" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="8:12">
-      <c r="H32" s="70" t="s">
+    <row r="32" spans="1:14" ht="15.75">
+      <c r="H32" s="56" t="s">
         <v>160</v>
       </c>
       <c r="K32" s="32">
@@ -4744,69 +4158,68 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="8:8">
-      <c r="H33" s="72" t="s">
+    <row r="33" spans="8:8" ht="15.75">
+      <c r="H33" s="58" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:F6"/>
+    <mergeCell ref="B8:F9"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="B13:F15"/>
+    <mergeCell ref="B16:F19"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="H22:N22"/>
     <mergeCell ref="H1:N1"/>
     <mergeCell ref="H2:N2"/>
     <mergeCell ref="H4:N4"/>
     <mergeCell ref="H6:N6"/>
     <mergeCell ref="J10:N10"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A2:F6"/>
-    <mergeCell ref="B8:F9"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="B13:F15"/>
-    <mergeCell ref="B16:F19"/>
   </mergeCells>
-  <pageMargins left="0.388888888888889" right="0.388888888888889" top="0.388888888888889" bottom="0.588888888888889" header="0" footer="0.509027777777778"/>
+  <pageMargins left="0.38888888888888901" right="0.38888888888888901" top="0.38888888888888901" bottom="0.58888888888888902" header="0" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.71296296296296" style="32"/>
-    <col min="2" max="2" width="35.712962962963" style="32" customWidth="1"/>
-    <col min="3" max="3" width="9.28703703703704" style="32" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="32"/>
+    <col min="2" max="2" width="35.7109375" style="32" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="32" customWidth="1"/>
     <col min="4" max="4" width="8" style="32"/>
-    <col min="5" max="5" width="12.8518518518519" style="32"/>
-    <col min="6" max="6" width="33.8518518518519" style="32" customWidth="1"/>
-    <col min="7" max="7" width="17.287037037037" style="43" customWidth="1"/>
-    <col min="8" max="8" width="26.4259259259259" style="32" customWidth="1"/>
-    <col min="9" max="9" width="12.8518518518519" style="32" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="32"/>
+    <col min="6" max="6" width="33.85546875" style="32" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="43" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" style="32" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="32" customWidth="1"/>
     <col min="10" max="16384" width="8" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:9">
       <c r="B1" s="32" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:9">
       <c r="B2" s="32" t="s">
         <v>163</v>
       </c>
@@ -4838,7 +4251,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" s="42" customFormat="1" ht="26.4" spans="1:9">
+    <row r="5" spans="1:9" s="42" customFormat="1" ht="25.5">
       <c r="A5" s="46">
         <v>1</v>
       </c>
@@ -4875,7 +4288,7 @@
         <v>89217476129, 8 921 9942973</v>
       </c>
     </row>
-    <row r="6" s="42" customFormat="1" spans="1:9">
+    <row r="6" spans="1:9" s="42" customFormat="1">
       <c r="A6" s="46">
         <v>2</v>
       </c>
@@ -4912,7 +4325,7 @@
         <v>89052006465</v>
       </c>
     </row>
-    <row r="7" s="42" customFormat="1" spans="1:9">
+    <row r="7" spans="1:9" s="42" customFormat="1" ht="25.5">
       <c r="A7" s="46">
         <v>3</v>
       </c>
@@ -4949,7 +4362,7 @@
         <v>89213205528</v>
       </c>
     </row>
-    <row r="8" s="42" customFormat="1" spans="1:9">
+    <row r="8" spans="1:9" s="42" customFormat="1">
       <c r="A8" s="46">
         <v>4</v>
       </c>
@@ -4986,7 +4399,7 @@
         <v>89052274602</v>
       </c>
     </row>
-    <row r="9" s="42" customFormat="1" spans="1:9">
+    <row r="9" spans="1:9" s="42" customFormat="1">
       <c r="A9" s="46">
         <v>5</v>
       </c>
@@ -5023,7 +4436,7 @@
         <v>89117966505</v>
       </c>
     </row>
-    <row r="10" s="42" customFormat="1" spans="1:9">
+    <row r="10" spans="1:9" s="42" customFormat="1">
       <c r="A10" s="46">
         <v>6</v>
       </c>
@@ -5060,7 +4473,7 @@
         <v>9522270284</v>
       </c>
     </row>
-    <row r="11" s="42" customFormat="1" ht="39.6" spans="1:9">
+    <row r="11" spans="1:9" s="42" customFormat="1" ht="38.25">
       <c r="A11" s="46">
         <v>7</v>
       </c>
@@ -5097,7 +4510,7 @@
         <v>89219451925</v>
       </c>
     </row>
-    <row r="12" s="42" customFormat="1" ht="26.4" spans="1:9">
+    <row r="12" spans="1:9" s="42" customFormat="1" ht="25.5">
       <c r="A12" s="46">
         <v>8</v>
       </c>
@@ -5134,7 +4547,7 @@
         <v>89213132221</v>
       </c>
     </row>
-    <row r="13" s="42" customFormat="1" ht="26.4" spans="1:9">
+    <row r="13" spans="1:9" s="42" customFormat="1" ht="25.5">
       <c r="A13" s="46">
         <v>9</v>
       </c>
@@ -5171,7 +4584,7 @@
         <v>89817910834</v>
       </c>
     </row>
-    <row r="14" s="42" customFormat="1" ht="26.4" spans="1:9">
+    <row r="14" spans="1:9" s="42" customFormat="1" ht="25.5">
       <c r="A14" s="46">
         <v>10</v>
       </c>
@@ -5208,7 +4621,7 @@
         <v>89112207532</v>
       </c>
     </row>
-    <row r="15" s="42" customFormat="1" spans="1:9">
+    <row r="15" spans="1:9" s="42" customFormat="1">
       <c r="A15" s="46">
         <v>11</v>
       </c>
@@ -5245,7 +4658,7 @@
         <v>89610717771</v>
       </c>
     </row>
-    <row r="16" s="42" customFormat="1" spans="1:9">
+    <row r="16" spans="1:9" s="42" customFormat="1">
       <c r="A16" s="46">
         <v>12</v>
       </c>
@@ -5282,7 +4695,7 @@
         <v>9818417041</v>
       </c>
     </row>
-    <row r="17" s="42" customFormat="1" spans="1:9">
+    <row r="17" spans="1:9" s="42" customFormat="1">
       <c r="A17" s="46">
         <v>13</v>
       </c>
@@ -5319,7 +4732,7 @@
         <v>9046392174</v>
       </c>
     </row>
-    <row r="18" s="42" customFormat="1" ht="26.4" spans="1:9">
+    <row r="18" spans="1:9" s="42" customFormat="1" ht="25.5">
       <c r="A18" s="46">
         <v>14</v>
       </c>
@@ -5356,7 +4769,7 @@
         <v>8921326506</v>
       </c>
     </row>
-    <row r="19" s="42" customFormat="1" ht="26.4" spans="1:9">
+    <row r="19" spans="1:9" s="42" customFormat="1" ht="25.5">
       <c r="A19" s="46">
         <v>15</v>
       </c>
@@ -5393,7 +4806,7 @@
         <v>89218717677</v>
       </c>
     </row>
-    <row r="20" s="42" customFormat="1" spans="1:9">
+    <row r="20" spans="1:9" s="42" customFormat="1">
       <c r="A20" s="46">
         <v>16</v>
       </c>
@@ -5430,7 +4843,7 @@
         <v>9213827100</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:9">
       <c r="B25" s="32" t="str">
         <f>'Информация для бумаг'!C23</f>
         <v>Хайтов Вадим Михайлович</v>
@@ -5439,7 +4852,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:9">
       <c r="B27" s="32" t="str">
         <f>'Информация для бумаг'!C24</f>
         <v>Котельникова Валентина Сергеевна</v>
@@ -5450,39 +4863,38 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.1388888888889" style="32" customWidth="1"/>
-    <col min="2" max="2" width="16.8518518518519" style="32" customWidth="1"/>
-    <col min="3" max="3" width="16.4259259259259" style="32" customWidth="1"/>
-    <col min="4" max="4" width="18.712962962963" style="32" customWidth="1"/>
-    <col min="5" max="5" width="13.1388888888889" style="32" customWidth="1"/>
-    <col min="6" max="6" width="17.4259259259259" style="32" customWidth="1"/>
-    <col min="7" max="7" width="16.5740740740741" style="32" customWidth="1"/>
-    <col min="8" max="8" width="19.287037037037" style="32" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="32" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="32" customWidth="1"/>
     <col min="9" max="16384" width="8" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:8">
       <c r="A1" s="33" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" ht="82.5" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="82.5" customHeight="1">
       <c r="A2" s="34" t="s">
         <v>164</v>
       </c>
@@ -5543,7 +4955,7 @@
       <c r="G5" s="36"/>
       <c r="H5" s="34"/>
     </row>
-    <row r="6" ht="14.4" spans="1:8">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" s="34" t="str">
         <f>'Cписок для приказа'!B8</f>
         <v>Демидова Алина Витальевна</v>
@@ -5595,7 +5007,7 @@
       <c r="G9" s="37"/>
       <c r="H9" s="34"/>
     </row>
-    <row r="10" ht="14.4" spans="1:8">
+    <row r="10" spans="1:8" ht="15">
       <c r="A10" s="34" t="str">
         <f>'Cписок для приказа'!B12</f>
         <v>Каретная Вероника Михайловна</v>
@@ -5608,7 +5020,7 @@
       <c r="G10" s="38"/>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" ht="14.4" spans="1:8">
+    <row r="11" spans="1:8" ht="15">
       <c r="A11" s="34" t="str">
         <f>'Cписок для приказа'!B13</f>
         <v>Кудряшов Тимофей Андреевич</v>
@@ -5621,7 +5033,7 @@
       <c r="G11" s="38"/>
       <c r="H11" s="34"/>
     </row>
-    <row r="12" ht="14.4" spans="1:8">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12" s="34" t="str">
         <f>'Cписок для приказа'!B14</f>
         <v>Нематова Рената Батировна</v>
@@ -5634,7 +5046,7 @@
       <c r="G12" s="38"/>
       <c r="H12" s="34"/>
     </row>
-    <row r="13" ht="14.4" spans="1:8">
+    <row r="13" spans="1:8" ht="15">
       <c r="A13" s="34" t="str">
         <f>'Cписок для приказа'!B15</f>
         <v>Попов Василий Владиславович</v>
@@ -5647,7 +5059,7 @@
       <c r="G13" s="38"/>
       <c r="H13" s="34"/>
     </row>
-    <row r="14" ht="14.4" spans="1:8">
+    <row r="14" spans="1:8" ht="15">
       <c r="A14" s="34" t="str">
         <f>'Cписок для приказа'!B16</f>
         <v>Сайчик Мария Владимировна</v>
@@ -5686,7 +5098,7 @@
       <c r="G16" s="36"/>
       <c r="H16" s="34"/>
     </row>
-    <row r="17" ht="14.4" spans="1:8">
+    <row r="17" spans="1:8" ht="15">
       <c r="A17" s="34" t="str">
         <f>'Cписок для приказа'!B19</f>
         <v>Шишкина Алина Денисовна</v>
@@ -5712,51 +5124,50 @@
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:8">
       <c r="A19" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8" style="20"/>
-    <col min="2" max="2" width="28.8518518518519" style="20" customWidth="1"/>
-    <col min="3" max="3" width="10.8518518518519" style="20"/>
-    <col min="4" max="4" width="15.8518518518519" style="20" customWidth="1"/>
-    <col min="5" max="5" width="21.4259259259259" style="20"/>
-    <col min="6" max="6" width="12.8518518518519" style="20"/>
-    <col min="7" max="7" width="9.28703703703704" style="20"/>
+    <col min="2" max="2" width="28.85546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="20"/>
+    <col min="4" max="4" width="15.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="20"/>
+    <col min="6" max="6" width="12.85546875" style="20"/>
+    <col min="7" max="7" width="9.28515625" style="20"/>
     <col min="8" max="8" width="9" style="20"/>
-    <col min="9" max="9" width="12.1388888888889" style="21"/>
-    <col min="10" max="10" width="19.4259259259259" style="20"/>
-    <col min="11" max="11" width="28.1388888888889" style="20"/>
-    <col min="12" max="12" width="31.4259259259259" style="20"/>
-    <col min="13" max="13" width="14.1388888888889" style="20"/>
-    <col min="14" max="14" width="18.8518518518519" style="20"/>
-    <col min="15" max="15" width="14.1388888888889" style="20"/>
+    <col min="9" max="9" width="12.140625" style="21"/>
+    <col min="10" max="10" width="19.42578125" style="20"/>
+    <col min="11" max="11" width="28.140625" style="20"/>
+    <col min="12" max="12" width="31.42578125" style="20"/>
+    <col min="13" max="13" width="14.140625" style="20"/>
+    <col min="14" max="14" width="18.85546875" style="20"/>
+    <col min="15" max="15" width="14.140625" style="20"/>
     <col min="16" max="16384" width="8" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:17">
       <c r="B1" s="22" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="1:17">
       <c r="B2" s="20" t="s">
         <v>179</v>
       </c>
@@ -5768,7 +5179,7 @@
       </c>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="1:17">
       <c r="B3" s="20" t="s">
         <v>180</v>
       </c>
@@ -5777,7 +5188,7 @@
       </c>
       <c r="D3" s="24"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="1:17">
       <c r="B4" s="22" t="s">
         <v>182</v>
       </c>
@@ -5821,7 +5232,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" ht="14.4" spans="1:17">
+    <row r="5" spans="1:17" ht="15">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -5864,7 +5275,7 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" ht="14.4" spans="1:17">
+    <row r="6" spans="1:17" ht="15">
       <c r="A6" s="20">
         <v>2</v>
       </c>
@@ -5907,7 +5318,7 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" ht="14.4" spans="1:17">
+    <row r="7" spans="1:17" ht="15">
       <c r="A7" s="20">
         <v>3</v>
       </c>
@@ -5950,7 +5361,7 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" ht="14.4" spans="1:17">
+    <row r="8" spans="1:17" ht="15">
       <c r="A8" s="20">
         <v>4</v>
       </c>
@@ -5993,7 +5404,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" ht="14.4" spans="1:17">
+    <row r="9" spans="1:17" ht="15">
       <c r="A9" s="20">
         <v>5</v>
       </c>
@@ -6036,7 +5447,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" ht="14.4" spans="1:17">
+    <row r="10" spans="1:17" ht="15">
       <c r="A10" s="20">
         <v>6</v>
       </c>
@@ -6076,7 +5487,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" ht="14.4" spans="1:17">
+    <row r="11" spans="1:17" ht="15">
       <c r="A11" s="20">
         <v>7</v>
       </c>
@@ -6119,7 +5530,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" ht="14.4" spans="1:17">
+    <row r="12" spans="1:17" ht="15">
       <c r="A12" s="20">
         <v>8</v>
       </c>
@@ -6162,7 +5573,7 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" ht="14.4" spans="1:17">
+    <row r="13" spans="1:17" ht="15">
       <c r="A13" s="20">
         <v>9</v>
       </c>
@@ -6205,7 +5616,7 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" ht="14.4" spans="1:17">
+    <row r="14" spans="1:17" ht="15">
       <c r="A14" s="20">
         <v>10</v>
       </c>
@@ -6248,7 +5659,7 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" ht="14.4" spans="1:17">
+    <row r="15" spans="1:17" ht="15">
       <c r="A15" s="20">
         <v>11</v>
       </c>
@@ -6291,7 +5702,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" ht="14.4" spans="1:17">
+    <row r="16" spans="1:17" ht="15">
       <c r="A16" s="20">
         <v>12</v>
       </c>
@@ -6334,7 +5745,7 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" ht="14.4" spans="1:17">
+    <row r="17" spans="1:17" ht="15">
       <c r="A17" s="20">
         <v>13</v>
       </c>
@@ -6377,7 +5788,7 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" ht="14.4" spans="1:17">
+    <row r="18" spans="1:17" ht="15">
       <c r="A18" s="20">
         <v>14</v>
       </c>
@@ -6420,7 +5831,7 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" ht="14.4" spans="1:17">
+    <row r="19" spans="1:17" ht="15">
       <c r="A19" s="20">
         <v>15</v>
       </c>
@@ -6463,7 +5874,7 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
     </row>
-    <row r="20" ht="14.4" spans="1:17">
+    <row r="20" spans="1:17" ht="15">
       <c r="A20" s="20">
         <v>16</v>
       </c>
@@ -6503,7 +5914,7 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="1:17">
       <c r="B23" s="20" t="s">
         <v>170</v>
       </c>
@@ -6517,7 +5928,7 @@
         <v>89217427984</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="1:17">
       <c r="B24" s="20" t="s">
         <v>281</v>
       </c>
@@ -6531,7 +5942,7 @@
         <v>89679796720</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:17">
       <c r="B26" s="20" t="s">
         <v>283</v>
       </c>
@@ -6539,7 +5950,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:17">
       <c r="B27" s="20" t="s">
         <v>284</v>
       </c>
@@ -6547,7 +5958,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="1:17">
       <c r="B28" s="20" t="s">
         <v>285</v>
       </c>
@@ -6558,36 +5969,35 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.1388888888889" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.712962962963" style="4" customWidth="1"/>
-    <col min="3" max="5" width="14.287037037037" style="4" customWidth="1"/>
-    <col min="6" max="7" width="16.712962962963" style="4"/>
-    <col min="8" max="8" width="25.1111111111111" style="5" customWidth="1"/>
-    <col min="9" max="9" width="28.1388888888889" style="4" customWidth="1"/>
-    <col min="10" max="10" width="29.712962962963" style="5" customWidth="1"/>
-    <col min="11" max="12" width="12.8518518518519" style="4"/>
-    <col min="13" max="14" width="10.8518518518519" style="4"/>
-    <col min="15" max="15" width="8.85185185185185" style="4"/>
-    <col min="16" max="16" width="12.8518518518519" style="4"/>
-    <col min="17" max="17" width="10.8518518518519" style="4"/>
-    <col min="18" max="19" width="8.85185185185185" style="4"/>
-    <col min="20" max="21" width="12.8518518518519" style="4"/>
-    <col min="22" max="16384" width="8.85185185185185" style="4"/>
+    <col min="1" max="1" width="19.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="4" customWidth="1"/>
+    <col min="3" max="5" width="14.28515625" style="4" customWidth="1"/>
+    <col min="6" max="7" width="16.7109375" style="4"/>
+    <col min="8" max="8" width="25.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" style="5" customWidth="1"/>
+    <col min="11" max="12" width="12.85546875" style="4"/>
+    <col min="13" max="14" width="10.85546875" style="4"/>
+    <col min="15" max="15" width="8.85546875" style="4"/>
+    <col min="16" max="16" width="12.85546875" style="4"/>
+    <col min="17" max="17" width="10.85546875" style="4"/>
+    <col min="18" max="19" width="8.85546875" style="4"/>
+    <col min="20" max="21" width="12.85546875" style="4"/>
+    <col min="22" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -7479,7 +6889,9 @@
       <c r="F13" s="8">
         <v>1</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
       <c r="H13" s="12" t="s">
         <v>364</v>
       </c>
@@ -7604,7 +7016,7 @@
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:29">
+    <row r="15" spans="1:29" s="3" customFormat="1">
       <c r="A15" s="6" t="s">
         <v>266</v>
       </c>
@@ -7674,7 +7086,7 @@
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
     </row>
-    <row r="16" ht="15.15" spans="1:29">
+    <row r="16" spans="1:29">
       <c r="A16" s="6" t="s">
         <v>271</v>
       </c>
@@ -7749,7 +7161,7 @@
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" ht="15.15" spans="1:29">
+    <row r="17" spans="1:29">
       <c r="A17" s="6" t="s">
         <v>275</v>
       </c>
@@ -8010,7 +7422,9 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>401</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="6"/>
       <c r="J24" s="7"/>
@@ -10794,41 +10208,37 @@
       <c r="AC113" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC17">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:AC17"/>
   <sortState ref="A2:AC21">
     <sortCondition ref="A2:A21"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" display="demyano4ka@gmail.com"/>
-    <hyperlink ref="I10" r:id="rId2" display="lli@list.ru"/>
-    <hyperlink ref="H13" r:id="rId3" display="vsajchik@gmail.com"/>
-    <hyperlink ref="H8" r:id="rId4" display="assia3@yandex.ru"/>
-    <hyperlink ref="H16" r:id="rId5" display="hayloft@mail.ru"/>
-    <hyperlink ref="H14" r:id="rId6" display="natasemenova@mail.ru"/>
-    <hyperlink ref="I11" r:id="rId7" display="babukaka04@gmail.com"/>
-    <hyperlink ref="H6" r:id="rId8" display="olgapasko1974@yandex.ru"/>
+    <hyperlink ref="H5" r:id="rId1"/>
+    <hyperlink ref="I10" r:id="rId2"/>
+    <hyperlink ref="H13" r:id="rId3"/>
+    <hyperlink ref="H8" r:id="rId4"/>
+    <hyperlink ref="H16" r:id="rId5"/>
+    <hyperlink ref="H14" r:id="rId6"/>
+    <hyperlink ref="I11" r:id="rId7"/>
+    <hyperlink ref="H6" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C8"/>
+      <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.4259259259259" customWidth="1"/>
-    <col min="2" max="2" width="13.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="47.287037037037" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10842,7 +10252,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="2" ht="52.8" spans="1:3">
+    <row r="2" spans="1:3" ht="51">
       <c r="A2" s="1" t="s">
         <v>395</v>
       </c>
@@ -10875,7 +10285,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="5" ht="79.2" spans="1:3">
+    <row r="5" spans="1:3" ht="76.5">
       <c r="A5" s="1" t="s">
         <v>271</v>
       </c>
@@ -10886,7 +10296,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="6" ht="39.6" spans="1:3">
+    <row r="6" spans="1:3" ht="38.25">
       <c r="A6" s="1" t="s">
         <v>248</v>
       </c>
@@ -10908,7 +10318,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" ht="52.8" spans="1:3">
+    <row r="8" spans="1:3" ht="51">
       <c r="A8" s="1" t="s">
         <v>191</v>
       </c>
@@ -10921,6 +10331,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>